--- a/ScoreCard.xlsx
+++ b/ScoreCard.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\WorkspaceLuna\CS7641_Assignment3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="465" windowWidth="27555" windowHeight="12240"/>
+    <workbookView xWindow="720" yWindow="465" windowWidth="27555" windowHeight="12240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Adult" sheetId="1" r:id="rId1"/>
     <sheet name="Adult Notes" sheetId="2" r:id="rId2"/>
+    <sheet name="Adult Scree" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6108" uniqueCount="2114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6110" uniqueCount="2116">
   <si>
     <t>HL</t>
   </si>
@@ -6357,6 +6363,12 @@
   </si>
   <si>
     <t>Root relative squared error             78.3498 %</t>
+  </si>
+  <si>
+    <t>ADULT</t>
+  </si>
+  <si>
+    <t>TITANIC</t>
   </si>
 </sst>
 </file>
@@ -6426,6 +6438,2036 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Adult Scree'!$B$3:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>199763.57019999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95185.632299999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91764.258900000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85525.0389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80897.687099999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78829.311900000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74679.5334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72838.728499999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70349.895699999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70122.225099999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69161.580199999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68997.091400000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66898.461299999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64903.150900000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>63891.0579</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63069.648699999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62108.4113</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62086.118699999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>61300.641900000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61233.530899999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>61037.9755</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60644.056799999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>59516.8148</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>58219.554400000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="428049448"/>
+        <c:axId val="428049056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="428049448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Clusters</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428049056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="428049056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Within Group Sum of Squares</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428049448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Adult Scree'!$O$3:$O$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1895</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1189</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="306362600"/>
+        <c:axId val="306362992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="306362600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Clusters</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306362992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="306362992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Within Group Sum of Squares</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306362600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6469,7 +8511,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6504,7 +8546,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6715,7 +8757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:KV3070"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
@@ -35130,4 +37172,364 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>199763.57019999999</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>95185.632299999997</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>91764.258900000001</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>85525.0389</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>80897.687099999996</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>78829.311900000001</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>74679.5334</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>72838.728499999997</v>
+      </c>
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>70349.895699999994</v>
+      </c>
+      <c r="N11">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>70122.225099999996</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>69161.580199999997</v>
+      </c>
+      <c r="N13">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>68997.091400000005</v>
+      </c>
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>66898.461299999995</v>
+      </c>
+      <c r="N15">
+        <v>13</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>64903.150900000001</v>
+      </c>
+      <c r="N16">
+        <v>14</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>63891.0579</v>
+      </c>
+      <c r="N17">
+        <v>15</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>63069.648699999998</v>
+      </c>
+      <c r="N18">
+        <v>16</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>62108.4113</v>
+      </c>
+      <c r="N19">
+        <v>17</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>62086.118699999999</v>
+      </c>
+      <c r="N20">
+        <v>18</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>61300.641900000002</v>
+      </c>
+      <c r="N21">
+        <v>19</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>61233.530899999998</v>
+      </c>
+      <c r="N22">
+        <v>20</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>61037.9755</v>
+      </c>
+      <c r="N23">
+        <v>21</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>60644.056799999998</v>
+      </c>
+      <c r="N24">
+        <v>22</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>59516.8148</v>
+      </c>
+      <c r="N25">
+        <v>23</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>58219.554400000001</v>
+      </c>
+      <c r="N26">
+        <v>24</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ScoreCard.xlsx
+++ b/ScoreCard.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6110" uniqueCount="2116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6111" uniqueCount="2117">
   <si>
     <t>HL</t>
   </si>
@@ -6369,13 +6369,16 @@
   </si>
   <si>
     <t>TITANIC</t>
+  </si>
+  <si>
+    <t>NEED TO NORMALIZE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6386,6 +6389,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6417,10 +6428,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6453,6 +6465,28 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Adult Census Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -6469,10 +6503,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -6596,11 +6627,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="428049448"/>
-        <c:axId val="428049056"/>
+        <c:axId val="561763576"/>
+        <c:axId val="561768280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="428049448"/>
+        <c:axId val="561763576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6615,10 +6646,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6648,10 +6676,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -6685,10 +6710,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6698,7 +6720,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428049056"/>
+        <c:crossAx val="561768280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6706,7 +6728,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="428049056"/>
+        <c:axId val="561768280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6735,10 +6757,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6768,10 +6787,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -6800,10 +6816,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6813,7 +6826,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428049448"/>
+        <c:crossAx val="561763576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6849,7 +6862,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -6877,6 +6894,28 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Titanic Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -6893,10 +6932,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -7020,11 +7056,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="306362600"/>
-        <c:axId val="306362992"/>
+        <c:axId val="561768672"/>
+        <c:axId val="561767104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="306362600"/>
+        <c:axId val="561768672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7039,10 +7075,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7072,10 +7105,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -7109,10 +7139,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -7122,7 +7149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306362992"/>
+        <c:crossAx val="561767104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7130,7 +7157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="306362992"/>
+        <c:axId val="561767104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7159,10 +7186,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7170,14 +7194,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>Within Group Sum of Squares</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1000">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -7197,10 +7216,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -7229,10 +7245,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -7242,7 +7255,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306362600"/>
+        <c:crossAx val="561768672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7278,7 +7291,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -37176,11 +37193,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -37528,6 +37543,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>2116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/ScoreCard.xlsx
+++ b/ScoreCard.xlsx
@@ -9,19 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="465" windowWidth="27555" windowHeight="12240" activeTab="2"/>
+    <workbookView xWindow="720" yWindow="465" windowWidth="27555" windowHeight="12240" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Adult" sheetId="1" r:id="rId1"/>
     <sheet name="Adult Notes" sheetId="2" r:id="rId2"/>
     <sheet name="Adult Scree" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Iris Scree" sheetId="5" r:id="rId5"/>
+    <sheet name="Iris" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6111" uniqueCount="2117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6327" uniqueCount="2323">
   <si>
     <t>HL</t>
   </si>
@@ -6372,13 +6375,797 @@
   </si>
   <si>
     <t>NEED TO NORMALIZE</t>
+  </si>
+  <si>
+    <t>ADULT Normalized</t>
+  </si>
+  <si>
+    <t>kMeans</t>
+  </si>
+  <si>
+    <t>======</t>
+  </si>
+  <si>
+    <t>Number of iterations: 7</t>
+  </si>
+  <si>
+    <t>Within cluster sum of squared errors: 95185.63227181819</t>
+  </si>
+  <si>
+    <t>Initial starting points (random):</t>
+  </si>
+  <si>
+    <t>Cluster 0: 0.506849,' Local-gov',' Some-college',' Divorced',' Exec-managerial',' Unmarried',' Black',' Female',0,0,0.346939,' United-States'</t>
+  </si>
+  <si>
+    <t>Cluster 1: 0.547945,' State-gov',' Some-college',' Divorced',' Craft-repair',' Not-in-family',' White',' Female',0,0,0.397959,' United-States'</t>
+  </si>
+  <si>
+    <t>Missing values globally replaced with mean/mode</t>
+  </si>
+  <si>
+    <t>Final cluster centroids:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                              Cluster#</t>
+  </si>
+  <si>
+    <t>Attribute                                Full Data                   0                   1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                         (32561.0)           (15836.0)           (16725.0)</t>
+  </si>
+  <si>
+    <t>==========================================================================================</t>
+  </si>
+  <si>
+    <t>Age                                         0.2956              0.2217              0.3657</t>
+  </si>
+  <si>
+    <t>Workclass                                  Private             Private             Private</t>
+  </si>
+  <si>
+    <t>education                                  HS-grad             HS-grad             HS-grad</t>
+  </si>
+  <si>
+    <t>marital-status                  Married-civ-spouse       Never-married  Married-civ-spouse</t>
+  </si>
+  <si>
+    <t>occupation                          Prof-specialty        Adm-clerical        Craft-repair</t>
+  </si>
+  <si>
+    <t>relationship                               Husband       Not-in-family             Husband</t>
+  </si>
+  <si>
+    <t>race                                         White               White               White</t>
+  </si>
+  <si>
+    <t>sex                                           Male              Female                Male</t>
+  </si>
+  <si>
+    <t>capital-gain                                0.0108              0.0042               0.017</t>
+  </si>
+  <si>
+    <t>capital-loss                                  0.02              0.0128              0.0269</t>
+  </si>
+  <si>
+    <t>hours-per-week                              0.4024              0.3661              0.4368</t>
+  </si>
+  <si>
+    <t>native-country                       United-States       United-States       United-States</t>
+  </si>
+  <si>
+    <t>Clustered Instances</t>
+  </si>
+  <si>
+    <t>0      15836 ( 49%)</t>
+  </si>
+  <si>
+    <t>1      16725 ( 51%)</t>
+  </si>
+  <si>
+    <t>Class attribute: class</t>
+  </si>
+  <si>
+    <t>Classes to Clusters:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0     1  &lt;-- assigned to cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14639 10081 |  &lt;=50K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1197  6644 |  &gt;50K</t>
+  </si>
+  <si>
+    <t>Cluster 0 &lt;--  &lt;=50K</t>
+  </si>
+  <si>
+    <t>Cluster 1 &lt;--  &gt;50K</t>
+  </si>
+  <si>
+    <t>Incorrectly clustered instances :</t>
+  </si>
+  <si>
+    <t>Results from k-Means Compare Cluster to Class</t>
+  </si>
+  <si>
+    <t>Results from EM k= -1</t>
+  </si>
+  <si>
+    <t>0      11067 ( 34%)</t>
+  </si>
+  <si>
+    <t>1       1039 (  3%)</t>
+  </si>
+  <si>
+    <t>2       1467 (  5%)</t>
+  </si>
+  <si>
+    <t>3        831 (  3%)</t>
+  </si>
+  <si>
+    <t>4       9043 ( 28%)</t>
+  </si>
+  <si>
+    <t>5        309 (  1%)</t>
+  </si>
+  <si>
+    <t>6       6961 ( 21%)</t>
+  </si>
+  <si>
+    <t>7       1304 (  4%)</t>
+  </si>
+  <si>
+    <t>8        540 (  2%)</t>
+  </si>
+  <si>
+    <t>Log likelihood: 2.39575</t>
+  </si>
+  <si>
+    <t>The cross validation performed to determine the number of clusters is done in the following steps:</t>
+  </si>
+  <si>
+    <t>1. the number of clusters is set to 1</t>
+  </si>
+  <si>
+    <t>2. the training set is split randomly into 10 folds.</t>
+  </si>
+  <si>
+    <t>3. EM is performed 10 times using the 10 folds the usual CV way.</t>
+  </si>
+  <si>
+    <t>4. the loglikelihood is averaged over all 10 results.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. if loglikelihood has increased the number of clusters is increased by 1 and the program continues at step 2. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8145 16575 |  &lt;=50K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6563  1278 |  &gt;50K</t>
+  </si>
+  <si>
+    <t>Cluster 0 &lt;--  &gt;50K</t>
+  </si>
+  <si>
+    <t>Cluster 1 &lt;--  &lt;=50K</t>
+  </si>
+  <si>
+    <t>Results fromEM Compare Cluster to Class k=2</t>
+  </si>
+  <si>
+    <t>Correlation matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1      0.01   0.14  -0.2    0.05   0.06   0.04   0.1    0.01  -0.02   0.01   0.02  -0.09   0.09   0.02  -0.11  -0.02   0      0.1    0.08   0.06   0.03  -0.01   0.04   0.01  -0.06  -0.53   0.32   0.13   0.02   0.01  -0.01   0.27  -0.04   0.1   -0.1    0.05  -0.09  -0.03   0.01   0.03   0.03  -0.02  -0.02   0.04   0     -0.01   0.02  -0.01   0.32   0.02  -0.43   0.04  -0.07   0.03  -0.02  -0.01  -0.01  -0.03  -0.09   0.08   0.06   0.07   0.02   0.03  -0.01   0      0     -0.06   0      0.01  -0.01   0.01   0.02   0      0      0      0.03   0.01   0      0     -0.01   0     -0.01  -0.01   0      0      0     -0.02   0     -0.02   0.01   0      0     -0.01   0      0      0      0.02  -0.01  -0.02  -0.01   0      0.02   0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.01   1     -0.06  -0.31  -0.04  -0.05  -0.05  -0.04   0      0      0.02  -0.05  -0.03   0.07  -0.02   0.01   0     -0.01  -0.02   0.1    0.01  -0.01  -0.02  -0.01   0     -0.01   0      0      0.02   0      0      0     -0.01   0.05   0.01  -0.04   0.12   0     -0.07  -0.05  -0.02  -0.02  -0.04   0.02  -0.05   0.1    0     -0.01   0.02   0      0     -0.02   0.01  -0.02  -0.02   0.02   0.01   0     -0.01   0.02  -0.01   0     -0.02   0.02  -0.01   0      0.02  -0.01  -0.03  -0.01   0      0      0      0      0      0     -0.01   0     -0.01   0      0      0     -0.01   0      0.02   0      0     -0.01  -0.01   0     -0.01   0.02   0      0     -0.01   0      0      0     -0.01   0     -0.01   0.01  -0.01   0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.14  -0.06   1     -0.44  -0.05  -0.08  -0.07  -0.05  -0.01   0     -0.01   0.01  -0.02  -0.01  -0.01  -0.02  -0.01   0      0.04   0.02   0.07  -0.01   0      0     -0.01  -0.01  -0.1    0.12  -0.02   0     -0.02   0      0     -0.09   0.03  -0.05   0.02  -0.03   0.04   0.07   0      0.23  -0.06  -0.03  -0.07  -0.04   0     -0.02  -0.03   0.12   0     -0.08  -0.04  -0.02   0.06  -0.06  -0.01   0     -0.02  -0.11   0.03   0.02   0.09   0.01   0     -0.01   0      0     -0.02   0.03  -0.01   0      0      0     -0.01   0.02  -0.02   0.02   0      0.01   0      0.01   0     -0.01  -0.01  -0.01   0     -0.01  -0.01   0     -0.01   0      0      0      0      0      0      0      0.02   0      0     -0.01   0      0.01   0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.2   -0.31  -0.44   1     -0.26  -0.4   -0.37  -0.29  -0.03  -0.02  -0.03   0.07   0.04  -0.09   0.02   0     -0.01   0.01  -0.01  -0.06  -0.07   0.02   0.02   0.02   0.01   0.02   0.11  -0.09   0      0.01   0.02   0     -0.04   0.04  -0.03   0.11  -0.11   0.1    0.08   0.07   0.05  -0.09   0.14   0.04  -0.37  -0.13  -0.03   0.04   0.03  -0.08  -0.03   0.06   0.02   0.04   0      0      0     -0.02   0.02   0.03  -0.04  -0.03  -0.02  -0.04   0      0.02   0      0      0.05  -0.02   0.01  -0.01   0     -0.01   0     -0.01   0.01  -0.01   0.01   0.01   0.01  -0.01   0.01   0.01  -0.02   0.01   0      0.02   0.02   0      0.02   0      0      0.01   0.01   0      0      0      0      0.01   0.01   0.01   0.02   0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.05  -0.04  -0.05  -0.26   1     -0.05  -0.04  -0.03   0      0      0.03  -0.02  -0.02   0.01  -0.02   0.02   0.02   0     -0.02   0.01   0.02  -0.02  -0.02  -0.01  -0.01  -0.01  -0.03   0.01   0.02   0      0      0.02   0.01   0.12   0.03  -0.02   0.03  -0.04  -0.05  -0.03  -0.02  -0.02  -0.03   0.04  -0.04   0.01   0.1   -0.01   0.01   0.01   0     -0.04   0.01  -0.01  -0.05   0.05   0.01   0.02   0      0     -0.01   0.01   0.01   0.02   0     -0.01   0      0     -0.02   0      0.01   0      0      0      0      0      0.01   0      0      0      0      0     -0.01   0     -0.01  -0.01   0     -0.01   0      0      0      0      0      0     -0.01   0      0      0     -0.01   0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.06  -0.05  -0.08  -0.4   -0.05   1     -0.06  -0.05  -0.01   0      0.04  -0.05  -0.03   0.13  -0.01  -0.02   0.01   0     -0.01   0     -0.01  -0.02  -0.02  -0.01   0     -0.01  -0.04   0.02   0.03  -0.01   0     -0.01   0.02   0.02  -0.02  -0.03   0.16  -0.01  -0.09  -0.04   0.01  -0.03  -0.06  -0.02  -0.06   0.23   0     -0.02   0      0      0.03  -0.04   0.03  -0.01  -0.02   0.04  -0.02   0.02  -0.01   0.04  -0.01   0.01   0.01   0.03   0      0     -0.01  -0.01  -0.02  -0.01   0      0      0      0      0      0      0     -0.01   0     -0.01  -0.01  -0.01   0      0      0      0     -0.01   0      0      0      0      0     -0.01   0      0      0     -0.01   0      0      0      0      0     -0.01  -0.01   0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.04  -0.05  -0.07  -0.37  -0.04  -0.06   1     -0.05  -0.01   0     -0.05  -0.02   0.04  -0.03   0.02   0.03  -0.01  -0.01   0.03  -0.01  -0.01   0.01   0.04   0      0.01   0.02   0.05  -0.06  -0.03   0.01   0.01   0      0.08  -0.09  -0.09  -0.05  -0.09  -0.08  -0.09  -0.09  -0.06  -0.04  -0.06  -0.04   1     -0.03   0     -0.02  -0.01  -0.07   0.03   0.09  -0.01   0.01  -0.02   0.02   0      0.01   0.01   0.07  -0.02  -0.02  -0.17   0.01  -0.01  -0.01  -0.01  -0.01   0      0.01   0      0      0      0.02   0     -0.01   0      0      0      0      0      0      0      0      0.02   0      0      0      0      0     -0.01   0.01   0     -0.01   0     -0.01   0      0     -0.01   0      0      0     -0.01   0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.1   -0.04  -0.05  -0.29  -0.03  -0.05  -0.05   1      0      0      0.04  -0.03  -0.02   0.02  -0.01  -0.01   0     -0.01  -0.01   0.03   0.08  -0.01  -0.01  -0.01  -0.01  -0.01  -0.09   0.11  -0.03  -0.01  -0.01  -0.01   0     -0.05   0.13  -0.04   0.01  -0.05   0.09  -0.02  -0.02   0.02  -0.04  -0.03  -0.05  -0.02   0     -0.01  -0.05   0.11  -0.01  -0.05  -0.04  -0.03   0.04  -0.05   0.01  -0.02  -0.01  -0.08   0.1    0.03   0.13   0      0.02  -0.01   0.01   0.03  -0.02   0.01  -0.01   0.01   0      0.01   0      0     -0.01   0      0     -0.01   0      0.02  -0.01   0      0.02   0      0      0     -0.01   0     -0.01  -0.01   0      0     -0.01   0      0      0      0.01  -0.01   0      0     -0.01   0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.01   0     -0.01  -0.03   0     -0.01  -0.01   0      1      0     -0.01   0.01   0      0      0      0      0      0      0.01   0      0      0      0      0      0      0      0      0     -0.01   0.01   0      0      0      0.01  -0.01   0     -0.01   0     -0.01   0      0      0.05   0      0     -0.01   0      0      0     -0.01  -0.01   0.02   0.01   0      0      0      0      0      0      0      0      0      0     -0.01   0      0      0      0      0      0      0      0      0      0      0      0      0      0.02   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.02   0      0     -0.02   0      0      0      0      0      1     -0.01  -0.01   0.01   0      0      0      0      0      0.01   0      0      0      0.02   0      0      0      0.01  -0.01   0      0      0      0      0     -0.01  -0.01   0     -0.01   0     -0.01  -0.01   0      0      0      0      0.06   0      0      0      0     -0.01   0.01   0.02  -0.01   0     -0.01   0.01   0      0      0      0      0      0     -0.01   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.01   0.02  -0.01  -0.03   0.03   0.04  -0.05   0.04  -0.01  -0.01   1     -0.31  -0.09  -0.1   -0.06  -0.24  -0.08  -0.09  -0.06  -0.05  -0.06  -0.05  -0.08  -0.03  -0.02  -0.05   0.01   0.05  -0.04   0     -0.04   0     -0.04  -0.03   0.18  -0.07   0.2   -0.1    0.05  -0.11  -0.08  -0.04  -0.09   0.04  -0.05   0      0     -0.02   0.06   0.04   0.02  -0.07  -0.06  -0.04   0.03  -0.05   0.06  -0.03  -0.01  -0.03   0.04   0.03   0.08  -0.01   0     -0.01   0.01   0.03  -0.05   0.02  -0.01   0      0.01   0.01   0.01   0.02   0.05   0      0     -0.01   0      0      0     -0.01   0.02  -0.01  -0.01  -0.02  -0.02   0.01  -0.02   0.01   0.02   0.01  -0.01   0.01   0     -0.01  -0.01  -0.01   0.01   0      0      0.01   0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.02  -0.05   0.01   0.07  -0.02  -0.05  -0.02  -0.03   0.01  -0.01  -0.31   1     -0.13  -0.16  -0.09  -0.37  -0.13  -0.15  -0.1   -0.08  -0.09  -0.07  -0.12  -0.05  -0.03  -0.08  -0.05   0      0.03  -0.01   0.03   0.01   0.04   0.03  -0.1    0.06  -0.22   0.05  -0.02   0.12   0.09   0.03   0.1   -0.06  -0.02   0      0      0     -0.02   0      0     -0.02   0.04   0.03  -0.01   0.04  -0.04   0.01  -0.01  -0.01  -0.05  -0.03   0.01   0.06  -0.01   0     -0.03  -0.03  -0.04   0      0      0      0     -0.01  -0.02  -0.02  -0.03  -0.01   0      0      0      0      0      0     -0.02   0      0     -0.01  -0.02  -0.01  -0.01  -0.01   0     -0.01   0.01   0      0      0      0      0     -0.01  -0.01   0.01   0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.09  -0.03  -0.02   0.04  -0.02  -0.03   0.04  -0.02   0      0.01  -0.09  -0.13   1     -0.05  -0.02  -0.1   -0.04  -0.04  -0.03  -0.02  -0.03  -0.02  -0.03  -0.01  -0.01  -0.02   0.07  -0.06  -0.01   0.01   0.01  -0.01   0     -0.04  -0.06   0.06  -0.06   0.07   0.01   0.01   0.03   0      0.02  -0.03   0.04  -0.02   0      0.02  -0.03  -0.06  -0.02   0.11   0.01   0.02  -0.01   0.02  -0.02   0      0      0.02  -0.02  -0.02  -0.1    0.01  -0.01   0      0.01  -0.02   0      0      0.01   0.01  -0.01   0      0     -0.01   0     -0.01   0      0      0      0      0      0     -0.01   0     -0.01   0.01   0     -0.01   0.01  -0.01  -0.01   0      0.01   0      0      0      0      0.01   0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.09   0.07  -0.01  -0.09   0.01   0.13  -0.03   0.02   0      0     -0.1   -0.16  -0.05   1     -0.03  -0.13  -0.04  -0.05  -0.03  -0.03  -0.03  -0.02  -0.04  -0.02  -0.01  -0.03  -0.05   0.06   0     -0.01  -0.02  -0.01  -0.01  -0.06   0.12  -0.05   0.26  -0.07  -0.03  -0.08  -0.05  -0.03  -0.06  -0.01  -0.03  -0.02   0     -0.01   0.02   0.05   0.02  -0.08  -0.02  -0.03   0.03  -0.04   0.03  -0.02  -0.01  -0.01   0.05   0.05   0.07  -0.01   0     -0.01   0.05   0.02  -0.03   0.01  -0.01   0      0.01   0      0      0.01  -0.01   0      0     -0.01  -0.01   0      0     -0.01   0.04  -0.01   0     -0.01  -0.01   0.02  -0.01   0.02   0.01  -0.01   0      0      0.01   0      0.01   0     -0.01   0.01   0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.02  -0.02  -0.01   0.02  -0.02  -0.01   0.02  -0.01   0      0     -0.06  -0.09  -0.02  -0.03   1     -0.07  -0.02  -0.03  -0.02  -0.01  -0.02  -0.01  -0.02  -0.01  -0.01  -0.01  -0.01   0      0      0.01   0.02   0      0.01  -0.04  -0.04   0.03  -0.05   0.04  -0.02   0.02   0.01   0.02   0.05  -0.02   0.02  -0.01   0      0.03  -0.01   0      0      0      0.01   0.02  -0.03   0.03  -0.01   0      0.01  -0.01  -0.01  -0.02  -0.02  -0.05   0.01   0      0      0      0.08  -0.01   0.01   0     -0.01   0     -0.01   0      0     -0.01   0      0.01   0      0      0      0     -0.01   0.02   0.02   0.03   0.04   0      0.02   0     -0.01   0.01   0      0.01   0      0.03   0      0      0      0.01   0.01   0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.11   0.01  -0.02   0      0.02  -0.02   0.03  -0.01   0      0     -0.24  -0.37  -0.1   -0.13  -0.07   1     -0.1   -0.11  -0.08  -0.06  -0.07  -0.05  -0.09  -0.04  -0.02  -0.06   0.08  -0.08   0.02  -0.01   0     -0.01  -0.02   0.1   -0.01  -0.01  -0.11   0.01   0.04  -0.01  -0.03  -0.02  -0.04   0.03   0.03   0.03   0     -0.02  -0.01  -0.07  -0.01   0.12   0     -0.01   0      0.01  -0.01   0.01  -0.01   0.06  -0.03  -0.02  -0.07   0.05  -0.01   0.01  -0.02  -0.01  -0.04   0     -0.01   0     -0.01   0      0      0      0     -0.01   0     -0.01   0      0      0      0     -0.01   0     -0.02  -0.01  -0.01  -0.01  -0.01  -0.02   0      0      0      0.01   0      0      0      0.01   0.01  -0.01  -0.01   0      0.01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.02   0     -0.01  -0.01   0.02   0.01  -0.01   0      0      0     -0.08  -0.13  -0.04  -0.04  -0.02  -0.1    1     -0.04  -0.03  -0.02  -0.02  -0.02  -0.03  -0.01  -0.01  -0.02   0     -0.01   0.03   0      0      0.01  -0.01   0.04   0.01  -0.02   0     -0.02   0.01  -0.01  -0.02  -0.02  -0.02   0.04  -0.01   0.02   0     -0.01   0.02  -0.02   0.02  -0.02   0.01  -0.02   0      0      0      0      0      0.02  -0.01   0      0      0.01   0      0.02   0     -0.01  -0.02  -0.01  -0.01   0      0.01  -0.01   0      0.01   0      0.01   0      0.01   0      0     -0.01   0      0      0.01   0     -0.01   0      0.01  -0.01  -0.01   0      0.01   0      0      0      0     -0.01   0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0     -0.01   0      0.01   0      0     -0.01  -0.01   0      0     -0.09  -0.15  -0.04  -0.05  -0.03  -0.11  -0.04   1     -0.03  -0.02  -0.03  -0.02  -0.04  -0.02  -0.01  -0.02  -0.03   0.02   0.02  -0.01   0      0      0      0     -0.01  -0.02   0     -0.01  -0.02   0.04  -0.02   0.01  -0.01   0.08  -0.01   0.02   0     -0.01   0      0.01   0.01  -0.03   0.02  -0.02   0.01  -0.01  -0.01   0.01  -0.01   0.01  -0.01  -0.01   0.02   0.03  -0.01   0     -0.01  -0.01  -0.02   0     -0.01   0      0      0      0.01  -0.01   0     -0.01   0      0.01  -0.01   0      0      0     -0.01  -0.01   0     -0.01  -0.01   0     -0.01  -0.01   0      0      0      0      0     -0.01   0.01   0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.1   -0.02   0.04  -0.01  -0.02  -0.01   0.03  -0.01   0.01   0.01  -0.06  -0.1   -0.03  -0.03  -0.02  -0.08  -0.03  -0.03   1     -0.02  -0.02  -0.01  -0.02  -0.01  -0.01  -0.02  -0.05   0.03  -0.01   0.01   0      0      0.06  -0.04  -0.04   0.02  -0.05   0.02  -0.03   0.02   0.03   0.06   0.05  -0.02   0.03  -0.01   0      0.02  -0.01   0.03  -0.01  -0.03   0      0.02   0      0     -0.01   0.01   0.03  -0.03  -0.02  -0.01  -0.01  -0.06   0.02  -0.01  -0.01   0.01   0.06   0      0.03   0     -0.01   0      0     -0.01  -0.01   0.01   0.01   0      0.01   0      0      0.01  -0.01   0      0.03   0.04   0.01   0      0.04   0.01  -0.01   0.01   0      0      0      0.01   0.01   0      0      0.01   0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.08   0.1    0.02  -0.06   0.01   0     -0.01   0.03   0      0     -0.05  -0.08  -0.02  -0.03  -0.01  -0.06  -0.02  -0.02  -0.02   1     -0.02  -0.01  -0.02  -0.01   0     -0.01  -0.04   0.05  -0.02   0     -0.01   0     -0.01  -0.04   0     -0.02   0.22  -0.04  -0.03  -0.04  -0.02  -0.02  -0.03  -0.01  -0.01  -0.02   0     -0.01  -0.01   0.05   0     -0.04  -0.02  -0.02   0.01  -0.03   0.02   0      0     -0.03   0.06   0.05   0.06  -0.04   0      0      0.02   0.03  -0.01   0     -0.01   0      0.01   0.03   0.02   0.03  -0.01   0      0      0      0      0.01   0      0      0.05   0      0     -0.01   0      0.02  -0.01   0.05   0      0      0      0      0      0      0      0      0      0.02   0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.06   0.01   0.07  -0.07   0.02  -0.01  -0.01   0.08   0      0     -0.06  -0.09  -0.03  -0.03  -0.02  -0.07  -0.02  -0.03  -0.02  -0.02   1     -0.01  -0.02  -0.01  -0.01  -0.02  -0.05   0.07  -0.02  -0.01  -0.01   0     -0.02  -0.04  -0.01  -0.03   0.26  -0.04  -0.03  -0.05  -0.03  -0.02  -0.03  -0.01  -0.01  -0.02   0     -0.01  -0.01   0.07   0     -0.05  -0.03  -0.02   0.01  -0.03   0.03  -0.01   0     -0.05   0.17   0.05   0.08  -0.01   0.01  -0.01   0.06   0.01  -0.02   0     -0.01   0.01   0      0      0.01   0      0.02   0     -0.01   0.01   0      0      0      0.01   0.01   0      0     -0.01   0      0     -0.01   0      0.01   0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.03  -0.01  -0.01   0.02  -0.02  -0.02   0.01  -0.01   0      0     -0.05  -0.07  -0.02  -0.02  -0.01  -0.05  -0.02  -0.02  -0.01  -0.01  -0.01   1     -0.02  -0.01   0     -0.01  -0.01   0.01  -0.02   0.04   0.01   0      0.01  -0.03  -0.04   0.04  -0.04   0.03  -0.02   0      0.02   0.05   0.05  -0.02   0.01  -0.01   0      0.06  -0.01   0.01   0     -0.03   0.01   0.05   0     -0.01   0.01   0      0.03  -0.02  -0.01   0     -0.01  -0.2    0.02   0     -0.01   0.02   0.31  -0.01   0.02   0.01   0      0     -0.01   0      0.02   0.06   0      0.01   0      0      0      0.02   0      0.02   0      0.01   0.1    0      0.05   0      0      0      0      0      0      0.01   0.01   0.02   0.01   0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.01  -0.02   0      0.02  -0.02  -0.02   0.04  -0.01   0      0.02  -0.08  -0.12  -0.03  -0.04  -0.02  -0.09  -0.03  -0.04  -0.02  -0.02  -0.02  -0.02   1     -0.01  -0.01  -0.02   0.02  -0.03   0      0      0.02   0      0.01  -0.04  -0.05   0.03  -0.06   0.06  -0.01   0.03   0.03   0.02   0.03  -0.03   0.04  -0.02   0      0     -0.01  -0.02  -0.01   0.04   0.01   0.02  -0.02   0.03  -0.02   0.01   0     -0.01  -0.02  -0.01  -0.05   0.01   0      0      0     -0.01   0.01  -0.01   0      0      0      0     -0.01  -0.01  -0.01   0     -0.01   0.01   0      0      0      0     -0.01   0      0.01   0.01   0     -0.01   0.01   0      0      0      0.01   0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.04  -0.01   0      0.02  -0.01  -0.01   0     -0.01   0      0     -0.03  -0.05  -0.01  -0.02  -0.01  -0.04  -0.01  -0.02  -0.01  -0.01  -0.01  -0.01  -0.01   1      0     -0.01  -0.01   0     -0.02   0.04   0.01   0      0.03  -0.03  -0.02   0.02  -0.02   0.03  -0.01   0      0      0.03   0.02  -0.01   0     -0.01   0      0.06   0.01   0     -0.01  -0.02   0      0.03  -0.01   0      0      0.01   0.04  -0.01  -0.01  -0.01  -0.01  -0.15   0.02   0      0      0.01   0.19   0      0.02   0.02   0      0      0      0      0.01   0.03   0.01   0.01   0.02   0      0.01   0      0      0.01   0.09   0.05   0.07   0      0.08   0      0      0      0      0      0      0      0      0      0.02   0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.01   0     -0.01   0.01  -0.01   0      0.01  -0.01   0      0     -0.02  -0.03  -0.01  -0.01  -0.01  -0.02  -0.01  -0.01  -0.01   0     -0.01   0     -0.01   0      1      0      0.01  -0.01  -0.01   0.02   0      0      0.01  -0.01  -0.01   0     -0.01   0.03  -0.01  -0.01  -0.01   0.03   0.03  -0.01   0.01  -0.01   0      0.02   0.01  -0.01   0      0     -0.01   0.02  -0.01   0      0.02   0      0.01   0      0      0     -0.01  -0.07   0      0      0.01   0      0.09   0      0.01   0      0      0      0      0      0.01   0      0      0      0.03   0      0      0.03   0      0      0      0.03   0.05   0      0.02   0.03   0      0      0      0      0      0      0      0.02   0      0.03   0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.06  -0.01  -0.01   0.02  -0.01  -0.01   0.02  -0.01   0      0     -0.05  -0.08  -0.02  -0.03  -0.01  -0.06  -0.02  -0.02  -0.02  -0.01  -0.02  -0.01  -0.02  -0.01   0      1      0.05  -0.04  -0.02   0.01   0      0      0     -0.01  -0.03   0.03  -0.04   0.04   0      0      0.02   0      0.01  -0.02   0.02  -0.01   0.01   0.01  -0.01  -0.04   0      0.06  -0.01   0.02  -0.03   0.03  -0.01   0      0.03   0     -0.01  -0.02  -0.04  -0.02   0.01   0     -0.01   0.02   0.01  -0.01   0      0      0      0      0      0     -0.01   0.02   0      0.01   0.01   0.01   0.01   0      0      0      0      0.02   0      0      0.01  -0.01  -0.01   0      0      0      0      0.01   0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.53   0     -0.1    0.11  -0.03  -0.04   0.05  -0.09   0      0.01   0.01  -0.05   0.07  -0.05  -0.01   0.08   0     -0.03  -0.05  -0.04  -0.05  -0.01   0.02  -0.01   0.01   0.05   1     -0.64  -0.28  -0.08  -0.13  -0.02  -0.12   0.07  -0.11   0.08  -0.02   0.12   0.03  -0.09  -0.06  -0.01  -0.02   0.01   0.05  -0.03   0.01   0.02   0.3   -0.58  -0.16   0.51  -0.05   0.11  -0.07   0.07   0.01   0      0.01   0.17  -0.07  -0.06  -0.2    0     -0.02   0.02  -0.01   0      0.01   0      0      0      0     -0.01  -0.01  -0.01   0     -0.02  -0.01   0      0      0      0      0      0.01   0     -0.01   0.01   0.02   0      0.01  -0.02  -0.01  -0.01   0.01   0.01   0      0     -0.01   0.01   0.02   0      0.01   0      0.01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.32   0      0.12  -0.09   0.01   0.02  -0.06   0.11   0     -0.01   0.05   0     -0.06   0.06   0     -0.08  -0.01   0.02   0.03   0.05   0.07   0.01  -0.03   0     -0.01  -0.04  -0.64   1     -0.37  -0.11  -0.17  -0.02  -0.16  -0.14   0.11  -0.05   0.04  -0.16   0      0.13   0.07   0.04   0.02  -0.01  -0.06   0.04   0     -0.05  -0.54   0.89   0.24  -0.38  -0.32  -0.12   0.11  -0.13   0.01  -0.02  -0.01  -0.43   0.09   0.08   0.21  -0.01   0.01  -0.02   0.02   0.01   0.01   0     -0.01  -0.01   0      0.01   0      0.01   0.01   0.02   0     -0.01   0.01  -0.01   0      0.01   0.01  -0.01   0.01  -0.01  -0.01   0     -0.02   0.02   0      0.01  -0.01  -0.01   0      0      0.02   0     -0.01   0.01  -0.01   0     -0.01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.13   0.02  -0.02   0      0.02   0.03  -0.03  -0.03  -0.01   0     -0.04   0.03  -0.01   0      0      0.02   0.03   0.02  -0.01  -0.02  -0.02  -0.02   0     -0.02  -0.01  -0.02  -0.28  -0.37   1     -0.05  -0.07  -0.01  -0.07   0.09   0.01  -0.03  -0.01   0.02  -0.02  -0.03  -0.02  -0.04   0      0.01  -0.03  -0.01  -0.01   0.01   0.26  -0.33  -0.09  -0.09   0.33  -0.01   0      0.02  -0.03   0.02  -0.01   0.23  -0.02  -0.02   0.03   0.05   0     -0.01  -0.02  -0.02  -0.04  -0.01   0      0.01   0.01   0      0.01   0     -0.02  -0.01  -0.01   0     -0.01  -0.01  -0.01  -0.01  -0.01   0      0      0     -0.02   0.01  -0.01  -0.01   0      0      0      0      0      0     -0.01  -0.01  -0.01  -0.01   0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.02   0      0      0.01   0     -0.01   0.01  -0.01   0.01   0      0     -0.01   0.01  -0.01   0.01  -0.01   0     -0.01   0.01   0     -0.01   0.04   0      0.04   0.02   0.01  -0.08  -0.11  -0.05   1     -0.02   0     -0.02   0.01  -0.02   0.01  -0.01   0.02  -0.01   0      0      0.02   0     -0.01   0.01  -0.01   0      0.01   0.07  -0.09  -0.03  -0.02   0.08   0.03  -0.05   0.02   0.04   0.01   0.03   0.04  -0.01  -0.01  -0.01  -0.11   0.01   0.03   0.04   0.03   0.06   0.01   0.03   0.03  -0.01   0.01   0      0      0.03   0.01   0.03   0.03   0.01   0.02   0.01   0.01   0      0.03   0      0.05   0.02   0.01   0.04   0.03   0      0      0.01   0      0      0      0      0      0.01   0      0.01   0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.01   0     -0.02   0.02   0      0      0.01  -0.01   0      0     -0.04   0.03   0.01  -0.02   0.02   0      0      0      0     -0.01  -0.01   0.01   0.02   0.01   0      0     -0.13  -0.17  -0.07  -0.02   1      0     -0.03   0.02  -0.02   0     -0.02   0.05  -0.01  -0.01  -0.01  -0.01   0.02   0      0.01  -0.01   0      0.02   0.06  -0.15  -0.04  -0.03   0.2    0.02  -0.08   0.1   -0.01   0      0.01   0.11  -0.01  -0.01  -0.02  -0.02   0.01   0.01   0      0      0.02   0      0.02   0.01   0      0      0      0      0      0      0      0.02   0      0     -0.01   0     -0.01   0      0      0      0.01  -0.01   0.01   0      0      0      0.02   0      0.01   0     -0.01   0     -0.01   0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.01   0      0      0      0.02  -0.01   0     -0.01   0      0      0      0.01  -0.01  -0.01   0     -0.01   0.01   0      0      0      0      0      0      0      0      0     -0.02  -0.02  -0.01   0      0      1      0      0.01  -0.01  -0.01   0      0.01   0      0      0      0     -0.01   0      0      0      0      0     -0.02   0      0.06  -0.01  -0.01   0      0.01   0      0      0      0      0.02   0     -0.01   0      0.01   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.27  -0.01   0     -0.04   0.01   0.02   0.08   0      0      0     -0.04   0.04   0     -0.01   0.01  -0.02  -0.01   0      0.06  -0.01  -0.02   0.01   0.01   0.03   0.01   0     -0.12  -0.16  -0.07  -0.02  -0.03   0      1      0.03  -0.02  -0.02  -0.02   0.05   0     -0.05  -0.02  -0.01  -0.01  -0.01   0.07  -0.01   0      0.05   0.12  -0.15  -0.04  -0.07   0.16   0.02  -0.01   0.02  -0.01   0      0      0.19  -0.01   0     -0.11   0.01   0     -0.01   0     -0.01  -0.01   0.01   0      0      0      0      0.01   0      0      0.01   0.01   0.01   0      0.01   0      0     -0.01   0      0      0      0      0      0      0      0      0     -0.01   0      0      0      0      0.01  -0.01   0      0      0.01   0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.04   0.05  -0.09   0.04   0.12   0.02  -0.09  -0.05   0.01  -0.01  -0.03   0.03  -0.04  -0.06  -0.04   0.1    0.04   0     -0.04  -0.04  -0.04  -0.03  -0.04  -0.03  -0.01  -0.01   0.07  -0.14   0.09   0.01   0.02   0.01   0.03   1     -0.14  -0.08  -0.14  -0.12  -0.13  -0.14  -0.08  -0.06  -0.09  -0.06  -0.09  -0.05  -0.01  -0.02   0.04  -0.18   0.08   0.05   0.11   0.01  -0.04   0.04   0.01   0     -0.01   0.26  -0.03  -0.02  -0.08   0.02   0      0.01   0     -0.01  -0.03  -0.01   0.01   0     -0.01   0      0.01  -0.01   0.02   0     -0.01   0     -0.01   0     -0.01   0.01  -0.01   0      0     -0.01  -0.01  -0.01  -0.01  -0.01   0      0     -0.01  -0.01   0      0.01   0      0.01   0.02   0     -0.01   0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.1    0.01   0.03  -0.03   0.03  -0.02  -0.09   0.13  -0.01  -0.01   0.18  -0.1   -0.06   0.12  -0.04  -0.01   0.01  -0.01  -0.04   0     -0.01  -0.04  -0.05  -0.02  -0.01  -0.03  -0.11   0.11   0.01  -0.02  -0.02  -0.01  -0.02  -0.14   1     -0.08  -0.14  -0.13  -0.13  -0.14  -0.09  -0.07  -0.1   -0.06  -0.09  -0.05  -0.01  -0.03  -0.01   0.1    0.02  -0.1   -0.02  -0.04   0.05  -0.05   0     -0.01  -0.02  -0.04   0.06   0.05   0.14   0.03   0.01   0      0      0     -0.04   0.01  -0.01   0      0.02   0      0      0.01  -0.01   0     -0.01  -0.01  -0.01   0.01  -0.01   0      0.01  -0.01  -0.01  -0.01  -0.02   0.01  -0.02   0      0.02   0.01  -0.01   0.01   0.01  -0.01   0.02  -0.01  -0.01   0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.1   -0.04  -0.05   0.11  -0.02  -0.03  -0.05  -0.04   0      0     -0.07   0.06   0.06  -0.05   0.03  -0.01  -0.02  -0.02   0.02  -0.02  -0.03   0.04   0.03   0.02   0      0.03   0.08  -0.05  -0.03   0.01   0     -0.01  -0.02  -0.08  -0.08   1     -0.08  -0.07  -0.07  -0.08  -0.05  -0.04  -0.05  -0.04  -0.05  -0.03   0     -0.01  -0.01  -0.04  -0.04   0.09  -0.02   0.04  -0.02   0.02  -0.02   0.01   0     -0.09  -0.02  -0.02  -0.04  -0.02   0      0      0     -0.01   0.05   0      0      0.01  -0.01  -0.01   0     -0.01   0      0      0.01   0     -0.01   0      0      0     -0.01   0      0.02   0.01   0.01  -0.01   0.02  -0.01  -0.01   0      0.01   0      0     -0.01   0      0.01   0     -0.01   0.01   0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.05   0.12   0.02  -0.11   0.03   0.16  -0.09   0.01  -0.01  -0.01   0.2   -0.22  -0.06   0.26  -0.05  -0.11   0      0     -0.05   0.22   0.26  -0.04  -0.06  -0.02  -0.01  -0.04  -0.02   0.04  -0.01  -0.01  -0.02   0     -0.02  -0.14  -0.14  -0.08   1     -0.13  -0.14  -0.14  -0.09  -0.07  -0.1   -0.07  -0.09  -0.05  -0.01  -0.03   0.05   0.02   0.05  -0.08  -0.02  -0.04   0.03  -0.05   0.03  -0.01   0      0.03   0.09   0.05   0.06   0      0     -0.01   0.05   0.02  -0.04   0     -0.01   0      0.02   0.01   0.02   0.02   0      0      0     -0.01   0      0      0     -0.01   0.03   0     -0.01  -0.01  -0.01   0.01  -0.01   0.02   0     -0.01  -0.01   0      0     -0.01  -0.01  -0.01  -0.01   0.01   0.01   0.01   0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.09   0     -0.03   0.1   -0.04  -0.01  -0.08  -0.05   0      0     -0.1    0.05   0.07  -0.07   0.04   0.01  -0.02  -0.01   0.02  -0.04  -0.04   0.03   0.06   0.03   0.03   0.04   0.12  -0.16   0.02   0.02   0.05   0.01   0.05  -0.12  -0.13  -0.07  -0.13   1     -0.12  -0.13  -0.08  -0.06  -0.09  -0.06  -0.08  -0.05  -0.01  -0.02   0.03  -0.17   0.01   0.11   0.07   0.05  -0.08   0.09   0.01   0      0.01   0.15  -0.04  -0.04  -0.16  -0.06   0.01   0.02  -0.01   0.02   0.04   0.01   0.01   0      0      0     -0.01   0      0.02   0.01   0      0      0      0.01   0      0     -0.01   0.03  -0.01   0.01   0.05   0      0      0.02   0.01   0.01   0.01   0.01   0      0      0      0.01   0     -0.01   0.01   0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.03  -0.07   0.04   0.08  -0.05  -0.09  -0.09   0.09  -0.01  -0.01   0.05  -0.02   0.01  -0.03  -0.02   0.04   0.01  -0.02  -0.03  -0.03  -0.03  -0.02  -0.01  -0.01  -0.01   0      0.03   0     -0.02  -0.01  -0.01   0      0     -0.13  -0.13  -0.07  -0.14  -0.12   1     -0.13  -0.08  -0.06  -0.09  -0.06  -0.09  -0.05  -0.01  -0.02  -0.01   0.01  -0.02   0.04  -0.02   0      0.03  -0.03   0     -0.01  -0.01   0.01   0.01   0.01   0.01   0.03   0      0      0      0     -0.03   0.02  -0.01   0     -0.01  -0.01   0      0.01  -0.01  -0.01   0     -0.01   0     -0.01   0      0     -0.01  -0.01  -0.01   0     -0.01   0     -0.01  -0.01   0     -0.01   0      0     -0.01   0      0     -0.01  -0.01   0     -0.01  -0.01   0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.01  -0.05   0.07   0.07  -0.03  -0.04  -0.09  -0.02   0     -0.01  -0.11   0.12   0.01  -0.08   0.02  -0.01  -0.01   0.04   0.02  -0.04  -0.05   0      0.03   0     -0.01   0     -0.09   0.13  -0.03   0     -0.01   0     -0.05  -0.14  -0.14  -0.08  -0.14  -0.13  -0.13   1     -0.09  -0.07  -0.1   -0.06  -0.09  -0.05  -0.01  -0.03  -0.04   0.16  -0.07  -0.07  -0.06  -0.01   0.05  -0.05  -0.02   0     -0.01  -0.22  -0.02   0      0.06   0     -0.01  -0.01  -0.01   0      0.01   0      0      0     -0.01   0      0     -0.01  -0.01   0.01   0.01   0      0.01   0      0      0     -0.01   0      0.02  -0.01   0     -0.01   0.01  -0.01   0      0     -0.01   0     -0.01   0      0      0      0.01   0.01   0.01   0.01   0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.03  -0.02   0      0.05  -0.02   0.01  -0.06  -0.02   0      0     -0.08   0.09   0.03  -0.05   0.01  -0.03  -0.02  -0.02   0.03  -0.02  -0.03   0.02   0.03   0     -0.01   0.02  -0.06   0.07  -0.02   0     -0.01   0     -0.02  -0.08  -0.09  -0.05  -0.09  -0.08  -0.08  -0.09   1     -0.04  -0.06  -0.04  -0.06  -0.03   0     -0.02  -0.03   0.09  -0.04  -0.03  -0.03  -0.02   0      0.01  -0.02   0.01   0     -0.13  -0.02   0      0.08   0.03   0.01   0     -0.01   0     -0.01  -0.01   0      0     -0.01   0     -0.01   0     -0.02  -0.01   0      0     -0.01  -0.01   0     -0.01  -0.01   0     -0.01   0      0     -0.01   0     -0.01  -0.01   0      0      0      0      0     -0.01   0     -0.01  -0.01  -0.01   0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.03  -0.02   0.23  -0.09  -0.02  -0.03  -0.04   0.02   0.05   0     -0.04   0.03   0     -0.03   0.02  -0.02  -0.02   0.01   0.06  -0.02  -0.02   0.05   0.02   0.03   0.03   0     -0.01   0.04  -0.04   0.02  -0.01   0     -0.01  -0.06  -0.07  -0.04  -0.07  -0.06  -0.06  -0.07  -0.04   1     -0.05  -0.03  -0.04  -0.03   0     -0.01  -0.03   0.06  -0.03   0     -0.02   0      0.03  -0.03  -0.02   0      0.01  -0.1   -0.01  -0.01   0.09  -0.01   0     -0.01  -0.01  -0.02   0.07  -0.01   0      0     -0.01   0     -0.01  -0.01   0      0      0     -0.01   0      0     -0.01   0     -0.01  -0.01   0     -0.01   0      0      0.01  -0.01   0      0     -0.01   0      0      0     -0.01  -0.01   0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.02  -0.04  -0.06   0.14  -0.03  -0.06  -0.06  -0.04   0      0     -0.09   0.1    0.02  -0.06   0.05  -0.04  -0.02  -0.01   0.05  -0.03  -0.03   0.05   0.03   0.02   0.03   0.01  -0.02   0.02   0      0      0.02  -0.01  -0.01  -0.09  -0.1   -0.05  -0.1   -0.09  -0.09  -0.1   -0.06  -0.05   1     -0.04  -0.06  -0.04   0     -0.02  -0.01   0.02  -0.01  -0.02   0.01   0.01  -0.04   0.04   0      0      0.03  -0.03  -0.03  -0.02   0.01  -0.04   0     -0.01  -0.01   0      0.05  -0.01   0.02   0     -0.01  -0.01  -0.01  -0.01   0      0.01   0.01   0.02   0.01   0      0.03   0.03  -0.01   0      0.01   0.05   0     -0.01   0.01   0.01  -0.01   0.01   0.01  -0.01   0.01   0.01   0      0.01   0.01   0      0.01  -0.01   0.02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.02   0.02  -0.03   0.04   0.04  -0.02  -0.04  -0.03   0      0      0.04  -0.06  -0.03  -0.01  -0.02   0.03   0.04   0.08  -0.02  -0.01  -0.01  -0.02  -0.03  -0.01  -0.01  -0.02   0.01  -0.01   0.01  -0.01   0      0     -0.01  -0.06  -0.06  -0.04  -0.07  -0.06  -0.06  -0.06  -0.04  -0.03  -0.04   1     -0.04  -0.02   0     -0.01   0.02  -0.01   0     -0.01   0     -0.01   0.01  -0.01   0.02  -0.01  -0.01   0.02  -0.01   0     -0.01   0.01  -0.01   0.01   0.01   0     -0.02  -0.01  -0.01   0      0.01   0      0      0      0.02  -0.01   0      0.01   0      0      0      0      0     -0.01  -0.01  -0.01  -0.01   0.01   0      0     -0.01   0      0      0      0      0.01  -0.01   0.01   0      0      0      0.01   0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.04  -0.05  -0.07  -0.37  -0.04  -0.06   1     -0.05  -0.01   0.06  -0.05  -0.02   0.04  -0.03   0.02   0.03  -0.01  -0.01   0.03  -0.01  -0.01   0.01   0.04   0      0.01   0.02   0.05  -0.06  -0.03   0.01   0.01   0      0.07  -0.09  -0.09  -0.05  -0.09  -0.08  -0.09  -0.09  -0.06  -0.04  -0.06  -0.04   1     -0.03   0     -0.02  -0.01  -0.07   0.03   0.09  -0.01   0.01  -0.02   0.02   0      0.01   0.01   0.07  -0.02  -0.02  -0.17   0.01  -0.01  -0.01  -0.01  -0.01   0      0.01   0      0      0      0.02   0     -0.01   0      0      0      0      0      0      0      0      0.02   0      0      0      0      0     -0.01   0.01   0     -0.01   0     -0.01   0      0     -0.01   0      0      0     -0.01   0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0      0.1   -0.04  -0.13   0.01   0.23  -0.03  -0.02   0      0      0      0     -0.02  -0.02  -0.01   0.03   0.02   0.02  -0.01  -0.02  -0.02  -0.01  -0.02  -0.01  -0.01  -0.01  -0.03   0.04  -0.01  -0.01  -0.01   0     -0.01  -0.05  -0.05  -0.03  -0.05  -0.05  -0.05  -0.05  -0.03  -0.03  -0.04  -0.02  -0.03   1      0     -0.01  -0.01   0.05  -0.02  -0.01  -0.02  -0.01  -0.02   0.03  -0.01   0      0     -0.06  -0.01   0      0.03   0.02   0      0      0.01  -0.01  -0.01  -0.01   0      0.01   0.01   0      0     -0.01   0     -0.01  -0.01  -0.01   0      0.01   0      0     -0.01   0      0      0     -0.01   0      0     -0.01   0      0      0.01   0      0.01   0      0      0     -0.01   0.01   0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.01   0      0     -0.03   0.1    0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0.01   0.01   0     -0.01   0      0      0      0     -0.01  -0.01   0     -0.01  -0.01  -0.01  -0.01   0      0      0      0      0      0      1      0      0.01  -0.01   0      0     -0.01   0.02   0      0      0      0.02   0     -0.01   0      0.01   0      0.01   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.02  -0.01  -0.02   0.04  -0.01  -0.02  -0.02  -0.01   0      0     -0.02   0      0.02  -0.01   0.03  -0.02  -0.01  -0.01   0.02  -0.01  -0.01   0.06   0      0.06   0.02   0.01   0.02  -0.05   0.01   0.01   0.02   0      0.05  -0.02  -0.03  -0.01  -0.03  -0.02  -0.02  -0.03  -0.02  -0.01  -0.02  -0.01  -0.02  -0.01   0      1      0.03  -0.06   0      0      0.03   0.04  -0.02   0.02   0     -0.01   0.01   0.09  -0.01  -0.01  -0.04  -0.06   0.01   0.01   0      0.01   0.05   0      0      0      0.02   0      0      0      0.01   0      0.01   0.01   0      0.02   0.01   0      0      0.01   0      0.01   0.04   0.03   0.11   0      0      0      0      0      0      0      0      0.01   0      0      0      0.02   0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.01   0.02  -0.03   0.03   0.01   0     -0.01  -0.05  -0.01   0      0.06  -0.02  -0.03   0.02  -0.01  -0.01   0.02   0     -0.01  -0.01  -0.01  -0.01  -0.01   0.01   0.01  -0.01   0.3   -0.54   0.26   0.07   0.06  -0.02   0.12   0.04  -0.01  -0.01   0.05   0.03  -0.01  -0.04  -0.03  -0.03  -0.01   0.02  -0.01  -0.01   0.01   0.03   1     -0.48  -0.13  -0.25  -0.2   -0.1    0.01   0     -0.02   0      0      0.17  -0.03  -0.02   0.01   0.02  -0.01   0.01  -0.01   0     -0.02  -0.02  -0.01   0      0.01   0.01   0      0     -0.02  -0.01   0      0.01   0      0.01   0      0     -0.01  -0.01  -0.01   0     -0.01   0.01   0.01   0      0.01  -0.01  -0.01   0.01   0      0     -0.01  -0.01  -0.01   0      0.02   0.01   0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.32   0      0.12  -0.08   0.01   0     -0.07   0.11  -0.01  -0.01   0.04   0     -0.06   0.05   0     -0.07  -0.02   0.01   0.03   0.05   0.07   0.01  -0.02   0     -0.01  -0.04  -0.58   0.89  -0.33  -0.09  -0.15   0     -0.15  -0.18   0.1   -0.04   0.02  -0.17   0.01   0.16   0.09   0.06   0.02  -0.01  -0.07   0.05  -0.01  -0.06  -0.48   1     -0.19  -0.35  -0.28  -0.15   0.12  -0.13   0     -0.02  -0.02  -0.58   0.08   0.08   0.25   0.01   0     -0.01   0.02   0      0      0     -0.02  -0.02  -0.01   0      0      0.01   0      0.02   0     -0.01   0     -0.01   0      0      0     -0.02   0     -0.02  -0.02   0     -0.02   0.01   0      0.01  -0.01  -0.01  -0.01   0      0.01   0     -0.01   0     -0.01   0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.02   0      0     -0.03   0      0.03   0.03  -0.01   0.02   0.01   0.02   0     -0.02   0.02   0     -0.01   0.02   0.01  -0.01   0      0      0     -0.01  -0.01   0      0     -0.16   0.24  -0.09  -0.03  -0.04   0.06  -0.04   0.08   0.02  -0.04   0.05   0.01  -0.02  -0.07  -0.04  -0.03  -0.01   0      0.03  -0.02   0      0     -0.13  -0.19   1     -0.1   -0.08  -0.04  -0.01   0      0.02   0.01   0      0.32   0.02   0.02  -0.07  -0.02   0      0     -0.01   0.01  -0.01   0.01   0.01   0.01   0      0.01   0      0      0.01   0.01   0     -0.01   0      0.01   0      0.02   0.01   0.01   0.01   0.01   0      0     -0.01   0.01   0      0      0      0      0.02   0.01   0      0      0      0.02  -0.01   0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.43  -0.02  -0.08   0.06  -0.04  -0.04   0.09  -0.05   0.01   0.02  -0.07  -0.02   0.11  -0.08   0      0.12  -0.02  -0.03  -0.03  -0.04  -0.05  -0.03   0.04  -0.02   0      0.06   0.51  -0.38  -0.09  -0.02  -0.03  -0.01  -0.07   0.05  -0.1    0.09  -0.08   0.11   0.04  -0.07  -0.03   0     -0.02  -0.01   0.09  -0.01   0      0     -0.25  -0.35  -0.1    1     -0.15  -0.08  -0.02   0.02   0.01   0      0      0.1   -0.05  -0.05  -0.25   0.04   0      0     -0.01  -0.02  -0.03   0     -0.01   0     -0.01  -0.01  -0.01   0      0     -0.01  -0.01  -0.01  -0.01   0     -0.01   0      0      0      0      0      0     -0.01  -0.01  -0.01  -0.01   0      0.01   0      0     -0.01   0      0      0     -0.01  -0.01  -0.01   0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.04   0.01  -0.04   0.02   0.01   0.03  -0.01  -0.04   0     -0.01  -0.06   0.04   0.01  -0.02   0.01   0      0.01   0.02   0     -0.02  -0.03   0.01   0.01   0     -0.01  -0.01  -0.05  -0.32   0.33   0.08   0.2   -0.01   0.16   0.11  -0.02  -0.02  -0.02   0.07  -0.02  -0.06  -0.03  -0.02   0.01   0     -0.01  -0.02  -0.01   0.03  -0.2   -0.28  -0.08  -0.15   1     -0.06  -0.13   0.15  -0.01   0.03   0.01   0.32  -0.03  -0.04  -0.04  -0.02   0.01   0.01  -0.01   0      0.01   0.01   0.03   0.02   0      0      0.01   0      0     -0.01   0      0.02   0      0      0      0      0      0.01   0      0.01   0.01   0      0.01  -0.01   0     -0.01   0.01   0.01   0      0     -0.01   0.01   0.01  -0.01   0     -0.01   0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.07  -0.02  -0.02   0.04  -0.01  -0.01   0.01  -0.03   0      0     -0.04   0.03   0.02  -0.03   0.02  -0.01  -0.02  -0.02   0.02  -0.02  -0.02   0.05   0.02   0.03   0.02   0.02   0.11  -0.12  -0.01   0.03   0.02   0      0.02   0.01  -0.04   0.04  -0.04   0.05   0     -0.01  -0.02   0      0.01  -0.01   0.01  -0.01   0.02   0.04  -0.1   -0.15  -0.04  -0.08  -0.06   1     -0.07   0.04   0.05   0.01   0.04   0.04  -0.02  -0.02  -0.05  -0.11   0.01   0.02   0.01   0.02   0.09   0.02   0.01   0.01  -0.01  -0.01  -0.01   0      0.03   0      0.01   0.01   0.02   0      0.04   0      0      0.04  -0.01   0.02   0.05  -0.01   0.04   0.01   0      0      0.01   0      0      0      0      0.03   0.04   0.02   0      0.01   0.03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.03  -0.02   0.06   0     -0.05  -0.02  -0.02   0.04   0     -0.01   0.03  -0.01  -0.01   0.03  -0.03   0      0      0.01   0      0.01   0.01   0     -0.02  -0.01  -0.01  -0.03  -0.07   0.11   0     -0.05  -0.08   0.01  -0.01  -0.04   0.05  -0.02   0.03  -0.08   0.03   0.05   0      0.03  -0.04   0.01  -0.02  -0.02   0     -0.02   0.01   0.12  -0.01  -0.02  -0.13  -0.07   1     -0.79  -0.44  -0.24  -0.22  -0.1    0.01   0.02   0.05   0.2    0.01  -0.11  -0.12  -0.07   0.03  -0.12  -0.02   0      0.01   0.02   0.01   0     -0.18   0.02   0.02   0     -0.06  -0.05  -0.01  -0.06  -0.09  -0.09   0.01  -0.04   0.02   0.01   0.01  -0.11  -0.07   0.01   0.01  -0.02   0.01  -0.06   0.01   0     -0.11  -0.05   0.01   0.01   0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.02   0.02  -0.06   0      0.05   0.04   0.02  -0.05   0      0.01  -0.05   0.04   0.02  -0.04   0.03   0.01   0     -0.01   0     -0.03  -0.03  -0.01   0.03   0      0      0.03   0.07  -0.13   0.02   0.02   0.1    0      0.02   0.04  -0.05   0.02  -0.05   0.09  -0.03  -0.05   0.01  -0.03   0.04  -0.01   0.02   0.03   0      0.02   0     -0.13   0      0.02   0.15   0.04  -0.79   1     -0.06  -0.03  -0.03   0.12  -0.02  -0.02  -0.05   0.01  -0.01   0.14  -0.01   0.03  -0.04  -0.02   0      0      0     -0.02  -0.01  -0.01  -0.02  -0.02  -0.01  -0.01   0     -0.01  -0.01  -0.01  -0.01   0.11  -0.01   0.01  -0.02  -0.01  -0.01  -0.02  -0.01  -0.01  -0.01   0.02  -0.01   0.06  -0.01   0     -0.01  -0.01  -0.01  -0.01   0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.01   0.01  -0.01   0      0.01  -0.02   0      0.01   0      0      0.06  -0.04  -0.02   0.03  -0.01  -0.01   0     -0.01  -0.01   0.02   0.03   0.01  -0.02   0      0.02  -0.01   0.01   0.01  -0.03   0.04  -0.01   0     -0.01   0.01   0     -0.02   0.03   0.01   0     -0.02  -0.02  -0.02   0      0.02   0     -0.01   0      0     -0.02   0      0.02   0.01  -0.01   0.05  -0.44  -0.06   1     -0.02  -0.02   0      0.01   0      0     -0.37  -0.01  -0.01   0.26   0.08  -0.02   0.26  -0.01   0     -0.01  -0.01   0      0.02   0.41  -0.01   0     -0.01   0.13   0.11  -0.01   0.13   0.2    0      0      0     -0.01  -0.01  -0.01   0.26   0.14   0     -0.01   0      0      0.01   0     -0.01   0.24   0.12   0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.01   0      0     -0.02   0.02   0.02   0.01  -0.02   0      0     -0.03   0.01   0     -0.02   0      0.01   0      0.01   0.01   0     -0.01   0      0.01   0.01   0      0      0     -0.02   0.02   0.01   0      0      0      0     -0.01   0.01  -0.01   0     -0.01   0      0.01   0      0     -0.01   0.01   0      0.02  -0.01   0     -0.02   0.01   0      0.03   0.01  -0.24  -0.03  -0.02   1     -0.01   0.01  -0.01  -0.01   0      0.02  -0.01   0     -0.01  -0.01   0      0.01   0      0     -0.01  -0.01   0      0      0      0      0      0      0      0      0      0      0      0      0      0     -0.01   0      0      0      0      0      0      0      0      0      0      0      0      0.01   0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.03  -0.01  -0.02   0.02   0     -0.01   0.01  -0.01   0      0     -0.01  -0.01   0     -0.01   0.01  -0.01   0     -0.01   0.03   0      0      0.03   0      0.04   0.01   0.03   0.01  -0.01  -0.01   0.03   0.01   0      0     -0.01  -0.02   0      0      0.01  -0.01  -0.01   0      0.01   0.03  -0.01   0.01   0      0      0.01   0     -0.02   0      0      0.01   0.04  -0.22  -0.03  -0.02  -0.01   1      0.01   0     -0.01  -0.01  -0.13   0.01   0      0.03   0.03   0.08   0      0.11   0      0      0      0      0.02  -0.01   0      0      0.05   0      0      0.1    0      0      0      0      0.13   0.02   0      0.03   0      0.01   0      0.01   0      0      0.01   0      0.04   0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.09   0.02  -0.11   0.03   0      0.04   0.07  -0.08   0      0     -0.03  -0.01   0.02  -0.01  -0.01   0.06   0.02   0.01  -0.03  -0.03  -0.05  -0.02  -0.01  -0.01   0      0      0.17  -0.43   0.23   0.04   0.11   0.02   0.19   0.26  -0.04  -0.09   0.03   0.15   0.01  -0.22  -0.13  -0.1   -0.03   0.02   0.07  -0.06  -0.01   0.09   0.17  -0.58   0.32   0.1    0.32   0.04  -0.1    0.12   0      0.01   0.01   1     -0.05  -0.05  -0.23   0.01   0.01   0.02  -0.03  -0.01  -0.03   0      0.02   0.01   0      0      0.01  -0.01   0.01   0      0      0.01  -0.01   0.01   0      0.01   0      0.01   0      0.02   0      0.01   0     -0.01   0     -0.01   0.01   0.01   0      0.01  -0.01   0      0      0      0      0.01   0.01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.08  -0.01   0.03  -0.04  -0.01  -0.01  -0.02   0.1    0      0      0.04  -0.05  -0.02   0.05  -0.01  -0.03  -0.01  -0.01  -0.02   0.06   0.17  -0.01  -0.02  -0.01   0     -0.01  -0.07   0.09  -0.02  -0.01  -0.01   0     -0.01  -0.03   0.06  -0.02   0.09  -0.04   0.01  -0.02  -0.02  -0.01  -0.03  -0.01  -0.02  -0.01   0     -0.01  -0.03   0.08   0.02  -0.05  -0.03  -0.02   0.01  -0.02   0.01  -0.01   0     -0.05   1     -0.03   0.08   0     -0.01   0      0.02   0.01  -0.01   0.01  -0.01   0      0      0      0      0      0      0      0     -0.01   0      0      0      0      0.01  -0.01   0      0      0      0     -0.01   0      0.01   0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.06   0      0.02  -0.03   0.01   0.01  -0.02   0.03   0      0      0.03  -0.03  -0.02   0.05  -0.02  -0.02   0     -0.01  -0.01   0.05   0.05   0     -0.01  -0.01   0     -0.02  -0.06   0.08  -0.02  -0.01  -0.01  -0.01   0     -0.02   0.05  -0.02   0.05  -0.04   0.01   0      0     -0.01  -0.02   0     -0.02   0      0.01  -0.01  -0.02   0.08   0.02  -0.05  -0.04  -0.02   0.02  -0.02   0     -0.01  -0.01  -0.05  -0.03   1      0.05   0.01   0     -0.01   0.01   0.01  -0.02   0.01   0      0      0      0.01   0      0      0     -0.01  -0.01  -0.01   0.01  -0.01  -0.01  -0.01   0.01   0     -0.01  -0.01  -0.01  -0.01  -0.01   0.01   0      0      0      0      0      0.01   0.02   0      0      0      0      0      0.03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.07  -0.02   0.09  -0.02   0.01   0.01  -0.17   0.13  -0.01  -0.01   0.08   0.01  -0.1    0.07  -0.02  -0.07   0      0.02  -0.01   0.06   0.08  -0.01  -0.05  -0.01  -0.01  -0.04  -0.2    0.21   0.03  -0.01  -0.02   0     -0.11  -0.08   0.14  -0.04   0.06  -0.16   0.01   0.06   0.08   0.09   0.01  -0.01  -0.17   0.03   0     -0.04   0.01   0.25  -0.07  -0.25  -0.04  -0.05   0.05  -0.05   0      0     -0.01  -0.23   0.08   0.05   1      0     -0.01  -0.01   0      0.01   0      0.01  -0.01  -0.01   0.01   0      0      0.01  -0.01   0     -0.01   0      0      0.01   0      0      0     -0.01   0      0.01  -0.02   0.01   0     -0.01   0.01   0.01  -0.01   0      0     -0.01   0.01  -0.01  -0.01   0      0     -0.01   0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.02   0.02   0.01  -0.04   0.02   0.03   0.01   0      0      0     -0.01   0.06   0.01  -0.01  -0.05   0.05   0.01   0.03  -0.06  -0.04  -0.01  -0.2    0.01  -0.15  -0.07  -0.02   0     -0.01   0.05  -0.11  -0.02   0.01   0.01   0.02   0.03  -0.02   0     -0.06   0.03   0      0.03  -0.01  -0.04   0.01   0.01   0.02   0.01  -0.06   0.02   0.01  -0.02   0.04  -0.02  -0.11   0.2    0.01  -0.37   0.02  -0.13   0.01   0      0.01   0      1     -0.16  -0.15  -0.16  -0.4   -0.42  -0.15  -0.17  -0.06  -0.15  -0.18  -0.19  -0.11  -0.23  -0.14  -0.13  -0.12  -0.07  -0.07  -0.09  -0.07  -0.12  -0.11  -0.1   -0.14  -0.17  -0.09  -0.13  -0.14  -0.13  -0.07  -0.09  -0.06  -0.06  -0.07  -0.09  -0.09  -0.13  -0.07  -0.08  -0.06  -0.02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.03  -0.01   0      0      0      0     -0.01   0.02   0      0      0     -0.01  -0.01   0      0.01  -0.01   0     -0.01   0.02   0      0.01   0.02   0      0.02   0      0.01  -0.02   0.01   0      0.01   0.01   0      0      0      0.01   0      0      0.01   0     -0.01   0.01   0      0     -0.01  -0.01   0      0      0.01  -0.01   0      0      0      0.01   0.01   0.01  -0.01  -0.01  -0.01   0.01   0.01  -0.01   0     -0.01  -0.16   1      0      0     -0.01  -0.01   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.01   0     -0.01   0.02  -0.01   0     -0.01  -0.01   0      0     -0.01   0      0     -0.01   0      0.01   0.02   0     -0.01   0     -0.01   0      0      0      0      0      0.02  -0.02  -0.01   0.03   0.01   0     -0.01   0.01   0      0     -0.01   0.02   0     -0.01   0     -0.01  -0.01   0.01  -0.01   0      0      0.01   0.01  -0.01   0      0      0.01   0.02  -0.11   0.14  -0.01   0      0      0.02   0     -0.01  -0.01  -0.15   0      1      0     -0.01  -0.01   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0      0.02   0      0      0     -0.01  -0.01   0.01   0      0      0.01  -0.03   0.01   0.05   0     -0.02   0     -0.01  -0.01   0.02   0.06  -0.01   0      0      0.01  -0.01  -0.01   0.02  -0.02   0.04   0      0      0      0      0      0      0.05  -0.01   0     -0.01  -0.01  -0.01  -0.01   0.01  -0.01   0.01   0      0     -0.01   0.02  -0.01  -0.01  -0.01   0.01  -0.12  -0.01   0.26  -0.01   0.03  -0.03   0.02   0.01   0     -0.16   0      0      1     -0.01  -0.01   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0     -0.01   0      0      0     -0.01  -0.01   0.03   0      0      0.03  -0.03  -0.02   0.02   0     -0.01  -0.01  -0.01   0.01   0.03   0.01   0.02  -0.01   0.01   0      0.02   0      0.01  -0.02   0.03   0      0     -0.01  -0.01   0     -0.01   0.02   0.02   0      0      0     -0.02   0      0     -0.01  -0.01   0      0.01   0      0      0.01  -0.02   0      0.02  -0.07   0.03   0.08  -0.01   0.03  -0.01   0.01   0.01   0.01  -0.4   -0.01  -0.01  -0.01   1     -0.02  -0.01  -0.01   0     -0.01  -0.01  -0.01   0     -0.01  -0.01  -0.01  -0.01   0      0      0      0     -0.01   0      0     -0.01  -0.01   0     -0.01  -0.01  -0.01   0      0      0      0      0      0      0     -0.01   0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.06  -0.03  -0.02   0.05  -0.02  -0.02   0     -0.02   0      0     -0.05  -0.04   0     -0.03   0.08  -0.04  -0.02  -0.02   0.06  -0.01  -0.02   0.31   0.01   0.19   0.09   0.01   0.01   0.01  -0.04   0.06   0.02   0     -0.01  -0.03  -0.04   0.05  -0.04   0.04  -0.03   0.01  -0.01   0.07   0.05  -0.02   0     -0.01   0      0.05  -0.02   0     -0.01  -0.03   0.01   0.09   0.03  -0.04  -0.02   0      0.08  -0.03  -0.01  -0.02   0     -0.42  -0.01  -0.01  -0.01  -0.02   1     -0.01  -0.01   0     -0.01  -0.01  -0.01  -0.01  -0.01  -0.01  -0.01  -0.01   0      0      0      0     -0.01  -0.01   0     -0.01  -0.01   0     -0.01  -0.01  -0.01   0      0      0      0      0      0      0     -0.01   0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0     -0.01   0.03  -0.02   0     -0.01   0.01   0.01   0      0      0.02   0      0      0.01  -0.01   0     -0.01   0      0      0      0     -0.01  -0.01   0      0     -0.01   0      0     -0.01   0.01   0      0      0.01  -0.01   0.01   0      0      0.01   0.02   0     -0.01  -0.01  -0.01  -0.01   0.01  -0.01   0      0     -0.02   0      0.01   0      0.01   0.02  -0.12  -0.02   0.26   0.01   0      0      0.01   0.01   0.01  -0.15   0      0      0     -0.01  -0.01   1      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.01   0     -0.01   0.01   0.01   0      0     -0.01   0      0     -0.01   0      0.01  -0.01   0.01  -0.01  -0.01  -0.01   0.03  -0.01  -0.01   0.02   0      0.02   0.01   0      0     -0.01   0      0.03   0.02   0      0      0.01  -0.01   0     -0.01   0.01  -0.01   0      0      0      0.02  -0.01   0      0      0      0     -0.01  -0.02   0.01  -0.01   0.03   0.01  -0.02   0     -0.01   0      0.11   0.02  -0.01   0     -0.01  -0.17   0      0      0     -0.01  -0.01   0      1      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.01   0      0     -0.01   0      0      0      0.01   0      0      0      0      0.01   0      0      0      0      0      0      0      0.01   0.01   0      0.02   0      0      0     -0.01   0.01   0.03   0.01   0      0      0      0      0.01   0      0      0      0      0      0      0      0      0      0.01   0      0      0     -0.02   0.01   0      0.02   0.01   0      0      0      0      0      0.01   0      0     -0.01  -0.06   0      0      0      0      0      0      0      1      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.01   0      0      0      0      0      0      0      0      0      0.01   0     -0.01   0.01  -0.01  -0.01   0.01   0     -0.01   0.01   0      0      0      0      0      0      0      0      0.01  -0.01   0      0      0     -0.01   0.02  -0.01   0.02   0     -0.01  -0.01  -0.01  -0.01  -0.01   0.01   0      0.01   0      0.02   0.01  -0.01   0     -0.01   0     -0.01   0.01   0     -0.01  -0.01   0      0      0      0      0.01  -0.15   0      0      0     -0.01  -0.01   0      0      0      1      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.02   0      0     -0.01   0      0      0.02   0.01   0      0      0.01  -0.01   0      0      0      0     -0.01   0      0      0.03   0      0      0      0      0      0     -0.01   0.01   0      0.01   0      0      0      0      0     -0.01   0.01   0     -0.01   0      0      0     -0.01   0      0.02   0      0      0      0.01   0      0.01  -0.01   0     -0.01   0.02  -0.02  -0.01  -0.01   0      0      0      0.01   0     -0.18   0      0      0     -0.01  -0.01   0      0      0      0      1      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0      0     -0.01   0      0      0      0      0      0      0      0.01  -0.02   0      0     -0.01   0      0      0.01   0      0.02   0.01  -0.01  -0.01   0      0      0     -0.01   0      0.01   0      0      0      0.01   0.01   0      0      0.02  -0.01   0      0     -0.01  -0.01  -0.01   0      0      0      0      0      0      0      0     -0.01   0.01  -0.01   0.01  -0.01   0      0      0      0.01   0      0      0     -0.19   0      0      0     -0.01  -0.01   0      0      0      0      0      1      0     -0.01   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0      0      0.02  -0.01   0      0     -0.01   0      0      0      0.02  -0.02  -0.01   0.01   0      0      0.01  -0.01  -0.01   0.03   0      0     -0.01   0      0      0     -0.01   0.01   0      0      0      0      0     -0.01   0.01  -0.01   0.02   0      0.01  -0.01   0     -0.01  -0.01   0     -0.01  -0.01   0      0      0      0.01   0      0      0      0      0     -0.01   0.02   0      0.02  -0.01   0      0      0.01  -0.11   0      0      0      0     -0.01   0      0      0      0      0      0      1      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0     -0.01  -0.02   0.01   0.01   0      0     -0.01   0.02   0      0.05  -0.03   0     -0.01   0      0      0      0     -0.01  -0.01   0.02   0.02  -0.01   0.01   0.01  -0.01   0      0.01  -0.02   0.03   0      0      0      0.02  -0.01   0      0      0.02  -0.01  -0.01  -0.02   0      0      0.02   0      0      0      0.01  -0.02   0      0.01   0      0      0.03  -0.18  -0.02   0.41   0     -0.01   0.01   0      0     -0.01  -0.23   0      0      0     -0.01  -0.01   0      0      0      0      0     -0.01   0      1      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.03   0      0.02  -0.01   0     -0.01   0      0      0      0      0     -0.01  -0.01   0     -0.01  -0.01   0.01  -0.01   0.01   0      0      0.06   0      0.03   0      0.02  -0.02   0.02  -0.01   0.01   0      0      0.01   0      0      0      0      0.01  -0.01   0.01  -0.01   0      0.01  -0.01   0     -0.01   0      0     -0.01   0.02   0.01  -0.01  -0.01   0      0.02  -0.02  -0.01   0      0      0      0     -0.01   0     -0.14   0      0      0     -0.01  -0.01   0      0      0      0      0      0      0      0      1      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.01  -0.01   0      0.01   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0.01   0     -0.01   0     -0.01   0.01   0      0     -0.01   0     -0.01   0.03   0      0      0.01  -0.01  -0.01   0.01   0      0      0      0.01   0      0      0.01   0      0     -0.01   0      0.01   0      0      0     -0.01   0      0.01   0.02  -0.01   0      0      0      0      0     -0.01  -0.01  -0.13   0      0      0     -0.01  -0.01   0      0      0      0      0      0      0      0      0      1      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0      0      0.01   0.01   0     -0.01   0     -0.01   0      0     -0.01   0      0     -0.01   0.01  -0.01   0.01   0.01   0      0      0.01   0.01   0.01   0.01   0      0.01   0     -0.01   0      0.03   0.02   0      0.01   0     -0.01   0     -0.01   0     -0.01   0      0     -0.01   0.02   0.01   0     -0.01   0      0.01   0.01  -0.01  -0.01  -0.01   0.02   0.01   0     -0.01  -0.01   0      0.05   0.01  -0.01  -0.01   0     -0.12   0      0      0     -0.01  -0.01   0      0      0      0      0      0      0      0      0      0      1      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0      0      0      0.01   0     -0.01   0      0      0      0      0      0      0     -0.01   0      0      0     -0.01   0.01   0      0      0      0      0.02   0.03   0.01   0      0.01  -0.01   0.01   0      0      0     -0.01  -0.01  -0.01   0      0      0      0.01  -0.01   0      0.01   0      0      0      0      0      0      0      0     -0.01   0      0.02  -0.06   0      0.13   0      0     -0.01   0      0.01   0     -0.07   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      1      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.01   0      0.01  -0.01   0     -0.01   0      0.02   0      0      0      0      0      0      0      0      0      0      0      0.01   0      0      0      0      0      0.01   0     -0.01  -0.01   0.02   0      0      0.01   0      0.01   0      0      0.01  -0.01   0     -0.01   0      0      0      0      0.01   0      0.02   0.01  -0.01   0.01   0      0      0     -0.05  -0.01   0.11   0      0      0.01   0     -0.01   0.01  -0.07   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      1      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0     -0.01   0      0.01  -0.01   0      0     -0.01   0      0      0      0      0      0      0      0     -0.01   0      0      0      0      0      0      0.01   0      0.01   0      0     -0.01   0.01  -0.01   0      0     -0.01  -0.01   0      0      0      0      0      0     -0.01   0.03   0      0      0      0      0.01   0      0      0     -0.01   0      0.04  -0.01  -0.01  -0.01   0      0.1    0      0     -0.01   0     -0.09   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      1      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.01   0     -0.01   0.01   0      0      0      0      0      0     -0.01   0      0     -0.01   0      0      0      0      0.01   0      0.01   0.02   0      0      0.03   0      0      0.01  -0.01   0.01   0      0      0      0.01   0      0     -0.01   0      0      0     -0.01   0      0.03   0      0      0      0      0      0      0      0.02   0      0      0     -0.06  -0.01   0.13   0      0      0.01   0     -0.01   0     -0.07   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      1      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.01   0.02  -0.01  -0.02  -0.01   0      0.02   0.02   0      0      0.02  -0.02  -0.01   0.04  -0.01  -0.01   0     -0.01  -0.01   0.05   0.01   0     -0.01   0      0      0      0.01   0.01  -0.01   0     -0.01   0     -0.01  -0.01   0.01  -0.01   0.03  -0.01  -0.01  -0.01  -0.01  -0.01  -0.01   0      0.02  -0.01   0      0     -0.01   0      0.01   0      0      0     -0.09  -0.01   0.2    0      0      0      0.01   0.01   0     -0.12   0      0      0     -0.01  -0.01   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      1      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0      0     -0.01   0.01  -0.01   0      0      0      0      0     -0.01   0      0     -0.01   0.02   0      0.01  -0.01   0      0      0      0.02   0      0.01   0      0      0     -0.01   0      0.03   0      0      0      0     -0.01   0      0      0.03  -0.01   0      0     -0.01   0     -0.01   0      0      0      0.01  -0.01  -0.02   0.01   0      0.01   0.04  -0.09   0.11   0      0      0      0.01  -0.01   0     -0.01  -0.11   0      0      0      0     -0.01   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      1      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0      0      0      0      0     -0.01   0      0      0      0     -0.01   0     -0.01   0      0.02  -0.02   0      0      0.03   0      0      0      0.01   0.09   0      0     -0.01   0.01   0      0      0      0      0      0     -0.01   0.02  -0.01  -0.01  -0.01   0.02  -0.01   0      0.01  -0.01   0      0      0      0     -0.01   0      0.01   0      0     -0.01   0.01  -0.01   0      0      0      0      0     -0.01   0     -0.1    0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      1      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0     -0.01  -0.01   0.02  -0.01   0      0      0      0      0     -0.02  -0.01   0.01  -0.01   0.03  -0.01  -0.01  -0.01   0.04  -0.01  -0.01   0.01   0.01   0.05   0.03   0.02   0.01  -0.01   0      0.05   0      0      0     -0.01  -0.01   0.01  -0.01   0.01   0     -0.01   0     -0.01   0.05  -0.01   0      0      0      0.01   0     -0.02   0.01   0      0.01   0.02  -0.04   0.01   0      0      0.13   0.02   0     -0.01   0.01  -0.14   0      0      0     -0.01  -0.01   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      1      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.02  -0.01  -0.01   0.02   0      0      0     -0.01   0      0     -0.02  -0.02   0     -0.01   0.04  -0.01   0     -0.01   0.01   0      0      0.1    0      0.07   0.05   0      0.02  -0.01  -0.02   0.02   0.01   0      0     -0.01  -0.02   0.01  -0.01   0.05  -0.01   0      0      0      0     -0.01   0     -0.01   0      0.04  -0.01  -0.02   0      0      0.01   0.05   0.02  -0.02  -0.01  -0.01   0.02   0      0     -0.01  -0.02  -0.17   0      0      0     -0.01  -0.01   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      1      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0      0      0      0      0      0      0      0      0      0      0.01  -0.01  -0.01   0.02   0     -0.01   0.01   0      0      0.02   0      0     -0.01   0      0      0      0      0      0.01   0.01  -0.01   0      0     -0.01   0.01  -0.01   0.01   0      0     -0.01  -0.01   0     -0.01   0.01   0      0      0      0.03   0.01   0      0     -0.01   0     -0.01   0.01  -0.01  -0.01   0      0      0.01   0     -0.01   0.01  -0.09   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      1      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.02  -0.01  -0.01   0.02   0      0     -0.01  -0.01   0      0     -0.02  -0.01   0.01  -0.01   0.02  -0.01  -0.01  -0.01   0.04  -0.01  -0.01   0.05   0.01   0.08   0.02   0.01   0.01  -0.02  -0.01   0.04   0.01   0      0     -0.01  -0.02   0.02  -0.01   0     -0.01   0.01   0      0.01   0.01   0     -0.01   0      0      0.11   0.01  -0.02  -0.01  -0.01   0.01   0.04   0.01  -0.01  -0.01   0      0.03   0     -0.01  -0.01   0     -0.13   0      0      0     -0.01  -0.01   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      1      0      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.01   0.02   0      0      0      0      0.01  -0.01   0      0      0.01  -0.01  -0.01   0.02   0     -0.02  -0.01  -0.01   0.01   0.05   0      0      0      0      0.03  -0.01  -0.02   0.02  -0.01   0.03   0      0      0     -0.01   0     -0.01   0.02   0.02  -0.01  -0.01  -0.01  -0.01   0.01   0      0.01  -0.01   0      0      0      0.01   0.01  -0.01  -0.01   0.01  -0.11  -0.02   0.26   0      0     -0.01   0      0.01  -0.01  -0.14   0      0      0     -0.01  -0.01   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      1      0      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0      0      0      0      0     -0.01   0      0      0      0      0.02   0     -0.01   0.01  -0.01   0      0      0     -0.01   0      0.01   0      0      0      0     -0.01  -0.01   0      0      0      0      0      0      0      0.02  -0.01   0      0.01   0      0     -0.01   0     -0.01  -0.01   0      0      0      0      0.01   0      0     -0.01   0      0     -0.07  -0.01   0.14   0      0.01   0      0.01   0      0.01  -0.13   0      0      0     -0.01  -0.01   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      1      0      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0      0      0      0.01   0      0     -0.01   0      0      0      0.01  -0.01   0     -0.01   0.01   0      0.01   0      0.01   0      0      0      0      0      0      0     -0.01   0.01   0      0      0      0      0      0      0.01   0     -0.01   0.01  -0.01   0      0      0      0.01   0     -0.01   0      0      0     -0.01   0.01   0      0     -0.01   0      0.01  -0.01   0      0      0     -0.01   0      0      0.01  -0.07   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      1      0      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.01  -0.01   0      0.01  -0.01   0      0     -0.01   0      0     -0.01   0.01   0.01   0      0      0      0      0      0      0      0      0      0.01   0      0      0      0.01  -0.01   0      0.01   0.02   0     -0.01  -0.01  -0.01   0.01  -0.01   0.01   0     -0.01   0     -0.01   0.01   0      0      0.01   0      0     -0.01  -0.01   0      0.01   0.01   0.01   0.01  -0.01  -0.01   0      0.01   0.01   0      0     -0.01  -0.09   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      1      0      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0      0      0      0      0      0     -0.01   0      0      0      0.01   0      0      0      0.01   0.01   0      0      0      0      0      0      0      0      0      0      0.01  -0.01   0      0      0      0      0     -0.01   0.01   0      0      0.01   0      0      0      0     -0.01   0     -0.01   0      0      0      0.01  -0.01   0      0      0.01   0     -0.02   0.02   0      0      0      0.01   0      0      0     -0.06   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      1      0      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0      0      0      0      0     -0.01   0      0      0      0      0      0      0      0.01   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0.01   0      0      0      0.01   0      0      0     -0.01  -0.01   0      0      0.01   0      0      0.01   0      0      0     -0.01   0.02   0      0      0      0.01  -0.01   0      0      0      0      0      0      0     -0.06   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      1      0      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0      0      0      0      0      0      0      0      0      0     -0.01   0      0      0      0.03   0      0     -0.01   0.01   0      0      0.01   0      0      0      0.01   0      0      0      0      0      0      0      0.01  -0.01  -0.01  -0.01   0      0      0      0      0      0.01   0.01   0      0      0      0      0      0      0.01  -0.01   0      0     -0.06   0.06   0.01   0      0.01   0.01   0      0.01  -0.01  -0.07   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      1      0      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.02  -0.01   0.02   0     -0.01   0     -0.01   0.01   0      0     -0.01   0      0      0.01   0      0     -0.01   0.01   0.01   0      0      0.01   0      0      0      0     -0.01   0.02  -0.01   0     -0.01   0      0      0      0.02   0     -0.01   0      0      0     -0.01  -0.01   0     -0.01  -0.01   0      0      0     -0.01   0.01   0      0     -0.01   0      0.01  -0.01   0      0      0     -0.01   0      0.02   0.01  -0.09   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      1      0      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.01   0      0      0.01   0      0      0     -0.01   0      0     -0.01   0      0.01   0      0      0.01   0      0      0      0      0      0.02   0      0      0.02   0      0.01   0     -0.01   0      0      0      0.01   0.01  -0.01   0.01  -0.01   0.01  -0.01   0      0     -0.01   0.01   0.01   0      0      0      0.01  -0.01   0      0      0      0.01   0.03   0      0     -0.01   0      0.04   0      0      0     -0.01  -0.09   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      1      0      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.02  -0.01   0      0.01   0      0      0      0      0      0      0.01  -0.01   0     -0.01   0      0.01   0      0      0      0      0      0.01   0      0.02   0      0      0.02  -0.01  -0.01   0.01  -0.01   0     -0.01   0.02  -0.01   0     -0.01   0     -0.01   0.01  -0.01   0      0.01   0      0     -0.01   0      0     -0.01  -0.01   0      0      0.01   0.04  -0.11  -0.01   0.24   0      0      0      0      0     -0.01  -0.13   0      0      0     -0.01  -0.01   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      1      0      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.01   0.01  -0.01   0.01   0      0      0      0      0      0      0     -0.01   0      0.01   0.01  -0.01   0      0      0.01   0.02   0      0      0      0      0.03   0      0      0.01  -0.01   0      0      0      0      0      0     -0.01   0.01  -0.01   0      0.01  -0.01   0      0      0      0      0.01   0      0      0      0      0.02  -0.01  -0.01   0.02  -0.05  -0.01   0.12   0.01   0      0      0      0      0     -0.07   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      1      0      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0     -0.01   0      0.02   0     -0.01  -0.01  -0.01   0      0      0      0.01   0      0      0.01  -0.01   0      0      0      0      0      0      0      0      0      0      0.01  -0.01   0      0.01   0      0      0     -0.01   0      0.01   0.01   0.01  -0.01   0.01  -0.01   0      0.01   0     -0.01   0      0      0      0.02  -0.01  -0.01  -0.01   0      0      0.01  -0.01   0      0      0      0      0      0      0     -0.08   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      1      0      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.02   0      0.01   0      0     -0.01   0      0      0      0      0.01   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0.01   0      0      0      0.01   0     -0.01   0.01   0      0     -0.01   0.01   0      0      0      0.02   0.01   0      0     -0.01  -0.01   0.01   0.01  -0.01   0      0      0      0.01   0      0     -0.01  -0.06   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      1      0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0.01   0      0      0      0      0      0      0      0      0      0      0.01  -0.01   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0.02   0      0      0      0      0      0      0      0      0      0      0.03   0      0      0      0      0      0.01   0      0.03   0     -0.02   0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      0      1    </t>
+  </si>
+  <si>
+    <t>*** k-Means Clustering Scree Plot ***</t>
+  </si>
+  <si>
+    <t>*** EM Clustering Scree Plot ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              Cluster</t>
+  </si>
+  <si>
+    <t>Attribute           0       1       2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               (0.25)  (0.33)  (0.41)</t>
+  </si>
+  <si>
+    <t>======================================</t>
+  </si>
+  <si>
+    <t>sepallength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  std. dev.     0.1483  0.0969  0.1338</t>
+  </si>
+  <si>
+    <t>sepalwidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  std. dev.     0.1194  0.1572  0.1232</t>
+  </si>
+  <si>
+    <t>petallength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  std. dev.     0.0846  0.0291  0.0891</t>
+  </si>
+  <si>
+    <t>petalwidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  std. dev.     0.1023  0.0442  0.1095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Cluster</t>
+  </si>
+  <si>
+    <t>Attribute           0       1       2       3       4       5       6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               (0.13)  (0.18)  (0.17)  (0.08)  (0.17)  (0.11)  (0.15)</t>
+  </si>
+  <si>
+    <t>======================================================================</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  std. dev.     0.1203  0.0669  0.0837    0.07  0.1027  0.0677  0.0669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  std. dev.     0.0662  0.1084  0.1045  0.1625  0.1046  0.0695  0.1191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  std. dev.     0.0312  0.0287  0.0502  0.0573  0.0653  0.0433   0.027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  std. dev.     0.0417  0.0232    0.09  0.1036  0.0714    0.06  0.0505</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  mean          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6968</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  0.1961  0.4521</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  mean          0.5513  0.1321  0.5183  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.8871</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  0.3527  0.6444  0.2729</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  mean          0.4462  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.5908</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  0.3126</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  mean         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.8006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  0.0786  0.5772</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  mean          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.8356</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    0.06  0.5471</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  mean          0.4183  0.4914  0.3292  0.4711  0.2348  0.4769  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.7101</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  mean          0.5998  0.0711  0.6977  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.9018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  0.4975  0.7732  0.0877</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  mean          0.5531  0.0395  0.7082  0.8115  0.4606  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.9002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  0.0846</t>
+    </r>
+  </si>
+  <si>
+    <t>0       36 ( 24%)</t>
+  </si>
+  <si>
+    <t>1       50 ( 33%)</t>
+  </si>
+  <si>
+    <t>2       64 ( 43%)</t>
+  </si>
+  <si>
+    <t>0       21 ( 14%)</t>
+  </si>
+  <si>
+    <t>1       28 ( 19%)</t>
+  </si>
+  <si>
+    <t>2       25 ( 17%)</t>
+  </si>
+  <si>
+    <t>3       11 (  7%)</t>
+  </si>
+  <si>
+    <t>4       26 ( 17%)</t>
+  </si>
+  <si>
+    <t>5       17 ( 11%)</t>
+  </si>
+  <si>
+    <t>6       22 ( 15%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6401,8 +7188,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6412,6 +7214,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6428,11 +7242,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6627,11 +7446,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="561763576"/>
-        <c:axId val="561768280"/>
+        <c:axId val="425698512"/>
+        <c:axId val="425695376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="561763576"/>
+        <c:axId val="425698512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6720,7 +7539,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561768280"/>
+        <c:crossAx val="425695376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6728,7 +7547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="561768280"/>
+        <c:axId val="425695376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6826,7 +7645,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561763576"/>
+        <c:crossAx val="425698512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7056,11 +7875,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="561768672"/>
-        <c:axId val="561767104"/>
+        <c:axId val="425698904"/>
+        <c:axId val="425699296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="561768672"/>
+        <c:axId val="425698904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7149,7 +7968,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561767104"/>
+        <c:crossAx val="425699296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7157,7 +7976,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="561767104"/>
+        <c:axId val="425699296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7255,7 +8074,1614 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561768672"/>
+        <c:crossAx val="425698904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Adult Census Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Adult Scree'!$B$33:$B$57</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Adult Scree'!$B$33:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>118315.93060000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95185.632299999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91764.258900000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85525.0389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80897.687099999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78829.311900000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74679.5334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72838.728499999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70349.895699999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70122.225099999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="434979272"/>
+        <c:axId val="434990248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="434979272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Clusters (k)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434990248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="434990248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Within Group Sum of Squares</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434979272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Log Likelihood</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Adult Scree'!$M$33:$M$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-7.1593999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.1356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.8996999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.4018999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8651</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4519</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.4299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3957000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="426129640"/>
+        <c:axId val="426132384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="426129640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Clusters</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426132384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="426132384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Log Likelihood</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426129640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Iris Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iris Scree'!$B$5:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>41.138199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.143700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5416999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9999000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8376000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6759000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1836000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0998000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5867</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3296000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2149000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="434983192"/>
+        <c:axId val="434988680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="434983192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Clusters (k)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434988680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="434988680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Within Group Sum of Squares</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434983192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Log Likelihood</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iris Scree'!$M$5:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-0.1288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2250999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7517999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0339999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1987999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.363</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4906000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5653999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7850999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="435001224"/>
+        <c:axId val="435002008"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="435001224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Ckusters (k)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435002008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="435002008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Log Likelihood</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435001224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7349,6 +9775,166 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8420,6 +11006,2070 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8464,6 +13114,131 @@
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8774,9 +13549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:KV3070"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="S44" sqref="S44"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -37173,17 +41946,327 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2"/>
+  <dimension ref="A2:I93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C59">
+        <v>11278</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.34636499999999998</v>
+      </c>
+      <c r="G59">
+        <f>100-34.64</f>
+        <v>65.36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C93">
+        <v>9423</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0.28939500000000001</v>
+      </c>
+      <c r="I93">
+        <f>100-28.94</f>
+        <v>71.06</v>
       </c>
     </row>
   </sheetData>
@@ -37193,9 +42276,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="E29" workbookViewId="0">
+      <selection activeCell="W52" sqref="W52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -37548,8 +42633,1507 @@
         <v>2116</v>
       </c>
     </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>118315.93060000001</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>-7.1593999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>95185.632299999997</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>-3.1356000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>91764.258900000001</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>-1.8996999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>85525.0389</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36">
+        <v>-2.4018999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>80897.687099999996</v>
+      </c>
+      <c r="L37">
+        <v>5</v>
+      </c>
+      <c r="M37" s="7">
+        <v>3.8651</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>78829.311900000001</v>
+      </c>
+      <c r="L38">
+        <v>6</v>
+      </c>
+      <c r="M38">
+        <v>1.4519</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>74679.5334</v>
+      </c>
+      <c r="L39">
+        <v>7</v>
+      </c>
+      <c r="M39">
+        <v>-2.4299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>72838.728499999997</v>
+      </c>
+      <c r="L40">
+        <v>8</v>
+      </c>
+      <c r="M40">
+        <v>1.2423999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>70349.895699999994</v>
+      </c>
+      <c r="L41">
+        <v>9</v>
+      </c>
+      <c r="M41" s="6">
+        <v>2.3957000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>70122.225099999996</v>
+      </c>
+      <c r="L42">
+        <v>10</v>
+      </c>
+      <c r="M42">
+        <v>1.4674</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>69161.580199999997</v>
+      </c>
+      <c r="L43">
+        <v>11</v>
+      </c>
+      <c r="M43">
+        <v>2.3975</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <v>68997.091400000005</v>
+      </c>
+      <c r="L44">
+        <v>12</v>
+      </c>
+      <c r="M44">
+        <v>1.6483000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>66898.461299999995</v>
+      </c>
+      <c r="L45">
+        <v>13</v>
+      </c>
+      <c r="M45">
+        <v>1.6827000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <v>64903.150900000001</v>
+      </c>
+      <c r="L46">
+        <v>14</v>
+      </c>
+      <c r="M46">
+        <v>1.2364999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>15</v>
+      </c>
+      <c r="B47">
+        <v>63891.0579</v>
+      </c>
+      <c r="L47">
+        <v>15</v>
+      </c>
+      <c r="M47">
+        <v>3.2323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>16</v>
+      </c>
+      <c r="B48">
+        <v>63069.648699999998</v>
+      </c>
+      <c r="L48">
+        <v>16</v>
+      </c>
+      <c r="M48">
+        <v>2.5766</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>17</v>
+      </c>
+      <c r="B49">
+        <v>62108.4113</v>
+      </c>
+      <c r="L49">
+        <v>17</v>
+      </c>
+      <c r="M49">
+        <v>1.9701</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>18</v>
+      </c>
+      <c r="B50">
+        <v>62086.118699999999</v>
+      </c>
+      <c r="L50">
+        <v>18</v>
+      </c>
+      <c r="M50">
+        <v>2.6977000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>19</v>
+      </c>
+      <c r="B51">
+        <v>61300.641900000002</v>
+      </c>
+      <c r="L51">
+        <v>19</v>
+      </c>
+      <c r="M51">
+        <v>2.5379</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>20</v>
+      </c>
+      <c r="B52">
+        <v>61233.530899999998</v>
+      </c>
+      <c r="L52">
+        <v>20</v>
+      </c>
+      <c r="M52">
+        <v>3.089</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>21</v>
+      </c>
+      <c r="B53">
+        <v>61037.9755</v>
+      </c>
+      <c r="L53">
+        <v>21</v>
+      </c>
+      <c r="M53">
+        <v>3.7332999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>22</v>
+      </c>
+      <c r="B54">
+        <v>60644.056799999998</v>
+      </c>
+      <c r="L54">
+        <v>22</v>
+      </c>
+      <c r="M54">
+        <v>2.6589999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>23</v>
+      </c>
+      <c r="B55">
+        <v>59516.8148</v>
+      </c>
+      <c r="L55">
+        <v>23</v>
+      </c>
+      <c r="M55">
+        <v>2.4521000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>24</v>
+      </c>
+      <c r="B56">
+        <v>58219.554400000001</v>
+      </c>
+      <c r="L56">
+        <v>24</v>
+      </c>
+      <c r="M56">
+        <v>2.5177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>25</v>
+      </c>
+      <c r="B57">
+        <v>58340.5893</v>
+      </c>
+      <c r="L57">
+        <v>25</v>
+      </c>
+      <c r="M57">
+        <v>2.6743999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M60" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M61" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M62" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M63" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M64" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="65" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M65" t="s">
+        <v>2171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B108"/>
+  <sheetViews>
+    <sheetView topLeftCell="A91" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:M29"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2283</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>41.138199999999998</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>-0.1288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>12.143700000000001</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2.2250999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>6.9981</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>2.7517999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>5.5416999999999996</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>3.0339999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>4.9999000000000002</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>3.1987999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>4.8376000000000001</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>3.363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4.6759000000000004</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>3.4906000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>4.1836000000000002</v>
+      </c>
+      <c r="L12">
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <v>3.5653999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>4.0998000000000001</v>
+      </c>
+      <c r="L13">
+        <v>9</v>
+      </c>
+      <c r="M13">
+        <v>3.6619999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>3.5867</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>3.7704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>3.3296000000000001</v>
+      </c>
+      <c r="L15">
+        <v>11</v>
+      </c>
+      <c r="M15">
+        <v>3.7850999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>3.2149000000000001</v>
+      </c>
+      <c r="L16">
+        <v>12</v>
+      </c>
+      <c r="M16">
+        <v>3.8466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>2.254</v>
+      </c>
+      <c r="L17">
+        <v>13</v>
+      </c>
+      <c r="M17">
+        <v>3.9708000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>1.9358</v>
+      </c>
+      <c r="L18">
+        <v>14</v>
+      </c>
+      <c r="M18">
+        <v>3.9466000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>1.9053</v>
+      </c>
+      <c r="L19">
+        <v>15</v>
+      </c>
+      <c r="M19">
+        <v>4.1173000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>1.8216000000000001</v>
+      </c>
+      <c r="L20">
+        <v>16</v>
+      </c>
+      <c r="M20">
+        <v>4.0179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>1.7688999999999999</v>
+      </c>
+      <c r="L21">
+        <v>17</v>
+      </c>
+      <c r="M21">
+        <v>4.1204999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>1.7487999999999999</v>
+      </c>
+      <c r="L22">
+        <v>18</v>
+      </c>
+      <c r="M22">
+        <v>4.1551</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>1.7381</v>
+      </c>
+      <c r="L23">
+        <v>19</v>
+      </c>
+      <c r="M23">
+        <v>4.7568000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>1.6366000000000001</v>
+      </c>
+      <c r="L24">
+        <v>20</v>
+      </c>
+      <c r="M24">
+        <v>4.3055000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>1.4888999999999999</v>
+      </c>
+      <c r="L25">
+        <v>21</v>
+      </c>
+      <c r="M25">
+        <v>4.2106000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>1.4762999999999999</v>
+      </c>
+      <c r="L26">
+        <v>22</v>
+      </c>
+      <c r="M26">
+        <v>4.2636000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>1.4933000000000001</v>
+      </c>
+      <c r="L27">
+        <v>23</v>
+      </c>
+      <c r="M27">
+        <v>4.3555000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>1.4359999999999999</v>
+      </c>
+      <c r="L28">
+        <v>24</v>
+      </c>
+      <c r="M28">
+        <v>4.4466000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>1.4032</v>
+      </c>
+      <c r="L29">
+        <v>25</v>
+      </c>
+      <c r="M29">
+        <v>4.4416000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2285</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2286</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2287</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2288</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>2289</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>2305</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>2290</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>2291</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>2307</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>2292</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>2293</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>2308</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>2294</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>2295</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>2309</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>2296</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>2313</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>2315</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G28" s="8" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G30" s="8" t="s">
+        <v>2321</v>
+      </c>
+      <c r="I30" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ScoreCard.xlsx
+++ b/ScoreCard.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6327" uniqueCount="2323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6332" uniqueCount="2328">
   <si>
     <t>HL</t>
   </si>
@@ -6939,6 +6939,36 @@
   </si>
   <si>
     <t xml:space="preserve">  std. dev.     0.0417  0.0232    0.09  0.1036  0.0714    0.06  0.0505</t>
+  </si>
+  <si>
+    <t>0       36 ( 24%)</t>
+  </si>
+  <si>
+    <t>1       50 ( 33%)</t>
+  </si>
+  <si>
+    <t>2       64 ( 43%)</t>
+  </si>
+  <si>
+    <t>0       21 ( 14%)</t>
+  </si>
+  <si>
+    <t>1       28 ( 19%)</t>
+  </si>
+  <si>
+    <t>2       25 ( 17%)</t>
+  </si>
+  <si>
+    <t>3       11 (  7%)</t>
+  </si>
+  <si>
+    <t>4       26 ( 17%)</t>
+  </si>
+  <si>
+    <t>5       17 ( 11%)</t>
+  </si>
+  <si>
+    <t>6       22 ( 15%)</t>
   </si>
   <si>
     <r>
@@ -6962,22 +6992,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  0.1961  0.4521</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  mean          0.5513  0.1321  0.5183  </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0.8871</t>
+      <t xml:space="preserve"> 0.1961</t>
     </r>
     <r>
       <rPr>
@@ -6987,7 +7012,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  0.3527  0.6444  0.2729</t>
+      <t xml:space="preserve">  0.4521</t>
     </r>
   </si>
   <si>
@@ -7012,7 +7037,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  0.3126</t>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.3126</t>
     </r>
   </si>
   <si>
@@ -7037,7 +7072,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  0.0786  0.5772</t>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.0786</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  0.5772</t>
     </r>
   </si>
   <si>
@@ -7062,12 +7117,167 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">    0.06  0.5471</t>
+      <t xml:space="preserve">    </t>
     </r>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">  mean          0.4183  0.4914  0.3292  0.4711  0.2348  0.4769  </t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  0.5471</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  mean          0.5513  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.1321</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  0.5183  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.8871</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  0.3527  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.6444</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.2729</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  mean          0.4183  0.4914 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.3292</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  0.4711  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.2348</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.4769</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
@@ -7082,7 +7292,27 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">  mean          0.5998  0.0711  0.6977  </t>
+      <t xml:space="preserve">  mean          0.5998  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.0711</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  0.6977  </t>
     </r>
     <r>
       <rPr>
@@ -7102,12 +7332,82 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  0.4975  0.7732  0.0877</t>
+      <t xml:space="preserve">  0.4975  </t>
     </r>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">  mean          0.5531  0.0395  0.7082  0.8115  0.4606  </t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.7732</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.0877</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  mean          0.5531  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.0395</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  0.7082 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.8115</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  0.4606  </t>
     </r>
     <r>
       <rPr>
@@ -7127,45 +7427,40 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  0.0846</t>
+      <t xml:space="preserve">  </t>
     </r>
-  </si>
-  <si>
-    <t>0       36 ( 24%)</t>
-  </si>
-  <si>
-    <t>1       50 ( 33%)</t>
-  </si>
-  <si>
-    <t>2       64 ( 43%)</t>
-  </si>
-  <si>
-    <t>0       21 ( 14%)</t>
-  </si>
-  <si>
-    <t>1       28 ( 19%)</t>
-  </si>
-  <si>
-    <t>2       25 ( 17%)</t>
-  </si>
-  <si>
-    <t>3       11 (  7%)</t>
-  </si>
-  <si>
-    <t>4       26 ( 17%)</t>
-  </si>
-  <si>
-    <t>5       17 ( 11%)</t>
-  </si>
-  <si>
-    <t>6       22 ( 15%)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.0846</t>
+    </r>
+  </si>
+  <si>
+    <t>eigenvalue</t>
+  </si>
+  <si>
+    <t>proportion</t>
+  </si>
+  <si>
+    <t>cumulative</t>
+  </si>
+  <si>
+    <t>0.581petallength+0.566petalwidth+0.522sepallength-0.263sepalwidth</t>
+  </si>
+  <si>
+    <t>-0.926sepalwidth-0.372sepallength-0.065petalwidth-0.021petallength</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7199,6 +7494,27 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -7242,7 +7558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7252,6 +7568,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -43943,15 +44261,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I31"/>
+  <dimension ref="B2:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2285</v>
       </c>
@@ -43959,31 +44277,64 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2286</v>
       </c>
       <c r="G3" t="s">
         <v>2298</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>2323</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>2324</v>
+      </c>
+      <c r="R3" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2287</v>
       </c>
       <c r="G4" t="s">
         <v>2299</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>2.9108200000000002</v>
+      </c>
+      <c r="Q4">
+        <v>0.72770000000000001</v>
+      </c>
+      <c r="R4">
+        <v>0.72770000000000001</v>
+      </c>
+      <c r="S4" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2288</v>
       </c>
       <c r="G5" t="s">
         <v>2300</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>0.92122000000000004</v>
+      </c>
+      <c r="Q5">
+        <v>0.23030999999999999</v>
+      </c>
+      <c r="R5">
+        <v>0.95801000000000003</v>
+      </c>
+      <c r="S5" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2289</v>
       </c>
@@ -43991,15 +44342,15 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>2305</v>
+        <v>2315</v>
       </c>
       <c r="G7" t="s">
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2290</v>
       </c>
@@ -44007,7 +44358,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>2291</v>
       </c>
@@ -44015,15 +44366,15 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>2307</v>
+        <v>2316</v>
       </c>
       <c r="G11" t="s">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2292</v>
       </c>
@@ -44031,7 +44382,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>2293</v>
       </c>
@@ -44039,15 +44390,15 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>2308</v>
+        <v>2317</v>
       </c>
       <c r="G15" t="s">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>2294</v>
       </c>
@@ -44065,10 +44416,10 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>2309</v>
+        <v>2318</v>
       </c>
       <c r="G19" t="s">
-        <v>2312</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -44081,56 +44432,56 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>2313</v>
+        <v>2305</v>
       </c>
       <c r="G23" t="s">
         <v>2143</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>2314</v>
+      <c r="B24" s="9" t="s">
+        <v>2306</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>2315</v>
+        <v>2307</v>
       </c>
       <c r="G25" t="s">
-        <v>2316</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G26" t="s">
-        <v>2317</v>
+      <c r="G26" s="9" t="s">
+        <v>2309</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
-        <v>2318</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G28" s="8" t="s">
-        <v>2319</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
-        <v>2320</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G30" s="8" t="s">
-        <v>2321</v>
+        <v>2313</v>
       </c>
       <c r="I30" s="8">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G31" t="s">
-        <v>2322</v>
+      <c r="G31" s="10" t="s">
+        <v>2314</v>
       </c>
     </row>
   </sheetData>

--- a/ScoreCard.xlsx
+++ b/ScoreCard.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="465" windowWidth="27555" windowHeight="12240" activeTab="5"/>
+    <workbookView xWindow="720" yWindow="465" windowWidth="27555" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Adult" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6332" uniqueCount="2328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6635" uniqueCount="2582">
   <si>
     <t>HL</t>
   </si>
@@ -7454,6 +7454,768 @@
   </si>
   <si>
     <t>-0.926sepalwidth-0.372sepallength-0.065petalwidth-0.021petallength</t>
+  </si>
+  <si>
+    <t>ICA</t>
+  </si>
+  <si>
+    <t>=== Run information ===</t>
+  </si>
+  <si>
+    <t>Scheme:       weka.classifiers.functions.MultilayerPerceptron -L 0.3 -M 0.2 -N 500 -V 0 -S 0 -E 20 -H 8</t>
+  </si>
+  <si>
+    <t>Relation:     iris_ICA-out</t>
+  </si>
+  <si>
+    <t>Instances:    150</t>
+  </si>
+  <si>
+    <t>Attributes:   3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              class</t>
+  </si>
+  <si>
+    <t>Test mode:    evaluate on training data</t>
+  </si>
+  <si>
+    <t>=== Classifier model (full training set) ===</t>
+  </si>
+  <si>
+    <t>Linear Node 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Inputs    Weights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    0.0957534962823791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 1    -2.436980457639255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 2    -0.3157615783380204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 3    0.9198465434585202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 4    -0.17718300600595846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 5    -0.2870815231357929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 6    1.1950483176207678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 7    -0.0767000810362029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 8    -0.21135236931402226</t>
+  </si>
+  <si>
+    <t>Sigmoid Node 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -2.5985083664934776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    -8.010345027314523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    -0.7915517368309003</t>
+  </si>
+  <si>
+    <t>Sigmoid Node 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -2.6390758585808305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    -0.5388227359242687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    -0.07118172320027645</t>
+  </si>
+  <si>
+    <t>Sigmoid Node 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -2.9042001450753205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    -2.2557392044209292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    -0.19906731931897612</t>
+  </si>
+  <si>
+    <t>Sigmoid Node 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -2.6858139596798023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    -0.7863393896689601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    -0.06199046561572869</t>
+  </si>
+  <si>
+    <t>Sigmoid Node 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -2.6457566841939766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    -0.5934755650966038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    -0.049873496624551976</t>
+  </si>
+  <si>
+    <t>Sigmoid Node 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    5.644252728829992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    -14.250633600917714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    0.2509514885220407</t>
+  </si>
+  <si>
+    <t>Sigmoid Node 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -2.718250784053763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    -0.9270218236098055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    -0.0610034261491513</t>
+  </si>
+  <si>
+    <t>Sigmoid Node 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -2.6740647416362227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    -0.7312794005743115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    -0.05688470085852189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 0</t>
+  </si>
+  <si>
+    <t>Time taken to build model: 0.23 seconds</t>
+  </si>
+  <si>
+    <t>=== Evaluation on training set ===</t>
+  </si>
+  <si>
+    <t>Time taken to test model on training data: 0.01 seconds</t>
+  </si>
+  <si>
+    <t>=== Summary ===</t>
+  </si>
+  <si>
+    <t>Correlation coefficient                  0.9873</t>
+  </si>
+  <si>
+    <t>Mean absolute error                      0.1098</t>
+  </si>
+  <si>
+    <t>Root mean squared error                  0.1588</t>
+  </si>
+  <si>
+    <t>Relative absolute error                 16.4744 %</t>
+  </si>
+  <si>
+    <t>Root relative squared error             19.4448 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Number of Instances              150     </t>
+  </si>
+  <si>
+    <t>ICA with 4 attributes!</t>
+  </si>
+  <si>
+    <t>Scheme:       weka.classifiers.functions.MultilayerPerceptron -L 0.3 -M 0.2 -N 500 -V 0 -S 0 -E 20 -H 20</t>
+  </si>
+  <si>
+    <t>Relation:     adult_ICA-out4</t>
+  </si>
+  <si>
+    <t>Instances:    300</t>
+  </si>
+  <si>
+    <t>Attributes:   5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              D</t>
+  </si>
+  <si>
+    <t>Sigmoid Node 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    0.3670263190749185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 2    -2.4921033426761436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 3    0.19720563862600685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 4    0.8851891184849378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 5    0.7121679365943578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 6    -1.3759602091602305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 7    0.9900822586630132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 8    -1.0769177368112564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 9    1.152958599250835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 10    -0.5109232258336606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 11    0.9796636920552418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 12    1.0128195912715017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 13    1.0611763836621468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 14    -1.3467819402102814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 15    0.7383912180311167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 16    1.0514571096657486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 17    0.6697425506023316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 18    0.9780490728921029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 19    0.8260793046077441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 20    -1.1241670374390684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 21    -1.4840136477776051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -0.3618811764030165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 2    2.5161978459088914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 3    -0.2154305340759007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 4    -0.9234051551111049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 5    -0.762631126142879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 6    1.3443550358264782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 7    -0.946071722484413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 8    1.078874078641591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 9    -1.1173098533292036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 10    0.5039093867918691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 11    -1.0249839143069377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 12    -0.9558321769981336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 13    -1.0390150268738618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 14    1.379790913549369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 15    -0.7266479654246455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 16    -1.0830504434033597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 17    -0.6435996462745347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 18    -0.9764103195630035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 19    -0.8888538225969125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 20    1.152251389956078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 21    1.4559687979366511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -0.5660509610320477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    0.737246957027413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    1.8229036740083904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib C    -3.969234717748937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib D    3.940312310363004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -1.9474051397483536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    0.43437298191960544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    0.5788263897987095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib C    -1.1344686344533406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib D    1.2081755452262708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -1.285752590286582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    -0.06939295807837897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    0.01763739563009758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib C    -0.9774019214684778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib D    0.9895486263301393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -1.4583993990248758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    0.1835055638918193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    0.2703937869712937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib C    -0.9154487037820381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib D    0.9122556620619963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -2.049873043292469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    0.75417945774226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    1.3046120086710655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib C    -2.5378504736539056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib D    2.5999987497384915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -1.21604345924514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    -0.1587100768403238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    -0.08355047377376754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib C    -1.0324056375957313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib D    1.0139054535014054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -2.1703043195411578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    0.7017963646879625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    1.1776365638884199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib C    -2.2831313360451575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib D    2.326710281827069</t>
+  </si>
+  <si>
+    <t>Sigmoid Node 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -1.1493236228711117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    1.1498266000339816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    1.0774343530100974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib C    -0.5992056800347543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib D    0.5643686678184046</t>
+  </si>
+  <si>
+    <t>Sigmoid Node 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -2.1899606651485373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    0.6076472132285673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    0.9275155588664269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib C    -1.8124766010356217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib D    1.8077523378526348</t>
+  </si>
+  <si>
+    <t>Sigmoid Node 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -1.1639160331608789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    -0.036860612407331184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    -0.06936337950514725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib C    -1.0023544259461517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib D    1.0434591929865384</t>
+  </si>
+  <si>
+    <t>Sigmoid Node 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -1.1894127320219852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    -0.08997931335906859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    -0.003116181808175269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib C    -0.9883303108743604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib D    1.0289466733303225</t>
+  </si>
+  <si>
+    <t>Sigmoid Node 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -1.1644727418795209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    0.9272560765600979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    0.8182587980569047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib C    -0.6955305081877216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib D    0.6814348198190084</t>
+  </si>
+  <si>
+    <t>Sigmoid Node 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -2.0384945684727516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    0.7865458174970054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    1.2788307376910732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib C    -2.570237709602824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib D    2.5909454892598585</t>
+  </si>
+  <si>
+    <t>Sigmoid Node 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -1.4574878758958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    0.2092952360081876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    0.26499581575606734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib C    -0.8890583325237369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib D    0.9432518595433255</t>
+  </si>
+  <si>
+    <t>Sigmoid Node 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -1.1206390308508853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    -0.29998389561259414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    -0.2649027368340234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib C    -1.0268130792671735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib D    1.1573240848121955</t>
+  </si>
+  <si>
+    <t>Sigmoid Node 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -1.5397017291795936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    0.24702659384451184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    0.3025836043746685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib C    -0.8970205663059917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib D    0.9634270271016293</t>
+  </si>
+  <si>
+    <t>Sigmoid Node 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -1.2053875687074604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    0.10936004517518676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    0.19993742764876518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib C    -0.9055135605267348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib D    0.9799147629925835</t>
+  </si>
+  <si>
+    <t>Sigmoid Node 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -1.3327349037920067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    -0.021452090895721553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    0.04002734232760278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib C    -0.9565016684386358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib D    0.9928646894065809</t>
+  </si>
+  <si>
+    <t>Sigmoid Node 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -2.158227964563442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    0.6795083235003033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    1.2349321424426667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib C    -2.313703009122178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib D    2.3919138392495793</t>
+  </si>
+  <si>
+    <t>Sigmoid Node 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Threshold    -1.9801799599651033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib A    0.7460416322004955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib B    1.3800248653651688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib C    -2.632851348482619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Attrib D    2.7135373636732267</t>
+  </si>
+  <si>
+    <t>Class &lt;=50K</t>
+  </si>
+  <si>
+    <t>Class &gt;5&lt;=50KK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Node 1</t>
+  </si>
+  <si>
+    <t>Time taken to build model: 0.61 seconds</t>
+  </si>
+  <si>
+    <t>Time taken to test model on training data: 0 seconds</t>
+  </si>
+  <si>
+    <t>Correctly Classified Instances         227               75.6667 %</t>
+  </si>
+  <si>
+    <t>Incorrectly Classified Instances        73               24.3333 %</t>
+  </si>
+  <si>
+    <t>Kappa statistic                          0.0334</t>
+  </si>
+  <si>
+    <t>Mean absolute error                      0.3281</t>
+  </si>
+  <si>
+    <t>Root mean squared error                  0.4305</t>
+  </si>
+  <si>
+    <t>Relative absolute error                 88.0934 %</t>
+  </si>
+  <si>
+    <t>Root relative squared error             99.8577 %</t>
+  </si>
+  <si>
+    <t>Coverage of cases (0.95 level)         100      %</t>
+  </si>
+  <si>
+    <t>Mean rel. region size (0.95 level)     100      %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Number of Instances              300     </t>
+  </si>
+  <si>
+    <t>=== Detailed Accuracy By Class ===</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 TP Rate  FP Rate  Precision  Recall   F-Measure  MCC      ROC Area  PRC Area  Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 0.996    0.973    0.758      0.996    0.860      0.098    0.532     0.778     &lt;=50K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 0.027    0.004    0.667      0.027    0.052      0.098    0.532     0.365     &gt;5&lt;=50KK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Avg.    0.757    0.734    0.735      0.757    0.661      0.098    0.532     0.677     </t>
+  </si>
+  <si>
+    <t>=== Confusion Matrix ===</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   a   b   &lt;-- classified as</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 225   1 |   a = &lt;=50K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  72   2 |   b = &gt;5&lt;=50KK</t>
   </si>
 </sst>
 </file>
@@ -7624,7 +8386,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7764,11 +8525,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="425698512"/>
-        <c:axId val="425695376"/>
+        <c:axId val="449984360"/>
+        <c:axId val="449983184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="425698512"/>
+        <c:axId val="449984360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7797,7 +8558,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7857,7 +8617,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425695376"/>
+        <c:crossAx val="449983184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7865,7 +8625,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="425695376"/>
+        <c:axId val="449983184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7908,7 +8668,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7963,7 +8722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425698512"/>
+        <c:crossAx val="449984360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8053,7 +8812,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8193,11 +8951,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="425698904"/>
-        <c:axId val="425699296"/>
+        <c:axId val="449983576"/>
+        <c:axId val="396950008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="425698904"/>
+        <c:axId val="449983576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8226,7 +8984,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8286,7 +9043,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425699296"/>
+        <c:crossAx val="396950008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8294,7 +9051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="425699296"/>
+        <c:axId val="396950008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8337,7 +9094,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8392,7 +9148,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425698904"/>
+        <c:crossAx val="449983576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8482,7 +9238,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8627,11 +9382,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="434979272"/>
-        <c:axId val="434990248"/>
+        <c:axId val="396953144"/>
+        <c:axId val="396953536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="434979272"/>
+        <c:axId val="396953144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8660,7 +9415,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8687,6 +9441,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8720,7 +9475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434990248"/>
+        <c:crossAx val="396953536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8728,7 +9483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="434990248"/>
+        <c:axId val="396953536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8771,7 +9526,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8826,7 +9580,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434979272"/>
+        <c:crossAx val="396953144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8916,7 +9670,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9014,11 +9767,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="426129640"/>
-        <c:axId val="426132384"/>
+        <c:axId val="396948440"/>
+        <c:axId val="396954320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="426129640"/>
+        <c:axId val="396948440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9047,7 +9800,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9107,7 +9859,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426132384"/>
+        <c:crossAx val="396954320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9115,7 +9867,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="426132384"/>
+        <c:axId val="396954320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9158,7 +9910,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9213,7 +9964,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426129640"/>
+        <c:crossAx val="396948440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9303,7 +10054,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9407,11 +10157,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="434983192"/>
-        <c:axId val="434988680"/>
+        <c:axId val="396954712"/>
+        <c:axId val="396957064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="434983192"/>
+        <c:axId val="396954712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9440,7 +10190,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9500,7 +10249,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434988680"/>
+        <c:crossAx val="396957064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9508,7 +10257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="434988680"/>
+        <c:axId val="396957064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9551,7 +10300,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9606,7 +10354,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434983192"/>
+        <c:crossAx val="396954712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9696,7 +10444,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9800,11 +10547,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="435001224"/>
-        <c:axId val="435002008"/>
+        <c:axId val="396948048"/>
+        <c:axId val="396945304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="435001224"/>
+        <c:axId val="396948048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9833,7 +10580,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9893,7 +10639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435002008"/>
+        <c:crossAx val="396945304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9901,7 +10647,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="435002008"/>
+        <c:axId val="396945304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9944,7 +10690,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9999,7 +10744,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435001224"/>
+        <c:crossAx val="396948048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -42264,10 +43009,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I93"/>
+  <dimension ref="A2:I338"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I93" sqref="I93"/>
+    <sheetView tabSelected="1" topLeftCell="A313" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A342" sqref="A342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42585,6 +43330,1146 @@
       <c r="I93">
         <f>100-28.94</f>
         <v>71.06</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B323" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B324" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B325" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B329" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B330" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B331" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B332" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B334" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B338" t="s">
+        <v>2581</v>
       </c>
     </row>
   </sheetData>
@@ -44261,15 +46146,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S31"/>
+  <dimension ref="B1:AA85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AA1" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2285</v>
       </c>
@@ -44277,7 +46167,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2286</v>
       </c>
@@ -44293,8 +46183,11 @@
       <c r="R3" t="s">
         <v>2325</v>
       </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="AA3" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2287</v>
       </c>
@@ -44314,7 +46207,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2288</v>
       </c>
@@ -44333,64 +46226,93 @@
       <c r="S5" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="AA5" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2289</v>
       </c>
       <c r="G6" t="s">
         <v>2289</v>
       </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="AA6" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2315</v>
       </c>
       <c r="G7" t="s">
         <v>2319</v>
       </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="AA7" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2290</v>
       </c>
       <c r="G8" t="s">
         <v>2301</v>
       </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="AA8" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AA9" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>2291</v>
       </c>
       <c r="G10" t="s">
         <v>2291</v>
       </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="AA10" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>2316</v>
       </c>
       <c r="G11" t="s">
         <v>2320</v>
       </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="AA11" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2292</v>
       </c>
       <c r="G12" t="s">
         <v>2302</v>
       </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="AA12" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>2293</v>
       </c>
       <c r="G14" t="s">
         <v>2293</v>
       </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="AA14" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>2317</v>
       </c>
@@ -44398,90 +46320,384 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>2294</v>
       </c>
       <c r="G16" t="s">
         <v>2303</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="AA16" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AA17" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>2295</v>
       </c>
       <c r="G18" t="s">
         <v>2295</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="AA18" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>2318</v>
       </c>
       <c r="G19" t="s">
         <v>2322</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="AA19" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>2296</v>
       </c>
       <c r="G20" t="s">
         <v>2304</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="AA20" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AA21" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AA22" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>2305</v>
       </c>
       <c r="G23" t="s">
         <v>2143</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="AA23" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>2306</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="AA24" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>2307</v>
       </c>
       <c r="G25" t="s">
         <v>2308</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="AA25" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G26" s="9" t="s">
         <v>2309</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="AA26" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>2310</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="AA27" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G28" s="8" t="s">
         <v>2311</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="AA28" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
         <v>2312</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="AA29" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G30" s="8" t="s">
         <v>2313</v>
       </c>
       <c r="I30" s="8">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="AA30" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G31" s="10" t="s">
         <v>2314</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AA32" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="33" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA33" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="34" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA34" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="35" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA35" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="36" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA36" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="37" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA37" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="38" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA38" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="39" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA39" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="40" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA40" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="41" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA41" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="42" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA42" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="43" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA43" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="44" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA44" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="45" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA45" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="46" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA46" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="47" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA47" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="48" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA48" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="49" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA49" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="50" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA50" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="51" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA51" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="52" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA52" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="53" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA53" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="54" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA54" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="55" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA55" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="56" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA56" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="57" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA57" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="58" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA58" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="59" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA59" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="60" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA60" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="61" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA61" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="62" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA62" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="63" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA63" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="64" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA64" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="65" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA65" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="66" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA66" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="67" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA67" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="68" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA68" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="69" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA69" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="72" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA72" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="74" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA74" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="76" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA76" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="78" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA78" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="80" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA80" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="81" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA81" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="82" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA82" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="83" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA83" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="84" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA84" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="85" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA85" t="s">
+        <v>2394</v>
       </c>
     </row>
   </sheetData>

--- a/ScoreCard.xlsx
+++ b/ScoreCard.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="465" windowWidth="27555" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="465" windowWidth="27555" windowHeight="12240" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Adult" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6635" uniqueCount="2582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6729" uniqueCount="2644">
   <si>
     <t>HL</t>
   </si>
@@ -8216,6 +8216,192 @@
   </si>
   <si>
     <t xml:space="preserve">  72   2 |   b = &gt;5&lt;=50KK</t>
+  </si>
+  <si>
+    <t>*** k-Means Clustering Comparisomn to Class***</t>
+  </si>
+  <si>
+    <t>Within cluster sum of squared errors: 3.736270536179237</t>
+  </si>
+  <si>
+    <t>Cluster 0: 0.607827,0.502402</t>
+  </si>
+  <si>
+    <t>Cluster 1: 0.616126,0.612134</t>
+  </si>
+  <si>
+    <t>Cluster 2: 0.749621,0.541897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                  Cluster#</t>
+  </si>
+  <si>
+    <t>Attribute                                                             Full Data          0          1          2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                        (150.0)     (49.0)     (51.0)     (50.0)</t>
+  </si>
+  <si>
+    <t>================================================================================================================</t>
+  </si>
+  <si>
+    <t>0.581petallength+0.566petalwidth+0.522sepallength-0.263sepalwidth         0.456     0.0899     0.5378     0.7314</t>
+  </si>
+  <si>
+    <t>-0.926sepalwidth-0.372sepallength-0.065petalwidth-0.021petallength        0.506     0.4417     0.6706     0.4011</t>
+  </si>
+  <si>
+    <t>0       49 ( 33%)</t>
+  </si>
+  <si>
+    <t>1       51 ( 34%)</t>
+  </si>
+  <si>
+    <t>2       50 ( 33%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0  1  2  &lt;-- assigned to cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49  1  0 | Iris-setosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0 38 12 | Iris-versicolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0 12 38 | Iris-virginica</t>
+  </si>
+  <si>
+    <t>Cluster 0 &lt;-- Iris-setosa</t>
+  </si>
+  <si>
+    <t>Cluster 1 &lt;-- Iris-versicolor</t>
+  </si>
+  <si>
+    <t>Cluster 2 &lt;-- Iris-virginica</t>
+  </si>
+  <si>
+    <t>*** EM Clustering Comparisomn to Class***</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>==</t>
+  </si>
+  <si>
+    <t>Number of clusters: 3</t>
+  </si>
+  <si>
+    <t>Number of iterations performed: 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                     Cluster</t>
+  </si>
+  <si>
+    <t>Attribute                                                                  0       1       2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                      (0.33)  (0.36)   (0.3)</t>
+  </si>
+  <si>
+    <t>=============================================================================================</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mean                                                                 0.0911  0.5515  0.7425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  std. dev.                                                            0.0327  0.0864  0.0988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mean                                                                 0.4517  0.6387  0.4069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  std. dev.                                                            0.1737  0.1342  0.1267</t>
+  </si>
+  <si>
+    <t>0       50 ( 33%)</t>
+  </si>
+  <si>
+    <t>1       56 ( 37%)</t>
+  </si>
+  <si>
+    <t>2       44 ( 29%)</t>
+  </si>
+  <si>
+    <t>Log likelihood: 0.89826</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50  0  0 | Iris-setosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0 42  8 | Iris-versicolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0 14 36 | Iris-virginica</t>
+  </si>
+  <si>
+    <t>PCA and then EM</t>
+  </si>
+  <si>
+    <t>PCA and then k Means</t>
+  </si>
+  <si>
+    <t>PCA and then k Means - Scree</t>
+  </si>
+  <si>
+    <t>PCA and then EM - Scree</t>
+  </si>
+  <si>
+    <t>Hidden Layers: 26, 24</t>
+  </si>
+  <si>
+    <t>Correctly Classified Instances         139               92.6667 %</t>
+  </si>
+  <si>
+    <t>Incorrectly Classified Instances        11                7.3333 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kappa statistic                          0.89  </t>
+  </si>
+  <si>
+    <t>Mean absolute error                      0.0767</t>
+  </si>
+  <si>
+    <t>Root mean squared error                  0.1922</t>
+  </si>
+  <si>
+    <t>Relative absolute error                 17.2561 %</t>
+  </si>
+  <si>
+    <t>Root relative squared error             40.7733 %</t>
+  </si>
+  <si>
+    <t>Coverage of cases (0.95 level)          99.3333 %</t>
+  </si>
+  <si>
+    <t>Mean rel. region size (0.95 level)      45.5556 %</t>
+  </si>
+  <si>
+    <t>Test correct = 139.0 (92.6667%)</t>
+  </si>
+  <si>
+    <t>Test incorrect = 11.0 (7.3333%)</t>
+  </si>
+  <si>
+    <t>PCA and then NN</t>
+  </si>
+  <si>
+    <t>@attribute 0.581petallength+0.566petalwidth+0.522sepallength-0.263sepalwidth numeric</t>
+  </si>
+  <si>
+    <t>@attribute -0.926sepalwidth-0.372sepallength-0.065petalwidth-0.021petallength numeric</t>
+  </si>
+  <si>
+    <t>@attribute class {Iris-setosa,Iris-versicolor,Iris-virginica}</t>
+  </si>
+  <si>
+    <t>PCA</t>
   </si>
 </sst>
 </file>
@@ -8525,11 +8711,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="449984360"/>
-        <c:axId val="449983184"/>
+        <c:axId val="382149584"/>
+        <c:axId val="382157816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="449984360"/>
+        <c:axId val="382149584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8617,7 +8803,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449983184"/>
+        <c:crossAx val="382157816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8625,7 +8811,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="449983184"/>
+        <c:axId val="382157816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8722,7 +8908,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449984360"/>
+        <c:crossAx val="382149584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8951,11 +9137,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="449983576"/>
-        <c:axId val="396950008"/>
+        <c:axId val="382158208"/>
+        <c:axId val="382149976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="449983576"/>
+        <c:axId val="382158208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9043,7 +9229,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396950008"/>
+        <c:crossAx val="382149976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9051,7 +9237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="396950008"/>
+        <c:axId val="382149976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9148,7 +9334,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449983576"/>
+        <c:crossAx val="382158208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9382,11 +9568,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="396953144"/>
-        <c:axId val="396953536"/>
+        <c:axId val="382157032"/>
+        <c:axId val="382158600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="396953144"/>
+        <c:axId val="382157032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9475,7 +9661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396953536"/>
+        <c:crossAx val="382158600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9483,7 +9669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="396953536"/>
+        <c:axId val="382158600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9580,7 +9766,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396953144"/>
+        <c:crossAx val="382157032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9767,11 +9953,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="396948440"/>
-        <c:axId val="396954320"/>
+        <c:axId val="382148408"/>
+        <c:axId val="382159776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="396948440"/>
+        <c:axId val="382148408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9859,7 +10045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396954320"/>
+        <c:crossAx val="382159776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9867,7 +10053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="396954320"/>
+        <c:axId val="382159776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9964,7 +10150,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396948440"/>
+        <c:crossAx val="382148408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10157,11 +10343,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="396954712"/>
-        <c:axId val="396957064"/>
+        <c:axId val="382160168"/>
+        <c:axId val="382148016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="396954712"/>
+        <c:axId val="382160168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10249,7 +10435,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396957064"/>
+        <c:crossAx val="382148016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10257,7 +10443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="396957064"/>
+        <c:axId val="382148016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10354,7 +10540,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396954712"/>
+        <c:crossAx val="382160168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10547,11 +10733,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="396948048"/>
-        <c:axId val="396945304"/>
+        <c:axId val="382163304"/>
+        <c:axId val="382160560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="396948048"/>
+        <c:axId val="382163304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10639,7 +10825,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396945304"/>
+        <c:crossAx val="382160560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10647,7 +10833,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="396945304"/>
+        <c:axId val="382160560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10744,7 +10930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396948048"/>
+        <c:crossAx val="382163304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10785,6 +10971,597 @@
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Iris!$AZ$4:$AZ$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16.5718</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3605999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9218000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6473</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2972999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9212</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8713</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8441000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7878000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="426816440"/>
+        <c:axId val="426819184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="426816440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426819184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="426819184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426816440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Iris!$BP$4:$BP$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.1573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93110000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0036</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1047</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1901999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2027000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2477</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2706999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3041</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3353999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3678999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3716999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4409000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3735999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.383</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5007999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4242999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5316000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5465</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5487</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5567</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="420872064"/>
+        <c:axId val="420870888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="420872064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420870888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="420870888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420872064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -10998,6 +11775,86 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14133,6 +14990,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -14302,6 +16191,71 @@
       <xdr:colOff>128587</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -43011,7 +44965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A313" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A342" sqref="A342"/>
     </sheetView>
   </sheetViews>
@@ -46146,20 +48100,38 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AA85"/>
+  <dimension ref="B1:CB85"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
+      <selection activeCell="CB7" sqref="CB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:80" x14ac:dyDescent="0.25">
       <c r="AA1" t="s">
         <v>2328</v>
       </c>
-    </row>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AL1" t="s">
+        <v>2624</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>2625</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>2626</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>2639</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="2" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2285</v>
       </c>
@@ -46167,7 +48139,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2286</v>
       </c>
@@ -46186,8 +48158,23 @@
       <c r="AA3" t="s">
         <v>2329</v>
       </c>
-    </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AZ3" t="s">
+        <v>2283</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>2603</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>2284</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>1716</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="4" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2287</v>
       </c>
@@ -46206,8 +48193,26 @@
       <c r="S4" t="s">
         <v>2326</v>
       </c>
-    </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AL4" t="s">
+        <v>2582</v>
+      </c>
+      <c r="AY4">
+        <v>1</v>
+      </c>
+      <c r="AZ4">
+        <v>16.5718</v>
+      </c>
+      <c r="BP4">
+        <v>0.1573</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>10</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="5" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2288</v>
       </c>
@@ -46229,8 +48234,26 @@
       <c r="AA5" t="s">
         <v>2330</v>
       </c>
-    </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AY5">
+        <v>2</v>
+      </c>
+      <c r="AZ5">
+        <v>6.3605999999999998</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>2604</v>
+      </c>
+      <c r="BP5">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>11</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="6" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2289</v>
       </c>
@@ -46240,8 +48263,26 @@
       <c r="AA6" t="s">
         <v>2331</v>
       </c>
-    </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AL6" t="s">
+        <v>2118</v>
+      </c>
+      <c r="AY6">
+        <v>3</v>
+      </c>
+      <c r="AZ6">
+        <v>3.7363</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>2605</v>
+      </c>
+      <c r="BP6">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2315</v>
       </c>
@@ -46251,8 +48292,23 @@
       <c r="AA7" t="s">
         <v>2332</v>
       </c>
-    </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AL7" t="s">
+        <v>2119</v>
+      </c>
+      <c r="AY7">
+        <v>4</v>
+      </c>
+      <c r="AZ7">
+        <v>2.9218000000000002</v>
+      </c>
+      <c r="BP7">
+        <v>0.93110000000000004</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2290</v>
       </c>
@@ -46262,13 +48318,46 @@
       <c r="AA8" t="s">
         <v>2333</v>
       </c>
-    </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AY8">
+        <v>5</v>
+      </c>
+      <c r="AZ8">
+        <v>2.6473</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>2606</v>
+      </c>
+      <c r="BP8">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:80" x14ac:dyDescent="0.25">
       <c r="AA9" t="s">
         <v>2334</v>
       </c>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AL9" t="s">
+        <v>2120</v>
+      </c>
+      <c r="AY9">
+        <v>6</v>
+      </c>
+      <c r="AZ9">
+        <v>2.4055</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>2607</v>
+      </c>
+      <c r="BP9">
+        <v>1.0036</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>2291</v>
       </c>
@@ -46278,8 +48367,23 @@
       <c r="AA10" t="s">
         <v>2335</v>
       </c>
-    </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AL10" t="s">
+        <v>2583</v>
+      </c>
+      <c r="AY10">
+        <v>7</v>
+      </c>
+      <c r="AZ10">
+        <v>2.2972999999999999</v>
+      </c>
+      <c r="BP10">
+        <v>1.05</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="11" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>2316</v>
       </c>
@@ -46289,8 +48393,20 @@
       <c r="AA11" t="s">
         <v>2336</v>
       </c>
-    </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AY11">
+        <v>8</v>
+      </c>
+      <c r="AZ11">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="BP11">
+        <v>1.1047</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2292</v>
       </c>
@@ -46300,8 +48416,40 @@
       <c r="AA12" t="s">
         <v>2337</v>
       </c>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AL12" t="s">
+        <v>2122</v>
+      </c>
+      <c r="AY12">
+        <v>9</v>
+      </c>
+      <c r="AZ12">
+        <v>1.9212</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>2608</v>
+      </c>
+      <c r="BP12">
+        <v>1.1901999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="AY13">
+        <v>10</v>
+      </c>
+      <c r="AZ13">
+        <v>1.8713</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>2609</v>
+      </c>
+      <c r="BP13">
+        <v>1.2027000000000001</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>2293</v>
       </c>
@@ -46311,16 +48459,49 @@
       <c r="AA14" t="s">
         <v>2338</v>
       </c>
-    </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AL14" t="s">
+        <v>2584</v>
+      </c>
+      <c r="AY14">
+        <v>11</v>
+      </c>
+      <c r="AZ14">
+        <v>1.8441000000000001</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>2610</v>
+      </c>
+      <c r="BP14">
+        <v>1.2477</v>
+      </c>
+    </row>
+    <row r="15" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>2317</v>
       </c>
       <c r="G15" t="s">
         <v>2321</v>
       </c>
-    </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AL15" t="s">
+        <v>2585</v>
+      </c>
+      <c r="AY15">
+        <v>12</v>
+      </c>
+      <c r="AZ15">
+        <v>1.7878000000000001</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>2611</v>
+      </c>
+      <c r="BP15">
+        <v>1.2706999999999999</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="16" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>2294</v>
       </c>
@@ -46330,13 +48511,46 @@
       <c r="AA16" t="s">
         <v>2339</v>
       </c>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AL16" t="s">
+        <v>2586</v>
+      </c>
+      <c r="AY16">
+        <v>13</v>
+      </c>
+      <c r="AZ16">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>2326</v>
+      </c>
+      <c r="BP16">
+        <v>1.3041</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="17" spans="2:73" x14ac:dyDescent="0.25">
       <c r="AA17" t="s">
         <v>2340</v>
       </c>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AY17">
+        <v>14</v>
+      </c>
+      <c r="AZ17">
+        <v>0.70020000000000004</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>2612</v>
+      </c>
+      <c r="BP17">
+        <v>1.3353999999999999</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="18" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>2295</v>
       </c>
@@ -46346,8 +48560,26 @@
       <c r="AA18" t="s">
         <v>2341</v>
       </c>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AL18" t="s">
+        <v>2125</v>
+      </c>
+      <c r="AY18">
+        <v>15</v>
+      </c>
+      <c r="AZ18">
+        <v>0.67649999999999999</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>2613</v>
+      </c>
+      <c r="BP18">
+        <v>1.3678999999999999</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="19" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>2318</v>
       </c>
@@ -46357,8 +48589,20 @@
       <c r="AA19" t="s">
         <v>2342</v>
       </c>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AY19">
+        <v>16</v>
+      </c>
+      <c r="AZ19">
+        <v>0.60129999999999995</v>
+      </c>
+      <c r="BP19">
+        <v>1.3716999999999999</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="20" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>2296</v>
       </c>
@@ -46368,18 +48612,72 @@
       <c r="AA20" t="s">
         <v>2343</v>
       </c>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AL20" t="s">
+        <v>2126</v>
+      </c>
+      <c r="AY20">
+        <v>17</v>
+      </c>
+      <c r="AZ20">
+        <v>0.59240000000000004</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>2327</v>
+      </c>
+      <c r="BP20">
+        <v>1.4409000000000001</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="21" spans="2:73" x14ac:dyDescent="0.25">
       <c r="AA21" t="s">
         <v>2344</v>
       </c>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AL21" t="s">
+        <v>2587</v>
+      </c>
+      <c r="AY21">
+        <v>18</v>
+      </c>
+      <c r="AZ21">
+        <v>0.54359999999999997</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>2614</v>
+      </c>
+      <c r="BP21">
+        <v>1.3735999999999999</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="22" spans="2:73" x14ac:dyDescent="0.25">
       <c r="AA22" t="s">
         <v>2345</v>
       </c>
-    </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AL22" t="s">
+        <v>2588</v>
+      </c>
+      <c r="AY22">
+        <v>19</v>
+      </c>
+      <c r="AZ22">
+        <v>0.53390000000000004</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>2615</v>
+      </c>
+      <c r="BP22">
+        <v>1.383</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="23" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>2305</v>
       </c>
@@ -46389,16 +48687,49 @@
       <c r="AA23" t="s">
         <v>2346</v>
       </c>
-    </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AL23" t="s">
+        <v>2589</v>
+      </c>
+      <c r="AY23">
+        <v>20</v>
+      </c>
+      <c r="AZ23">
+        <v>0.53180000000000005</v>
+      </c>
+      <c r="BP23">
+        <v>1.5007999999999999</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="24" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>2306</v>
       </c>
       <c r="AA24" t="s">
         <v>2347</v>
       </c>
-    </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AL24" t="s">
+        <v>2590</v>
+      </c>
+      <c r="AY24">
+        <v>21</v>
+      </c>
+      <c r="AZ24">
+        <v>0.52310000000000001</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>2143</v>
+      </c>
+      <c r="BP24">
+        <v>1.4242999999999999</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="25" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>2307</v>
       </c>
@@ -46408,40 +48739,100 @@
       <c r="AA25" t="s">
         <v>2348</v>
       </c>
-    </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AL25" t="s">
+        <v>2591</v>
+      </c>
+      <c r="AY25">
+        <v>22</v>
+      </c>
+      <c r="AZ25">
+        <v>0.5111</v>
+      </c>
+      <c r="BP25">
+        <v>1.5316000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:73" x14ac:dyDescent="0.25">
       <c r="G26" s="9" t="s">
         <v>2309</v>
       </c>
       <c r="AA26" t="s">
         <v>2349</v>
       </c>
-    </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AL26" t="s">
+        <v>2592</v>
+      </c>
+      <c r="AY26">
+        <v>23</v>
+      </c>
+      <c r="AZ26">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>2616</v>
+      </c>
+      <c r="BP26">
+        <v>1.5465</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="27" spans="2:73" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>2310</v>
       </c>
       <c r="AA27" t="s">
         <v>2350</v>
       </c>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AY27">
+        <v>24</v>
+      </c>
+      <c r="AZ27">
+        <v>0.4476</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>2617</v>
+      </c>
+      <c r="BP27">
+        <v>1.5487</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="28" spans="2:73" x14ac:dyDescent="0.25">
       <c r="G28" s="8" t="s">
         <v>2311</v>
       </c>
       <c r="AA28" t="s">
         <v>2340</v>
       </c>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AY28">
+        <v>25</v>
+      </c>
+      <c r="AZ28">
+        <v>0.43969999999999998</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>2618</v>
+      </c>
+      <c r="BP28">
+        <v>1.5567</v>
+      </c>
+    </row>
+    <row r="29" spans="2:73" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
         <v>2312</v>
       </c>
       <c r="AA29" t="s">
         <v>2351</v>
       </c>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AL29" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="30" spans="2:73" x14ac:dyDescent="0.25">
       <c r="G30" s="8" t="s">
         <v>2313</v>
       </c>
@@ -46452,97 +48843,181 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:73" x14ac:dyDescent="0.25">
       <c r="G31" s="10" t="s">
         <v>2314</v>
       </c>
       <c r="AA31" t="s">
         <v>2353</v>
       </c>
-    </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AL31" t="s">
+        <v>2593</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="32" spans="2:73" x14ac:dyDescent="0.25">
       <c r="AA32" t="s">
         <v>2354</v>
       </c>
-    </row>
-    <row r="33" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AL32" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="33" spans="27:59" x14ac:dyDescent="0.25">
       <c r="AA33" t="s">
         <v>2340</v>
       </c>
-    </row>
-    <row r="34" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AL33" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="34" spans="27:59" x14ac:dyDescent="0.25">
       <c r="AA34" t="s">
         <v>2355</v>
       </c>
-    </row>
-    <row r="35" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="BE34" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="35" spans="27:59" x14ac:dyDescent="0.25">
       <c r="AA35" t="s">
         <v>2356</v>
       </c>
-    </row>
-    <row r="36" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="BE35" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="36" spans="27:59" x14ac:dyDescent="0.25">
       <c r="AA36" t="s">
         <v>2357</v>
       </c>
-    </row>
-    <row r="37" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AL36" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="37" spans="27:59" x14ac:dyDescent="0.25">
       <c r="AA37" t="s">
         <v>2358</v>
       </c>
-    </row>
-    <row r="38" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AL37" t="s">
+        <v>2147</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="38" spans="27:59" x14ac:dyDescent="0.25">
       <c r="AA38" t="s">
         <v>2340</v>
       </c>
-    </row>
-    <row r="39" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="BE38" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="39" spans="27:59" x14ac:dyDescent="0.25">
       <c r="AA39" t="s">
         <v>2359</v>
       </c>
-    </row>
-    <row r="40" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AL39" t="s">
+        <v>2596</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="40" spans="27:59" x14ac:dyDescent="0.25">
       <c r="AA40" t="s">
         <v>2360</v>
       </c>
-    </row>
-    <row r="41" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AL40" t="s">
+        <v>2597</v>
+      </c>
+      <c r="BE40" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="41" spans="27:59" x14ac:dyDescent="0.25">
       <c r="AA41" t="s">
         <v>2361</v>
       </c>
-    </row>
-    <row r="42" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AL41" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="42" spans="27:59" x14ac:dyDescent="0.25">
       <c r="AA42" t="s">
         <v>2362</v>
       </c>
-    </row>
-    <row r="43" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AL42" t="s">
+        <v>2599</v>
+      </c>
+      <c r="BE42" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="43" spans="27:59" x14ac:dyDescent="0.25">
       <c r="AA43" t="s">
         <v>2340</v>
       </c>
-    </row>
-    <row r="44" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="BE43" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="44" spans="27:59" x14ac:dyDescent="0.25">
       <c r="AA44" t="s">
         <v>2363</v>
       </c>
-    </row>
-    <row r="45" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AL44" t="s">
+        <v>2600</v>
+      </c>
+      <c r="BE44" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="45" spans="27:59" x14ac:dyDescent="0.25">
       <c r="AA45" t="s">
         <v>2364</v>
       </c>
-    </row>
-    <row r="46" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AL45" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="46" spans="27:59" x14ac:dyDescent="0.25">
       <c r="AA46" t="s">
         <v>2365</v>
       </c>
-    </row>
-    <row r="47" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AL46" t="s">
+        <v>2602</v>
+      </c>
+      <c r="BE46" t="s">
+        <v>2153</v>
+      </c>
+      <c r="BF46">
+        <v>22</v>
+      </c>
+      <c r="BG46" s="4">
+        <v>0.14666699999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="27:59" x14ac:dyDescent="0.25">
       <c r="AA47" t="s">
         <v>2366</v>
       </c>
     </row>
-    <row r="48" spans="27:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="27:59" x14ac:dyDescent="0.25">
       <c r="AA48" t="s">
         <v>2340</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>2153</v>
+      </c>
+      <c r="AM48">
+        <v>25</v>
+      </c>
+      <c r="AN48" s="4">
+        <v>0.16666700000000001</v>
       </c>
     </row>
     <row r="49" spans="27:27" x14ac:dyDescent="0.25">
@@ -46702,5 +49177,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ScoreCard.xlsx
+++ b/ScoreCard.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="465" windowWidth="27555" windowHeight="12240" activeTab="5"/>
+    <workbookView xWindow="720" yWindow="465" windowWidth="27555" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Adult" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6729" uniqueCount="2644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6828" uniqueCount="2700">
   <si>
     <t>HL</t>
   </si>
@@ -8402,6 +8402,174 @@
   </si>
   <si>
     <t>PCA</t>
+  </si>
+  <si>
+    <t>ICA and then k-Means -  Scree</t>
+  </si>
+  <si>
+    <t>Number of iterations: 6</t>
+  </si>
+  <si>
+    <t>Within cluster sum of squared errors: 3.5758853091744536</t>
+  </si>
+  <si>
+    <t>Cluster 0: 0.724014,0.575386</t>
+  </si>
+  <si>
+    <t>Cluster 1: 0.796142,0.668244</t>
+  </si>
+  <si>
+    <t>Cluster 2: 0.861192,0.584237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         Cluster#</t>
+  </si>
+  <si>
+    <t>Attribute    Full Data          0          1          2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               (150.0)     (50.0)     (33.0)     (67.0)</t>
+  </si>
+  <si>
+    <t>=======================================================</t>
+  </si>
+  <si>
+    <t>A                0.501     0.0881     0.8276     0.6482</t>
+  </si>
+  <si>
+    <t>B               0.5157     0.5287     0.6811     0.4245</t>
+  </si>
+  <si>
+    <t>1       33 ( 22%)</t>
+  </si>
+  <si>
+    <t>2       67 ( 45%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0 31 19 | Iris-virginica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0  2 48 | Iris-versicolor</t>
+  </si>
+  <si>
+    <t>Cluster 1 &lt;-- Iris-virginica</t>
+  </si>
+  <si>
+    <t>Cluster 2 &lt;-- Iris-versicolor</t>
+  </si>
+  <si>
+    <t>ICA and then k-Means</t>
+  </si>
+  <si>
+    <t>ICA and then EM -  Scree</t>
+  </si>
+  <si>
+    <t>Number of iterations performed: 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Cluster</t>
+  </si>
+  <si>
+    <t>Attribute         0       1       2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             (0.54)  (0.33)  (0.13)</t>
+  </si>
+  <si>
+    <t>====================================</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mean        0.6717  0.0881  0.8615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  std. dev.   0.1263  0.0338  0.0455</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mean        0.4622  0.5287   0.712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  std. dev.   0.1514  0.1118  0.1389</t>
+  </si>
+  <si>
+    <t>0       80 ( 53%)</t>
+  </si>
+  <si>
+    <t>2       20 ( 13%)</t>
+  </si>
+  <si>
+    <t>Log likelihood: 0.93826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0 50  0 | Iris-setosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30  0 20 | Iris-virginica</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50  0  0 | Iris-versicolor</t>
+  </si>
+  <si>
+    <t>Cluster 0 &lt;-- Iris-versicolor</t>
+  </si>
+  <si>
+    <t>Cluster 1 &lt;-- Iris-setosa</t>
+  </si>
+  <si>
+    <t>ICA and then EM</t>
+  </si>
+  <si>
+    <t>65 Attributes!!!</t>
+  </si>
+  <si>
+    <t>Time taken to build model (full training data) : 1.61 seconds</t>
+  </si>
+  <si>
+    <t>=== Model and evaluation on training set ===</t>
+  </si>
+  <si>
+    <t>0      18297 ( 56%)</t>
+  </si>
+  <si>
+    <t>1      14264 ( 44%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16963  7757 |  &lt;=50K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1334  6507 |  &gt;50K</t>
+  </si>
+  <si>
+    <t>PCA the k-Means</t>
+  </si>
+  <si>
+    <t>PCA then k-Means -- Scree</t>
+  </si>
+  <si>
+    <t>PCA then EM</t>
+  </si>
+  <si>
+    <t>PCA then EM - Scree</t>
+  </si>
+  <si>
+    <t>0       4062 ( 12%)</t>
+  </si>
+  <si>
+    <t>1      28499 ( 88%)</t>
+  </si>
+  <si>
+    <t>Log likelihood: 146.55828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3199 21521 |  &lt;=50K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   863  6978 |  &gt;50K</t>
   </si>
 </sst>
 </file>
@@ -8506,7 +8674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8518,6 +8686,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8536,6 +8705,1419 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Adult Notes'!$L$316:$L$325</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9093.9868999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7855.6387999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7508.5177000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7037.9041999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6839.0300999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6633.1593999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6116.9466000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5870.6518999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5795.0801000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5625.7906000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="441159416"/>
+        <c:axId val="441159808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="441159416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441159808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441159808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441159416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Iris!$BP$4:$BP$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.1573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93110000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0036</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1047</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1901999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2027000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2477</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2706999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3041</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3353999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3678999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3716999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4409000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3735999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.383</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5007999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4242999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5316000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5465</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5487</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5567</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="394001016"/>
+        <c:axId val="394004936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="394001016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394004936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="394004936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394001016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Iris!$CL$4:$CL$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>18.5382</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5758999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0388000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6966000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5819000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4320999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3832</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2934000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2369000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1460999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="441939256"/>
+        <c:axId val="441942392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="441939256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441942392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441942392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441939256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Iris!$CY$4:$CY$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.1585</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85850000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0186999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0701000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0847</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1233</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1513</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1547000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2282999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2632000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2475000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="441150008"/>
+        <c:axId val="441144520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="441150008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441144520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441144520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441150008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Adult Notes'!$X$316:$X$327</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>108.98439999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146.5583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154.02940000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>154.2747</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>156.52070000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>158.38669999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>159.3852</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>159.88679999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>161.53319999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>161.3047</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>161.6559</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>163.00839999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="444759704"/>
+        <c:axId val="444753824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="444759704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444753824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="444753824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444759704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8711,11 +10293,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="382149584"/>
-        <c:axId val="382157816"/>
+        <c:axId val="395874648"/>
+        <c:axId val="395878960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="382149584"/>
+        <c:axId val="395874648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8803,7 +10385,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382157816"/>
+        <c:crossAx val="395878960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8811,7 +10393,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="382157816"/>
+        <c:axId val="395878960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8908,7 +10490,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382149584"/>
+        <c:crossAx val="395874648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8961,7 +10543,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9137,11 +10719,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="382158208"/>
-        <c:axId val="382149976"/>
+        <c:axId val="395877784"/>
+        <c:axId val="395878568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="382158208"/>
+        <c:axId val="395877784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9229,7 +10811,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382149976"/>
+        <c:crossAx val="395878568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9237,7 +10819,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="382149976"/>
+        <c:axId val="395878568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9334,7 +10916,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382158208"/>
+        <c:crossAx val="395877784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9387,7 +10969,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9568,11 +11150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="382157032"/>
-        <c:axId val="382158600"/>
+        <c:axId val="395875824"/>
+        <c:axId val="395876216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="382157032"/>
+        <c:axId val="395875824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9661,7 +11243,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382158600"/>
+        <c:crossAx val="395876216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9669,7 +11251,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="382158600"/>
+        <c:axId val="395876216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9766,781 +11348,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382157032"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Log Likelihood</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Adult Scree'!$M$33:$M$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-7.1593999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.1356000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.8996999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.4018999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8651</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4519</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2.4299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2423999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.3957000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.4674</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="382148408"/>
-        <c:axId val="382159776"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="382148408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Clusters</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="382159776"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="382159776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Log Likelihood</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="382148408"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Iris Data</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Iris Scree'!$B$5:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>41.138199999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.143700000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.9981</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5416999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9999000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.8376000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.6759000000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.1836000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.0998000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.5867</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.3296000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.2149000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="382160168"/>
-        <c:axId val="382148016"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="382160168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Clusters (k)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="382148016"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="382148016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Within Group Sum of Squares</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="382160168"/>
+        <c:crossAx val="395875824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10679,45 +11487,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Iris Scree'!$M$5:$M$16</c:f>
+              <c:f>'Adult Scree'!$M$33:$M$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-0.1288</c:v>
+                  <c:v>-7.1593999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2250999999999999</c:v>
+                  <c:v>-3.1356000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7517999999999998</c:v>
+                  <c:v>-1.8996999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0339999999999998</c:v>
+                  <c:v>-2.4018999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1987999999999999</c:v>
+                  <c:v>3.8651</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.363</c:v>
+                  <c:v>1.4519</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4906000000000001</c:v>
+                  <c:v>-2.4299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5653999999999999</c:v>
+                  <c:v>1.2423999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6619999999999999</c:v>
+                  <c:v>2.3957000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.7704</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.7850999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.8466</c:v>
+                  <c:v>1.4674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10733,11 +11535,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="382163304"/>
-        <c:axId val="382160560"/>
+        <c:axId val="395877392"/>
+        <c:axId val="395877000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="382163304"/>
+        <c:axId val="395877392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10761,7 +11563,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number of Ckusters (k)</a:t>
+                  <a:t>Number of Clusters</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -10825,7 +11627,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382160560"/>
+        <c:crossAx val="395877000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10833,7 +11635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="382160560"/>
+        <c:axId val="395877000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10930,7 +11732,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382163304"/>
+        <c:crossAx val="395877392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10998,7 +11800,792 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Iris Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iris Scree'!$B$5:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>41.138199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.143700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5416999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9999000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8376000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6759000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1836000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0998000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5867</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3296000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2149000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="393999056"/>
+        <c:axId val="394008856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="393999056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Clusters (k)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394008856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="394008856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Within Group Sum of Squares</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="393999056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Log Likelihood</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iris Scree'!$M$5:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-0.1288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2250999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7517999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0339999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1987999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.363</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4906000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5653999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7850999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="394002584"/>
+        <c:axId val="394007288"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="394002584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Ckusters (k)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394007288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="394007288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Log Likelihood</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394002584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11105,11 +12692,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="426816440"/>
-        <c:axId val="426819184"/>
+        <c:axId val="393997096"/>
+        <c:axId val="394009248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="426816440"/>
+        <c:axId val="393997096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11151,7 +12738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426819184"/>
+        <c:crossAx val="394009248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11159,7 +12746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="426819184"/>
+        <c:axId val="394009248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11210,322 +12797,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426816440"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Iris!$BP$4:$BP$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>0.1573</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.76100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.89829999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.93110000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.99770000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0036</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.05</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1047</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1901999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.2027000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.2477</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2706999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.3041</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3353999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.3678999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.3716999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.4409000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.3735999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.383</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.5007999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.4242999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.5316000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.5465</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.5487</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.5567</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="420872064"/>
-        <c:axId val="420870888"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="420872064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="420870888"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="420870888"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="420872064"/>
+        <c:crossAx val="393997096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11575,6 +12847,126 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11894,7 +13286,1595 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16022,7 +19002,588 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16147,7 +19708,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16212,7 +19773,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16269,6 +19830,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -44963,10 +48584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I338"/>
+  <dimension ref="A2:AE340"/>
   <sheetViews>
-    <sheetView topLeftCell="A313" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A342" sqref="A342"/>
+    <sheetView tabSelected="1" topLeftCell="H312" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE334" sqref="AE334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46306,128 +49927,554 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
         <v>2560</v>
       </c>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
         <v>2561</v>
       </c>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
         <v>2386</v>
       </c>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
         <v>2562</v>
       </c>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="L313" t="s">
+        <v>2692</v>
+      </c>
+      <c r="Q313" t="s">
+        <v>2691</v>
+      </c>
+      <c r="X313" t="s">
+        <v>2694</v>
+      </c>
+      <c r="AC313" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="314" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
         <v>2388</v>
       </c>
-    </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="Q314" s="8" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="315" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="L315" t="s">
+        <v>2283</v>
+      </c>
+      <c r="Q315" t="s">
+        <v>2685</v>
+      </c>
+      <c r="X315" t="s">
+        <v>2284</v>
+      </c>
+      <c r="AC315" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="316" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
         <v>2563</v>
       </c>
-    </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="K316">
+        <v>1</v>
+      </c>
+      <c r="L316">
+        <v>9093.9868999999999</v>
+      </c>
+      <c r="W316">
+        <v>1</v>
+      </c>
+      <c r="X316">
+        <v>108.98439999999999</v>
+      </c>
+    </row>
+    <row r="317" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
         <v>2564</v>
       </c>
-    </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="K317">
+        <v>2</v>
+      </c>
+      <c r="L317">
+        <v>7855.6387999999997</v>
+      </c>
+      <c r="Q317" t="s">
+        <v>2686</v>
+      </c>
+      <c r="W317">
+        <v>2</v>
+      </c>
+      <c r="X317">
+        <v>146.5583</v>
+      </c>
+      <c r="AC317" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="318" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
         <v>2565</v>
       </c>
-    </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="K318">
+        <v>3</v>
+      </c>
+      <c r="L318">
+        <v>7508.5177000000003</v>
+      </c>
+      <c r="W318">
+        <v>3</v>
+      </c>
+      <c r="X318">
+        <v>154.02940000000001</v>
+      </c>
+      <c r="AC318" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="319" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
         <v>2566</v>
       </c>
-    </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="K319">
+        <v>4</v>
+      </c>
+      <c r="L319">
+        <v>7037.9041999999999</v>
+      </c>
+      <c r="Q319" t="s">
+        <v>2143</v>
+      </c>
+      <c r="W319">
+        <v>4</v>
+      </c>
+      <c r="X319">
+        <v>154.2747</v>
+      </c>
+    </row>
+    <row r="320" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
         <v>2567</v>
       </c>
-    </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="K320">
+        <v>5</v>
+      </c>
+      <c r="L320">
+        <v>6839.0300999999999</v>
+      </c>
+      <c r="W320">
+        <v>5</v>
+      </c>
+      <c r="X320">
+        <v>156.52070000000001</v>
+      </c>
+    </row>
+    <row r="321" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
         <v>2568</v>
       </c>
-    </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="K321">
+        <v>6</v>
+      </c>
+      <c r="L321">
+        <v>6633.1593999999996</v>
+      </c>
+      <c r="Q321" t="s">
+        <v>2687</v>
+      </c>
+      <c r="W321">
+        <v>6</v>
+      </c>
+      <c r="X321">
+        <v>158.38669999999999</v>
+      </c>
+      <c r="AC321" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="322" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
         <v>2569</v>
       </c>
-    </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="K322">
+        <v>7</v>
+      </c>
+      <c r="L322">
+        <v>6116.9466000000002</v>
+      </c>
+      <c r="Q322" t="s">
+        <v>2688</v>
+      </c>
+      <c r="W322">
+        <v>7</v>
+      </c>
+      <c r="X322">
+        <v>159.3852</v>
+      </c>
+    </row>
+    <row r="323" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
         <v>2570</v>
       </c>
-    </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="K323">
+        <v>8</v>
+      </c>
+      <c r="L323">
+        <v>5870.6518999999998</v>
+      </c>
+      <c r="W323">
+        <v>8</v>
+      </c>
+      <c r="X323">
+        <v>159.88679999999999</v>
+      </c>
+    </row>
+    <row r="324" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
         <v>2571</v>
       </c>
-    </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="K324">
+        <v>9</v>
+      </c>
+      <c r="L324">
+        <v>5795.0801000000001</v>
+      </c>
+      <c r="W324">
+        <v>9</v>
+      </c>
+      <c r="X324">
+        <v>161.53319999999999</v>
+      </c>
+      <c r="AC324" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="325" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
         <v>2572</v>
       </c>
-    </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="K325">
+        <v>10</v>
+      </c>
+      <c r="L325">
+        <v>5625.7906000000003</v>
+      </c>
+      <c r="Q325" t="s">
+        <v>2146</v>
+      </c>
+      <c r="W325">
+        <v>10</v>
+      </c>
+      <c r="X325">
+        <v>161.3047</v>
+      </c>
+      <c r="AC325" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="326" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="K326">
+        <v>11</v>
+      </c>
+      <c r="L326">
+        <v>5463.7667000000001</v>
+      </c>
+      <c r="Q326" t="s">
+        <v>2147</v>
+      </c>
+      <c r="W326">
+        <v>11</v>
+      </c>
+      <c r="X326">
+        <v>161.6559</v>
+      </c>
+    </row>
+    <row r="327" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
         <v>2573</v>
       </c>
-    </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="K327">
+        <v>12</v>
+      </c>
+      <c r="L327">
+        <v>5403.4107999999997</v>
+      </c>
+      <c r="W327">
+        <v>12</v>
+      </c>
+      <c r="X327">
+        <v>163.00839999999999</v>
+      </c>
+      <c r="AC327" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="328" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="K328">
+        <v>13</v>
+      </c>
+      <c r="L328">
+        <v>5282.4480000000003</v>
+      </c>
+      <c r="Q328" t="s">
+        <v>2148</v>
+      </c>
+      <c r="W328">
+        <v>13</v>
+      </c>
+      <c r="X328">
+        <v>163.47989999999999</v>
+      </c>
+      <c r="AC328" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="329" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
         <v>2574</v>
       </c>
-    </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="K329">
+        <v>14</v>
+      </c>
+      <c r="L329">
+        <v>5196.3635000000004</v>
+      </c>
+      <c r="Q329" t="s">
+        <v>2689</v>
+      </c>
+      <c r="W329">
+        <v>14</v>
+      </c>
+      <c r="X329">
+        <v>163.43960000000001</v>
+      </c>
+      <c r="AC329" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="330" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
         <v>2575</v>
       </c>
-    </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="K330">
+        <v>15</v>
+      </c>
+      <c r="L330">
+        <v>4984.4377999999997</v>
+      </c>
+      <c r="Q330" t="s">
+        <v>2690</v>
+      </c>
+      <c r="W330">
+        <v>15</v>
+      </c>
+      <c r="X330">
+        <v>164.55019999999999</v>
+      </c>
+    </row>
+    <row r="331" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
         <v>2576</v>
       </c>
-    </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="K331">
+        <v>16</v>
+      </c>
+      <c r="L331">
+        <v>4927.9933000000001</v>
+      </c>
+      <c r="W331">
+        <v>16</v>
+      </c>
+      <c r="X331">
+        <v>165.7132</v>
+      </c>
+      <c r="AC331" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="332" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
         <v>2577</v>
       </c>
-    </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="K332">
+        <v>17</v>
+      </c>
+      <c r="L332">
+        <v>4932.9686000000002</v>
+      </c>
+      <c r="Q332" t="s">
+        <v>2151</v>
+      </c>
+      <c r="W332">
+        <v>17</v>
+      </c>
+      <c r="X332">
+        <v>169.17679999999999</v>
+      </c>
+      <c r="AC332" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="333" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="K333">
+        <v>18</v>
+      </c>
+      <c r="L333">
+        <v>4819.7210999999998</v>
+      </c>
+      <c r="Q333" t="s">
+        <v>2152</v>
+      </c>
+      <c r="S333" s="4"/>
+      <c r="W333">
+        <v>18</v>
+      </c>
+      <c r="X333">
+        <v>169.34119999999999</v>
+      </c>
+    </row>
+    <row r="334" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
         <v>2578</v>
       </c>
-    </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="K334">
+        <v>19</v>
+      </c>
+      <c r="L334">
+        <v>4788.3963999999996</v>
+      </c>
+      <c r="W334">
+        <v>19</v>
+      </c>
+      <c r="X334">
+        <v>168.48650000000001</v>
+      </c>
+      <c r="AC334" t="s">
+        <v>2153</v>
+      </c>
+      <c r="AD334">
+        <v>10177</v>
+      </c>
+      <c r="AE334" s="4">
+        <v>0.312552</v>
+      </c>
+    </row>
+    <row r="335" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="K335">
+        <v>20</v>
+      </c>
+      <c r="L335">
+        <v>4721.1331</v>
+      </c>
+      <c r="Q335" t="s">
+        <v>2153</v>
+      </c>
+      <c r="R335">
+        <v>9091</v>
+      </c>
+      <c r="S335" s="4">
+        <v>0.27919899999999997</v>
+      </c>
+      <c r="W335">
+        <v>20</v>
+      </c>
+      <c r="X335">
+        <v>168.51179999999999</v>
+      </c>
+    </row>
+    <row r="336" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
         <v>2579</v>
       </c>
-    </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="K336">
+        <v>21</v>
+      </c>
+      <c r="L336">
+        <v>4636.299</v>
+      </c>
+      <c r="W336">
+        <v>21</v>
+      </c>
+      <c r="X336">
+        <v>170.58260000000001</v>
+      </c>
+    </row>
+    <row r="337" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
         <v>2580</v>
       </c>
-    </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="K337">
+        <v>22</v>
+      </c>
+      <c r="L337">
+        <v>4632.1374999999998</v>
+      </c>
+      <c r="W337">
+        <v>22</v>
+      </c>
+      <c r="X337">
+        <v>171.52250000000001</v>
+      </c>
+    </row>
+    <row r="338" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
         <v>2581</v>
       </c>
+      <c r="K338">
+        <v>23</v>
+      </c>
+      <c r="L338">
+        <v>4615.0815000000002</v>
+      </c>
+      <c r="W338">
+        <v>23</v>
+      </c>
+      <c r="X338">
+        <v>170.12639999999999</v>
+      </c>
+    </row>
+    <row r="339" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="K339">
+        <v>24</v>
+      </c>
+      <c r="L339">
+        <v>4591.1589999999997</v>
+      </c>
+      <c r="W339">
+        <v>24</v>
+      </c>
+      <c r="X339">
+        <v>171.8133</v>
+      </c>
+    </row>
+    <row r="340" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="K340">
+        <v>25</v>
+      </c>
+      <c r="L340">
+        <v>4534.3584000000001</v>
+      </c>
+      <c r="W340">
+        <v>25</v>
+      </c>
+      <c r="X340">
+        <v>171.65029999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -47728,7 +51775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
@@ -48100,15 +52147,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:CB85"/>
+  <dimension ref="B1:DF85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
-      <selection activeCell="CB7" sqref="CB7"/>
+    <sheetView topLeftCell="CQ1" workbookViewId="0">
+      <selection activeCell="DD1" sqref="DD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:80" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:108" x14ac:dyDescent="0.25">
       <c r="AA1" t="s">
         <v>2328</v>
       </c>
@@ -48130,8 +52177,20 @@
       <c r="CB1" t="s">
         <v>2643</v>
       </c>
-    </row>
-    <row r="2" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="CL1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>2662</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="2" spans="2:108" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2285</v>
       </c>
@@ -48139,7 +52198,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="3" spans="2:80" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:108" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2286</v>
       </c>
@@ -48173,8 +52232,20 @@
       <c r="CB3" t="s">
         <v>2640</v>
       </c>
-    </row>
-    <row r="4" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="CL3" t="s">
+        <v>2283</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>2582</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>2284</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="4" spans="2:108" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2287</v>
       </c>
@@ -48211,8 +52282,20 @@
       <c r="CB4" t="s">
         <v>2641</v>
       </c>
-    </row>
-    <row r="5" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="CK4">
+        <v>1</v>
+      </c>
+      <c r="CL4">
+        <v>18.5382</v>
+      </c>
+      <c r="CX4">
+        <v>1</v>
+      </c>
+      <c r="CY4">
+        <v>0.1585</v>
+      </c>
+    </row>
+    <row r="5" spans="2:108" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2288</v>
       </c>
@@ -48252,8 +52335,26 @@
       <c r="CB5" t="s">
         <v>2642</v>
       </c>
-    </row>
-    <row r="6" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="CK5">
+        <v>2</v>
+      </c>
+      <c r="CL5">
+        <v>5.7423999999999999</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>2118</v>
+      </c>
+      <c r="CX5">
+        <v>2</v>
+      </c>
+      <c r="CY5">
+        <v>0.85850000000000004</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="6" spans="2:108" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2289</v>
       </c>
@@ -48281,8 +52382,26 @@
       <c r="BU6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="CK6">
+        <v>3</v>
+      </c>
+      <c r="CL6">
+        <v>3.5758999999999999</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>2119</v>
+      </c>
+      <c r="CX6">
+        <v>3</v>
+      </c>
+      <c r="CY6">
+        <v>0.93830000000000002</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="7" spans="2:108" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2315</v>
       </c>
@@ -48307,8 +52426,20 @@
       <c r="BU7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="CK7">
+        <v>4</v>
+      </c>
+      <c r="CL7">
+        <v>2.3571</v>
+      </c>
+      <c r="CX7">
+        <v>4</v>
+      </c>
+      <c r="CY7">
+        <v>1.0186999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:108" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2290</v>
       </c>
@@ -48333,8 +52464,26 @@
       <c r="BU8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="CK8">
+        <v>5</v>
+      </c>
+      <c r="CL8">
+        <v>2.0388000000000002</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>2645</v>
+      </c>
+      <c r="CX8">
+        <v>5</v>
+      </c>
+      <c r="CY8">
+        <v>1.0701000000000001</v>
+      </c>
+      <c r="DD8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="9" spans="2:108" x14ac:dyDescent="0.25">
       <c r="AA9" t="s">
         <v>2334</v>
       </c>
@@ -48356,8 +52505,26 @@
       <c r="BU9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="CK9">
+        <v>6</v>
+      </c>
+      <c r="CL9">
+        <v>1.6966000000000001</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>2646</v>
+      </c>
+      <c r="CX9">
+        <v>6</v>
+      </c>
+      <c r="CY9">
+        <v>1.0847</v>
+      </c>
+      <c r="DD9" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="10" spans="2:108" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>2291</v>
       </c>
@@ -48382,8 +52549,20 @@
       <c r="BU10" t="s">
         <v>2627</v>
       </c>
-    </row>
-    <row r="11" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="CK10">
+        <v>7</v>
+      </c>
+      <c r="CL10">
+        <v>1.5819000000000001</v>
+      </c>
+      <c r="CX10">
+        <v>7</v>
+      </c>
+      <c r="CY10">
+        <v>1.1233</v>
+      </c>
+    </row>
+    <row r="11" spans="2:108" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>2316</v>
       </c>
@@ -48405,8 +52584,23 @@
       <c r="BU11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="CK11">
+        <v>8</v>
+      </c>
+      <c r="CL11">
+        <v>1.4320999999999999</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>2122</v>
+      </c>
+      <c r="CX11">
+        <v>8</v>
+      </c>
+      <c r="CY11">
+        <v>1.1513</v>
+      </c>
+    </row>
+    <row r="12" spans="2:108" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2292</v>
       </c>
@@ -48431,8 +52625,23 @@
       <c r="BP12">
         <v>1.1901999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="CK12">
+        <v>9</v>
+      </c>
+      <c r="CL12">
+        <v>1.3832</v>
+      </c>
+      <c r="CX12">
+        <v>9</v>
+      </c>
+      <c r="CY12">
+        <v>1.1547000000000001</v>
+      </c>
+      <c r="DD12" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="13" spans="2:108" x14ac:dyDescent="0.25">
       <c r="AY13">
         <v>10</v>
       </c>
@@ -48448,8 +52657,26 @@
       <c r="BU13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="CK13">
+        <v>10</v>
+      </c>
+      <c r="CL13">
+        <v>1.2934000000000001</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>2647</v>
+      </c>
+      <c r="CX13">
+        <v>10</v>
+      </c>
+      <c r="CY13">
+        <v>1.2282999999999999</v>
+      </c>
+      <c r="DD13" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="14" spans="2:108" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>2293</v>
       </c>
@@ -48474,8 +52701,26 @@
       <c r="BP14">
         <v>1.2477</v>
       </c>
-    </row>
-    <row r="15" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="CK14">
+        <v>11</v>
+      </c>
+      <c r="CL14">
+        <v>1.2369000000000001</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>2648</v>
+      </c>
+      <c r="CX14">
+        <v>11</v>
+      </c>
+      <c r="CY14">
+        <v>1.2632000000000001</v>
+      </c>
+      <c r="DD14" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="15" spans="2:108" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>2317</v>
       </c>
@@ -48500,8 +52745,26 @@
       <c r="BU15" t="s">
         <v>2628</v>
       </c>
-    </row>
-    <row r="16" spans="2:80" x14ac:dyDescent="0.25">
+      <c r="CK15">
+        <v>12</v>
+      </c>
+      <c r="CL15">
+        <v>1.1460999999999999</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>2649</v>
+      </c>
+      <c r="CX15">
+        <v>12</v>
+      </c>
+      <c r="CY15">
+        <v>1.2475000000000001</v>
+      </c>
+      <c r="DD15" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="16" spans="2:108" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>2294</v>
       </c>
@@ -48529,8 +52792,23 @@
       <c r="BU16" t="s">
         <v>2629</v>
       </c>
-    </row>
-    <row r="17" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="CK16">
+        <v>13</v>
+      </c>
+      <c r="CL16">
+        <v>0.78349999999999997</v>
+      </c>
+      <c r="CX16">
+        <v>13</v>
+      </c>
+      <c r="CY16">
+        <v>1.2564</v>
+      </c>
+      <c r="DD16" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="17" spans="2:108" x14ac:dyDescent="0.25">
       <c r="AA17" t="s">
         <v>2340</v>
       </c>
@@ -48549,8 +52827,26 @@
       <c r="BU17" t="s">
         <v>2630</v>
       </c>
-    </row>
-    <row r="18" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="CK17">
+        <v>14</v>
+      </c>
+      <c r="CL17">
+        <v>0.67549999999999999</v>
+      </c>
+      <c r="CQ17" t="s">
+        <v>2125</v>
+      </c>
+      <c r="CX17">
+        <v>14</v>
+      </c>
+      <c r="CY17">
+        <v>1.3042</v>
+      </c>
+      <c r="DD17" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="18" spans="2:108" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>2295</v>
       </c>
@@ -48578,8 +52874,23 @@
       <c r="BU18" t="s">
         <v>2631</v>
       </c>
-    </row>
-    <row r="19" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="CK18">
+        <v>15</v>
+      </c>
+      <c r="CL18">
+        <v>0.66349999999999998</v>
+      </c>
+      <c r="CX18">
+        <v>15</v>
+      </c>
+      <c r="CY18">
+        <v>1.2965</v>
+      </c>
+      <c r="DD18" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="19" spans="2:108" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>2318</v>
       </c>
@@ -48601,8 +52912,23 @@
       <c r="BU19" t="s">
         <v>2632</v>
       </c>
-    </row>
-    <row r="20" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="CK19">
+        <v>16</v>
+      </c>
+      <c r="CL19">
+        <v>0.57430000000000003</v>
+      </c>
+      <c r="CQ19" t="s">
+        <v>2126</v>
+      </c>
+      <c r="CX19">
+        <v>16</v>
+      </c>
+      <c r="CY19">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:108" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>2296</v>
       </c>
@@ -48630,8 +52956,26 @@
       <c r="BU20" t="s">
         <v>2633</v>
       </c>
-    </row>
-    <row r="21" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="CK20">
+        <v>17</v>
+      </c>
+      <c r="CL20">
+        <v>0.55830000000000002</v>
+      </c>
+      <c r="CQ20" t="s">
+        <v>2650</v>
+      </c>
+      <c r="CX20">
+        <v>17</v>
+      </c>
+      <c r="CY20">
+        <v>1.2984</v>
+      </c>
+      <c r="DD20" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="21" spans="2:108" x14ac:dyDescent="0.25">
       <c r="AA21" t="s">
         <v>2344</v>
       </c>
@@ -48653,8 +52997,26 @@
       <c r="BU21" t="s">
         <v>2634</v>
       </c>
-    </row>
-    <row r="22" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="CK21">
+        <v>18</v>
+      </c>
+      <c r="CL21">
+        <v>0.54959999999999998</v>
+      </c>
+      <c r="CQ21" t="s">
+        <v>2651</v>
+      </c>
+      <c r="CX21">
+        <v>18</v>
+      </c>
+      <c r="CY21">
+        <v>1.3803000000000001</v>
+      </c>
+      <c r="DD21" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="22" spans="2:108" x14ac:dyDescent="0.25">
       <c r="AA22" t="s">
         <v>2345</v>
       </c>
@@ -48676,8 +53038,26 @@
       <c r="BU22" t="s">
         <v>2635</v>
       </c>
-    </row>
-    <row r="23" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="CK22">
+        <v>19</v>
+      </c>
+      <c r="CL22">
+        <v>0.51480000000000004</v>
+      </c>
+      <c r="CQ22" t="s">
+        <v>2652</v>
+      </c>
+      <c r="CX22">
+        <v>19</v>
+      </c>
+      <c r="CY22">
+        <v>1.3382000000000001</v>
+      </c>
+      <c r="DD22" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="23" spans="2:108" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>2305</v>
       </c>
@@ -48702,8 +53082,23 @@
       <c r="BU23" t="s">
         <v>2636</v>
       </c>
-    </row>
-    <row r="24" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="CK23">
+        <v>20</v>
+      </c>
+      <c r="CL23">
+        <v>0.50509999999999999</v>
+      </c>
+      <c r="CQ23" t="s">
+        <v>2653</v>
+      </c>
+      <c r="CX23">
+        <v>20</v>
+      </c>
+      <c r="CY23">
+        <v>1.4256</v>
+      </c>
+    </row>
+    <row r="24" spans="2:108" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>2306</v>
       </c>
@@ -48728,8 +53123,26 @@
       <c r="BU24" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="25" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="CK24">
+        <v>21</v>
+      </c>
+      <c r="CL24">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="CQ24" t="s">
+        <v>2654</v>
+      </c>
+      <c r="CX24">
+        <v>21</v>
+      </c>
+      <c r="CY24">
+        <v>1.55</v>
+      </c>
+      <c r="DD24" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="25" spans="2:108" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>2307</v>
       </c>
@@ -48751,8 +53164,23 @@
       <c r="BP25">
         <v>1.5316000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="CK25">
+        <v>22</v>
+      </c>
+      <c r="CL25">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="CQ25" t="s">
+        <v>2655</v>
+      </c>
+      <c r="CX25">
+        <v>22</v>
+      </c>
+      <c r="CY25">
+        <v>1.5986</v>
+      </c>
+    </row>
+    <row r="26" spans="2:108" x14ac:dyDescent="0.25">
       <c r="G26" s="9" t="s">
         <v>2309</v>
       </c>
@@ -48777,8 +53205,23 @@
       <c r="BU26" t="s">
         <v>2637</v>
       </c>
-    </row>
-    <row r="27" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="CK26">
+        <v>23</v>
+      </c>
+      <c r="CL26">
+        <v>0.437</v>
+      </c>
+      <c r="CX26">
+        <v>23</v>
+      </c>
+      <c r="CY26">
+        <v>1.4621</v>
+      </c>
+      <c r="DD26" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="27" spans="2:108" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>2310</v>
       </c>
@@ -48800,8 +53243,23 @@
       <c r="BU27" t="s">
         <v>2638</v>
       </c>
-    </row>
-    <row r="28" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="CK27">
+        <v>24</v>
+      </c>
+      <c r="CL27">
+        <v>0.37709999999999999</v>
+      </c>
+      <c r="CX27">
+        <v>24</v>
+      </c>
+      <c r="CY27">
+        <v>1.5287999999999999</v>
+      </c>
+      <c r="DD27" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="28" spans="2:108" x14ac:dyDescent="0.25">
       <c r="G28" s="8" t="s">
         <v>2311</v>
       </c>
@@ -48820,8 +53278,26 @@
       <c r="BP28">
         <v>1.5567</v>
       </c>
-    </row>
-    <row r="29" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="CK28">
+        <v>25</v>
+      </c>
+      <c r="CL28">
+        <v>0.36530000000000001</v>
+      </c>
+      <c r="CQ28" t="s">
+        <v>2143</v>
+      </c>
+      <c r="CX28">
+        <v>25</v>
+      </c>
+      <c r="CY28">
+        <v>1.4852000000000001</v>
+      </c>
+      <c r="DD28" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="29" spans="2:108" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
         <v>2312</v>
       </c>
@@ -48832,7 +53308,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="30" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:108" x14ac:dyDescent="0.25">
       <c r="G30" s="8" t="s">
         <v>2313</v>
       </c>
@@ -48842,8 +53318,11 @@
       <c r="AA30" t="s">
         <v>2352</v>
       </c>
-    </row>
-    <row r="31" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="CQ30" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="31" spans="2:108" x14ac:dyDescent="0.25">
       <c r="G31" s="10" t="s">
         <v>2314</v>
       </c>
@@ -48856,16 +53335,25 @@
       <c r="BE31" t="s">
         <v>2619</v>
       </c>
-    </row>
-    <row r="32" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="CQ31" t="s">
+        <v>2656</v>
+      </c>
+      <c r="DD31" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="32" spans="2:108" x14ac:dyDescent="0.25">
       <c r="AA32" t="s">
         <v>2354</v>
       </c>
       <c r="AL32" t="s">
         <v>2594</v>
       </c>
-    </row>
-    <row r="33" spans="27:59" x14ac:dyDescent="0.25">
+      <c r="CQ32" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="33" spans="27:110" x14ac:dyDescent="0.25">
       <c r="AA33" t="s">
         <v>2340</v>
       </c>
@@ -48873,31 +53361,43 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="34" spans="27:59" x14ac:dyDescent="0.25">
+    <row r="34" spans="27:110" x14ac:dyDescent="0.25">
       <c r="AA34" t="s">
         <v>2355</v>
       </c>
       <c r="BE34" t="s">
         <v>2146</v>
       </c>
-    </row>
-    <row r="35" spans="27:59" x14ac:dyDescent="0.25">
+      <c r="DD34" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="35" spans="27:110" x14ac:dyDescent="0.25">
       <c r="AA35" t="s">
         <v>2356</v>
       </c>
       <c r="BE35" t="s">
         <v>2147</v>
       </c>
-    </row>
-    <row r="36" spans="27:59" x14ac:dyDescent="0.25">
+      <c r="CQ35" t="s">
+        <v>2146</v>
+      </c>
+      <c r="DD35" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="36" spans="27:110" x14ac:dyDescent="0.25">
       <c r="AA36" t="s">
         <v>2357</v>
       </c>
       <c r="AL36" t="s">
         <v>2146</v>
       </c>
-    </row>
-    <row r="37" spans="27:59" x14ac:dyDescent="0.25">
+      <c r="CQ36" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="37" spans="27:110" x14ac:dyDescent="0.25">
       <c r="AA37" t="s">
         <v>2358</v>
       </c>
@@ -48907,16 +53407,25 @@
       <c r="BE37" t="s">
         <v>2596</v>
       </c>
-    </row>
-    <row r="38" spans="27:59" x14ac:dyDescent="0.25">
+      <c r="DD37" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="38" spans="27:110" x14ac:dyDescent="0.25">
       <c r="AA38" t="s">
         <v>2340</v>
       </c>
       <c r="BE38" t="s">
         <v>2620</v>
       </c>
-    </row>
-    <row r="39" spans="27:59" x14ac:dyDescent="0.25">
+      <c r="CQ38" t="s">
+        <v>2596</v>
+      </c>
+      <c r="DD38" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="39" spans="27:110" x14ac:dyDescent="0.25">
       <c r="AA39" t="s">
         <v>2359</v>
       </c>
@@ -48926,8 +53435,14 @@
       <c r="BE39" t="s">
         <v>2621</v>
       </c>
-    </row>
-    <row r="40" spans="27:59" x14ac:dyDescent="0.25">
+      <c r="CQ39" t="s">
+        <v>2620</v>
+      </c>
+      <c r="DD39" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="40" spans="27:110" x14ac:dyDescent="0.25">
       <c r="AA40" t="s">
         <v>2360</v>
       </c>
@@ -48937,16 +53452,25 @@
       <c r="BE40" t="s">
         <v>2622</v>
       </c>
-    </row>
-    <row r="41" spans="27:59" x14ac:dyDescent="0.25">
+      <c r="CQ40" t="s">
+        <v>2658</v>
+      </c>
+      <c r="DD40" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="41" spans="27:110" x14ac:dyDescent="0.25">
       <c r="AA41" t="s">
         <v>2361</v>
       </c>
       <c r="AL41" t="s">
         <v>2598</v>
       </c>
-    </row>
-    <row r="42" spans="27:59" x14ac:dyDescent="0.25">
+      <c r="CQ41" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="42" spans="27:110" x14ac:dyDescent="0.25">
       <c r="AA42" t="s">
         <v>2362</v>
       </c>
@@ -48956,16 +53480,25 @@
       <c r="BE42" t="s">
         <v>2600</v>
       </c>
-    </row>
-    <row r="43" spans="27:59" x14ac:dyDescent="0.25">
+      <c r="DD42" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="43" spans="27:110" x14ac:dyDescent="0.25">
       <c r="AA43" t="s">
         <v>2340</v>
       </c>
       <c r="BE43" t="s">
         <v>2601</v>
       </c>
-    </row>
-    <row r="44" spans="27:59" x14ac:dyDescent="0.25">
+      <c r="CQ43" t="s">
+        <v>2600</v>
+      </c>
+      <c r="DD43" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="44" spans="27:110" x14ac:dyDescent="0.25">
       <c r="AA44" t="s">
         <v>2363</v>
       </c>
@@ -48975,16 +53508,25 @@
       <c r="BE44" t="s">
         <v>2602</v>
       </c>
-    </row>
-    <row r="45" spans="27:59" x14ac:dyDescent="0.25">
+      <c r="CQ44" t="s">
+        <v>2660</v>
+      </c>
+      <c r="DD44" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="45" spans="27:110" x14ac:dyDescent="0.25">
       <c r="AA45" t="s">
         <v>2364</v>
       </c>
       <c r="AL45" t="s">
         <v>2601</v>
       </c>
-    </row>
-    <row r="46" spans="27:59" x14ac:dyDescent="0.25">
+      <c r="CQ45" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="46" spans="27:110" x14ac:dyDescent="0.25">
       <c r="AA46" t="s">
         <v>2365</v>
       </c>
@@ -49000,13 +53542,31 @@
       <c r="BG46" s="4">
         <v>0.14666699999999999</v>
       </c>
-    </row>
-    <row r="47" spans="27:59" x14ac:dyDescent="0.25">
+      <c r="DD46" t="s">
+        <v>2153</v>
+      </c>
+      <c r="DE46">
+        <v>30</v>
+      </c>
+      <c r="DF46" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="27:110" x14ac:dyDescent="0.25">
       <c r="AA47" t="s">
         <v>2366</v>
       </c>
-    </row>
-    <row r="48" spans="27:59" x14ac:dyDescent="0.25">
+      <c r="CQ47" t="s">
+        <v>2153</v>
+      </c>
+      <c r="CR47">
+        <v>21</v>
+      </c>
+      <c r="CS47" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="27:110" x14ac:dyDescent="0.25">
       <c r="AA48" t="s">
         <v>2340</v>
       </c>

--- a/ScoreCard.xlsx
+++ b/ScoreCard.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6828" uniqueCount="2700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7055" uniqueCount="2831">
   <si>
     <t>HL</t>
   </si>
@@ -8570,6 +8570,399 @@
   </si>
   <si>
     <t xml:space="preserve">   863  6978 |  &gt;50K</t>
+  </si>
+  <si>
+    <t>Number of iterations: 9</t>
+  </si>
+  <si>
+    <t>Within cluster sum of squared errors: 1.676362014029432</t>
+  </si>
+  <si>
+    <t>Cluster 0: 0.187959,0.319886</t>
+  </si>
+  <si>
+    <t>Cluster 1: 0.05583,0.278349</t>
+  </si>
+  <si>
+    <t>Cluster 2: 0.074872,0.213642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               (150.0)     (50.0)     (46.0)     (54.0)</t>
+  </si>
+  <si>
+    <t>K1              0.3986     0.7596     0.3015      0.147</t>
+  </si>
+  <si>
+    <t>K2              0.5242     0.8868     0.4751     0.2303</t>
+  </si>
+  <si>
+    <t>1       46 ( 31%)</t>
+  </si>
+  <si>
+    <t>2       54 ( 36%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0 46  4 | Iris-versicolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0  0 50 | Iris-virginica</t>
+  </si>
+  <si>
+    <t>Random Projections then k-Means</t>
+  </si>
+  <si>
+    <t>Random Projections then k-Means - Scree</t>
+  </si>
+  <si>
+    <t>Random Projections then EM - Scree</t>
+  </si>
+  <si>
+    <t>Number of iterations performed: 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             (0.31)  (0.33)  (0.36)</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mean        0.2999  0.7596  0.1483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  std. dev.    0.063   0.091  0.0721</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mean        0.4723  0.8868  0.2326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  std. dev.   0.0866  0.0455  0.0897</t>
+  </si>
+  <si>
+    <t>0       46 ( 31%)</t>
+  </si>
+  <si>
+    <t>Log likelihood: 1.37787</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 46  0  4 | Iris-versicolor</t>
+  </si>
+  <si>
+    <t>Random Projections then EM</t>
+  </si>
+  <si>
+    <t>Correctly Classified Instances         146               97.3333 %</t>
+  </si>
+  <si>
+    <t>Incorrectly Classified Instances         4                2.6667 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kappa statistic                          0.96  </t>
+  </si>
+  <si>
+    <t>Mean absolute error                      0.0402</t>
+  </si>
+  <si>
+    <t>Root mean squared error                  0.1365</t>
+  </si>
+  <si>
+    <t>Relative absolute error                  9.0459 %</t>
+  </si>
+  <si>
+    <t>Root relative squared error             28.962  %</t>
+  </si>
+  <si>
+    <t>Coverage of cases (0.95 level)          98.6667 %</t>
+  </si>
+  <si>
+    <t>Mean rel. region size (0.95 level)      38.4444 %</t>
+  </si>
+  <si>
+    <t>Test correct = 146.0 (97.3333%)</t>
+  </si>
+  <si>
+    <t>Test incorrect = 4.0 (2.6667%)</t>
+  </si>
+  <si>
+    <t>Random Projections then ANN</t>
+  </si>
+  <si>
+    <t>Time taken to build model: 67.55 seconds</t>
+  </si>
+  <si>
+    <t>=== Stratified cross-validation ===</t>
+  </si>
+  <si>
+    <t>Correctly Classified Instances       25467               78.2132 %</t>
+  </si>
+  <si>
+    <t>Incorrectly Classified Instances      7094               21.7868 %</t>
+  </si>
+  <si>
+    <t>Kappa statistic                          0.3534</t>
+  </si>
+  <si>
+    <t>Mean absolute error                      0.2812</t>
+  </si>
+  <si>
+    <t>Root mean squared error                  0.3802</t>
+  </si>
+  <si>
+    <t>Relative absolute error                 76.9029 %</t>
+  </si>
+  <si>
+    <t>Root relative squared error             88.9228 %</t>
+  </si>
+  <si>
+    <t>Coverage of cases (0.95 level)          98.747  %</t>
+  </si>
+  <si>
+    <t>Mean rel. region size (0.95 level)      86.5023 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 0.893    0.567    0.832      0.893    0.862      0.358    0.798     0.914      &lt;=50K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 0.433    0.107    0.562      0.433    0.489      0.358    0.798     0.529      &gt;50K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Avg.    0.782    0.456    0.767      0.782    0.772      0.358    0.798     0.822     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     a     b   &lt;-- classified as</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22074  2646 |     a =  &lt;=50K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4448  3393 |     b =  &gt;50K</t>
+  </si>
+  <si>
+    <t>Random Projection then ANN</t>
+  </si>
+  <si>
+    <t>k=4</t>
+  </si>
+  <si>
+    <t>nodes=20</t>
+  </si>
+  <si>
+    <t>k=10</t>
+  </si>
+  <si>
+    <t>Time taken to build model: 120.45 seconds</t>
+  </si>
+  <si>
+    <t>Correctly Classified Instances       26434               81.183  %</t>
+  </si>
+  <si>
+    <t>Incorrectly Classified Instances      6127               18.817  %</t>
+  </si>
+  <si>
+    <t>Kappa statistic                          0.4561</t>
+  </si>
+  <si>
+    <t>Mean absolute error                      0.2464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Root mean squared error                  0.36  </t>
+  </si>
+  <si>
+    <t>Relative absolute error                 67.3885 %</t>
+  </si>
+  <si>
+    <t>Root relative squared error             84.1986 %</t>
+  </si>
+  <si>
+    <t>Coverage of cases (0.95 level)          98.7378 %</t>
+  </si>
+  <si>
+    <t>Mean rel. region size (0.95 level)      82.456  %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 0.901    0.469    0.858      0.901    0.879      0.459    0.843     0.940      &lt;=50K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 0.531    0.099    0.630      0.531    0.576      0.459    0.843     0.627      &gt;50K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Avg.    0.812    0.380    0.803      0.812    0.806      0.459    0.843     0.865     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22274  2446 |     a =  &lt;=50K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3681  4160 |     b =  &gt;50K</t>
+  </si>
+  <si>
+    <t>Time taken to build model: 147.55 seconds</t>
+  </si>
+  <si>
+    <t>Correctly Classified Instances       26446               81.2199 %</t>
+  </si>
+  <si>
+    <t>Incorrectly Classified Instances      6115               18.7801 %</t>
+  </si>
+  <si>
+    <t>Kappa statistic                          0.4601</t>
+  </si>
+  <si>
+    <t>Mean absolute error                      0.2446</t>
+  </si>
+  <si>
+    <t>Root mean squared error                  0.3595</t>
+  </si>
+  <si>
+    <t>Relative absolute error                 66.8863 %</t>
+  </si>
+  <si>
+    <t>Root relative squared error             84.0902 %</t>
+  </si>
+  <si>
+    <t>Coverage of cases (0.95 level)          98.6794 %</t>
+  </si>
+  <si>
+    <t>Mean rel. region size (0.95 level)      81.874  %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 0.899    0.461    0.860      0.899    0.879      0.462    0.844     0.940      &lt;=50K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 0.539    0.101    0.628      0.539    0.580      0.462    0.844     0.632      &gt;50K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Avg.    0.812    0.374    0.804      0.812    0.807      0.462    0.844     0.866     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22221  2499 |     a =  &lt;=50K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3616  4225 |     b =  &gt;50K</t>
+  </si>
+  <si>
+    <t>nodes=26</t>
+  </si>
+  <si>
+    <t>Random Projection then k-Means -- Scree</t>
+  </si>
+  <si>
+    <t>Number of iterations: 17</t>
+  </si>
+  <si>
+    <t>Within cluster sum of squared errors: 1519.6831480220098</t>
+  </si>
+  <si>
+    <t>Cluster 0: 0.399464,0.579775,0.304126,0.462135</t>
+  </si>
+  <si>
+    <t>Cluster 1: 0.825986,0.80946,0.406966,0.750142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       Cluster#</t>
+  </si>
+  <si>
+    <t>Attribute   Full Data         0         1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            (32561.0) (15888.0) (16673.0)</t>
+  </si>
+  <si>
+    <t>=========================================</t>
+  </si>
+  <si>
+    <t>K1             0.5267     0.442    0.6075</t>
+  </si>
+  <si>
+    <t>K2              0.558    0.4423    0.6683</t>
+  </si>
+  <si>
+    <t>K3              0.524    0.5406    0.5082</t>
+  </si>
+  <si>
+    <t>K4             0.5461    0.5295    0.5619</t>
+  </si>
+  <si>
+    <t>0      15888 ( 49%)</t>
+  </si>
+  <si>
+    <t>1      16673 ( 51%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9499 15221 |  &lt;=50K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6389  1452 |  &gt;50K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Projection then k-Means </t>
+  </si>
+  <si>
+    <t>Random Projection then EM -- Scree</t>
+  </si>
+  <si>
+    <t>Random Projection then EM</t>
+  </si>
+  <si>
+    <t>Number of clusters: 2</t>
+  </si>
+  <si>
+    <t>Number of iterations performed: 19</t>
+  </si>
+  <si>
+    <t>Attribute         0       1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             (0.53)  (0.47)</t>
+  </si>
+  <si>
+    <t>============================</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mean        0.5816  0.4647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  std. dev.   0.1333  0.1261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mean          0.67  0.4316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  std. dev.   0.0816  0.0921</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mean        0.5198  0.5287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  std. dev.   0.1325    0.11</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mean        0.5553  0.5357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  std. dev.     0.11  0.0837</t>
+  </si>
+  <si>
+    <t>0      17261 ( 53%)</t>
+  </si>
+  <si>
+    <t>1      15300 ( 47%)</t>
+  </si>
+  <si>
+    <t>Log likelihood: 2.7367</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15933  8787 |  &lt;=50K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1328  6513 |  &gt;50K</t>
   </si>
 </sst>
 </file>
@@ -8820,11 +9213,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="441159416"/>
-        <c:axId val="441159808"/>
+        <c:axId val="406698272"/>
+        <c:axId val="406699056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="441159416"/>
+        <c:axId val="406698272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8866,7 +9259,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441159808"/>
+        <c:crossAx val="406699056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8874,7 +9267,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="441159808"/>
+        <c:axId val="406699056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8925,7 +9318,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441159416"/>
+        <c:crossAx val="406698272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8975,6 +9368,672 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Log Likelihood</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iris Scree'!$M$5:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-0.1288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2250999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7517999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0339999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1987999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.363</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4906000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5653999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7850999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="406162688"/>
+        <c:axId val="406156024"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="406162688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Ckusters (k)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406156024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="406156024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Log Likelihood</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406162688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Iris!$AZ$4:$AZ$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16.5718</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3605999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9218000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6473</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2972999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9212</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8713</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8441000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7878000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="406166608"/>
+        <c:axId val="406167000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="406166608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406167000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="406167000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406166608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9135,11 +10194,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="394001016"/>
-        <c:axId val="394004936"/>
+        <c:axId val="406166216"/>
+        <c:axId val="406164648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="394001016"/>
+        <c:axId val="406166216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9181,7 +10240,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394004936"/>
+        <c:crossAx val="406164648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9189,7 +10248,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="394004936"/>
+        <c:axId val="406164648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9240,7 +10299,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394001016"/>
+        <c:crossAx val="406166216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9289,7 +10348,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9411,11 +10470,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="441939256"/>
-        <c:axId val="441942392"/>
+        <c:axId val="406158768"/>
+        <c:axId val="406159552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="441939256"/>
+        <c:axId val="406158768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9457,7 +10516,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441942392"/>
+        <c:crossAx val="406159552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9465,7 +10524,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="441942392"/>
+        <c:axId val="406159552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9516,7 +10575,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441939256"/>
+        <c:crossAx val="406158768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9565,7 +10624,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9687,11 +10746,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="441150008"/>
-        <c:axId val="441144520"/>
+        <c:axId val="406164256"/>
+        <c:axId val="406159944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="441150008"/>
+        <c:axId val="406164256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9733,7 +10792,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441144520"/>
+        <c:crossAx val="406159944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9741,7 +10800,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="441144520"/>
+        <c:axId val="406159944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9792,7 +10851,559 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441150008"/>
+        <c:crossAx val="406164256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Iris!$DJ$4:$DJ$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>23.3947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7581000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6763999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3634999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1407</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97350000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82540000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78649999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="459596336"/>
+        <c:axId val="459596728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="459596336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459596728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="459596728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459596336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Iris!$DV$4:$DV$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-0.2858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1497999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3778999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4380999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4538</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4785999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5226999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5246999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6226</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6746000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="459590456"/>
+        <c:axId val="459590848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="459590456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459590848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="459590848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459590456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9963,11 +11574,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="444759704"/>
-        <c:axId val="444753824"/>
+        <c:axId val="406690040"/>
+        <c:axId val="406690432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="444759704"/>
+        <c:axId val="406690040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10009,7 +11620,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444753824"/>
+        <c:crossAx val="406690432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10017,7 +11628,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444753824"/>
+        <c:axId val="406690432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10068,7 +11679,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444759704"/>
+        <c:crossAx val="406690040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10118,6 +11729,558 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Adult Notes'!$BL$317:$BL$328</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2174.8717000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1519.6831</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1274.6787999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1139.1764000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1025.7145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>954.31700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>879.28520000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>827.87210000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>786.45219999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>758.97209999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>722.76580000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>688.92449999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="458703096"/>
+        <c:axId val="458705056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="458703096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458705056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="458705056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458703096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Adult Notes'!$BX$317:$BX$328</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.6006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7366999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7847</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8151000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8328000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9093</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9445999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9428999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9512999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9632000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="406155632"/>
+        <c:axId val="458703488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="406155632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458703488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="458703488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406155632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10293,11 +12456,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="395874648"/>
-        <c:axId val="395878960"/>
+        <c:axId val="406688080"/>
+        <c:axId val="406692000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="395874648"/>
+        <c:axId val="406688080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10385,7 +12548,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395878960"/>
+        <c:crossAx val="406692000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10393,7 +12556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="395878960"/>
+        <c:axId val="406692000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10490,7 +12653,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395874648"/>
+        <c:crossAx val="406688080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10543,7 +12706,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10719,11 +12882,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="395877784"/>
-        <c:axId val="395878568"/>
+        <c:axId val="406694352"/>
+        <c:axId val="406694744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="395877784"/>
+        <c:axId val="406694352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10811,7 +12974,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395878568"/>
+        <c:crossAx val="406694744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10819,7 +12982,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="395878568"/>
+        <c:axId val="406694744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10916,7 +13079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395877784"/>
+        <c:crossAx val="406694352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10969,7 +13132,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11150,11 +13313,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="395875824"/>
-        <c:axId val="395876216"/>
+        <c:axId val="406157200"/>
+        <c:axId val="406163472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="395875824"/>
+        <c:axId val="406157200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11243,7 +13406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395876216"/>
+        <c:crossAx val="406163472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11251,7 +13414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="395876216"/>
+        <c:axId val="406163472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11348,7 +13511,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395875824"/>
+        <c:crossAx val="406157200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11401,7 +13564,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11535,11 +13698,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="395877392"/>
-        <c:axId val="395877000"/>
+        <c:axId val="406157592"/>
+        <c:axId val="406157984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="395877392"/>
+        <c:axId val="406157592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11627,7 +13790,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395877000"/>
+        <c:crossAx val="406157984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11635,7 +13798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="395877000"/>
+        <c:axId val="406157984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11732,7 +13895,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395877392"/>
+        <c:crossAx val="406157592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11785,7 +13948,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11822,7 +13985,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11926,11 +14088,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="393999056"/>
-        <c:axId val="394008856"/>
+        <c:axId val="406158376"/>
+        <c:axId val="406165824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="393999056"/>
+        <c:axId val="406158376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11959,7 +14121,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12019,7 +14180,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394008856"/>
+        <c:crossAx val="406165824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12027,7 +14188,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="394008856"/>
+        <c:axId val="406165824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12070,7 +14231,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12125,7 +14285,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393999056"/>
+        <c:crossAx val="406158376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12166,674 +14326,6 @@
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Log Likelihood</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Iris Scree'!$M$5:$M$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-0.1288</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2250999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7517999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0339999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.1987999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.363</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.4906000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.5653999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.6619999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.7704</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.7850999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.8466</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="394002584"/>
-        <c:axId val="394007288"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="394002584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Ckusters (k)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="394007288"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="394007288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Log Likelihood</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="394002584"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Iris!$AZ$4:$AZ$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>16.5718</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.3605999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.7363</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.9218000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.6473</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4055</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.2972999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0249999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9212</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.8713</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.8441000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7878000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="393997096"/>
-        <c:axId val="394009248"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="393997096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="394009248"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="394009248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="393997096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -12967,6 +14459,166 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14875,6 +16527,2070 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19580,6 +23296,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>356</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>356</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19895,6 +23671,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>118</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -48584,10 +52420,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AE340"/>
+  <dimension ref="A2:CE359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H312" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE334" sqref="AE334"/>
+    <sheetView tabSelected="1" topLeftCell="BG303" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CC316" sqref="CC316:CE359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49927,27 +53763,27 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="305" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
         <v>2560</v>
       </c>
     </row>
-    <row r="308" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
         <v>2561</v>
       </c>
     </row>
-    <row r="310" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
         <v>2386</v>
       </c>
     </row>
-    <row r="312" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
         <v>2562</v>
       </c>
     </row>
-    <row r="313" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:81" x14ac:dyDescent="0.25">
       <c r="L313" t="s">
         <v>2692</v>
       </c>
@@ -49960,16 +53796,46 @@
       <c r="AC313" t="s">
         <v>2693</v>
       </c>
-    </row>
-    <row r="314" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AH313" t="s">
+        <v>2756</v>
+      </c>
+      <c r="AR313" t="s">
+        <v>2756</v>
+      </c>
+      <c r="BB313" t="s">
+        <v>2756</v>
+      </c>
+      <c r="BK313" t="s">
+        <v>2791</v>
+      </c>
+      <c r="BQ313" t="s">
+        <v>2808</v>
+      </c>
+      <c r="BX313" t="s">
+        <v>2809</v>
+      </c>
+      <c r="CC313" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="314" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
         <v>2388</v>
       </c>
       <c r="Q314" s="8" t="s">
         <v>2684</v>
       </c>
-    </row>
-    <row r="315" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AH314" t="s">
+        <v>2757</v>
+      </c>
+      <c r="AR314" t="s">
+        <v>2759</v>
+      </c>
+      <c r="BB314" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="315" spans="2:81" x14ac:dyDescent="0.25">
       <c r="L315" t="s">
         <v>2283</v>
       </c>
@@ -49982,8 +53848,17 @@
       <c r="AC315" t="s">
         <v>2143</v>
       </c>
-    </row>
-    <row r="316" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AH315" t="s">
+        <v>2758</v>
+      </c>
+      <c r="AR315" t="s">
+        <v>2758</v>
+      </c>
+      <c r="BB315" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="316" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
         <v>2563</v>
       </c>
@@ -49999,8 +53874,29 @@
       <c r="X316">
         <v>108.98439999999999</v>
       </c>
-    </row>
-    <row r="317" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AH316" t="s">
+        <v>2739</v>
+      </c>
+      <c r="AR316" t="s">
+        <v>2760</v>
+      </c>
+      <c r="BB316" t="s">
+        <v>2775</v>
+      </c>
+      <c r="BL316" t="s">
+        <v>2283</v>
+      </c>
+      <c r="BQ316" t="s">
+        <v>2118</v>
+      </c>
+      <c r="BX316" t="s">
+        <v>2284</v>
+      </c>
+      <c r="CC316" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="317" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
         <v>2564</v>
       </c>
@@ -50022,8 +53918,26 @@
       <c r="AC317" t="s">
         <v>2695</v>
       </c>
-    </row>
-    <row r="318" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="BK317">
+        <v>1</v>
+      </c>
+      <c r="BL317">
+        <v>2174.8717000000001</v>
+      </c>
+      <c r="BQ317" t="s">
+        <v>2119</v>
+      </c>
+      <c r="BW317">
+        <v>1</v>
+      </c>
+      <c r="BX317">
+        <v>2.6006</v>
+      </c>
+      <c r="CC317" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="318" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
         <v>2565</v>
       </c>
@@ -50042,8 +53956,29 @@
       <c r="AC318" t="s">
         <v>2696</v>
       </c>
-    </row>
-    <row r="319" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AH318" t="s">
+        <v>2740</v>
+      </c>
+      <c r="AR318" t="s">
+        <v>2740</v>
+      </c>
+      <c r="BB318" t="s">
+        <v>2740</v>
+      </c>
+      <c r="BK318">
+        <v>2</v>
+      </c>
+      <c r="BL318">
+        <v>1519.6831</v>
+      </c>
+      <c r="BW318">
+        <v>2</v>
+      </c>
+      <c r="BX318">
+        <v>2.7366999999999999</v>
+      </c>
+    </row>
+    <row r="319" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
         <v>2566</v>
       </c>
@@ -50062,8 +53997,32 @@
       <c r="X319">
         <v>154.2747</v>
       </c>
-    </row>
-    <row r="320" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AH319" t="s">
+        <v>2388</v>
+      </c>
+      <c r="AR319" t="s">
+        <v>2388</v>
+      </c>
+      <c r="BB319" t="s">
+        <v>2388</v>
+      </c>
+      <c r="BK319">
+        <v>3</v>
+      </c>
+      <c r="BL319">
+        <v>1274.6787999999999</v>
+      </c>
+      <c r="BQ319" t="s">
+        <v>2792</v>
+      </c>
+      <c r="BW319">
+        <v>3</v>
+      </c>
+      <c r="BX319">
+        <v>2.7847</v>
+      </c>
+    </row>
+    <row r="320" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
         <v>2567</v>
       </c>
@@ -50079,8 +54038,26 @@
       <c r="X320">
         <v>156.52070000000001</v>
       </c>
-    </row>
-    <row r="321" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="BK320">
+        <v>4</v>
+      </c>
+      <c r="BL320">
+        <v>1139.1764000000001</v>
+      </c>
+      <c r="BQ320" t="s">
+        <v>2793</v>
+      </c>
+      <c r="BW320">
+        <v>4</v>
+      </c>
+      <c r="BX320">
+        <v>2.8151000000000002</v>
+      </c>
+      <c r="CC320" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="321" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
         <v>2568</v>
       </c>
@@ -50102,8 +54079,32 @@
       <c r="AC321" t="s">
         <v>2697</v>
       </c>
-    </row>
-    <row r="322" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH321" t="s">
+        <v>2741</v>
+      </c>
+      <c r="AR321" t="s">
+        <v>2761</v>
+      </c>
+      <c r="BB321" t="s">
+        <v>2776</v>
+      </c>
+      <c r="BK321">
+        <v>5</v>
+      </c>
+      <c r="BL321">
+        <v>1025.7145</v>
+      </c>
+      <c r="BW321">
+        <v>5</v>
+      </c>
+      <c r="BX321">
+        <v>2.8328000000000002</v>
+      </c>
+      <c r="CC321" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="322" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
         <v>2569</v>
       </c>
@@ -50122,8 +54123,35 @@
       <c r="X322">
         <v>159.3852</v>
       </c>
-    </row>
-    <row r="323" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH322" t="s">
+        <v>2742</v>
+      </c>
+      <c r="AR322" t="s">
+        <v>2762</v>
+      </c>
+      <c r="BB322" t="s">
+        <v>2777</v>
+      </c>
+      <c r="BK322">
+        <v>6</v>
+      </c>
+      <c r="BL322">
+        <v>954.31700000000001</v>
+      </c>
+      <c r="BQ322" t="s">
+        <v>2122</v>
+      </c>
+      <c r="BW322">
+        <v>6</v>
+      </c>
+      <c r="BX322">
+        <v>2.9015</v>
+      </c>
+      <c r="CC322" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="323" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
         <v>2570</v>
       </c>
@@ -50139,8 +54167,32 @@
       <c r="X323">
         <v>159.88679999999999</v>
       </c>
-    </row>
-    <row r="324" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH323" t="s">
+        <v>2743</v>
+      </c>
+      <c r="AR323" t="s">
+        <v>2763</v>
+      </c>
+      <c r="BB323" t="s">
+        <v>2778</v>
+      </c>
+      <c r="BK323">
+        <v>7</v>
+      </c>
+      <c r="BL323">
+        <v>879.28520000000003</v>
+      </c>
+      <c r="BW323">
+        <v>7</v>
+      </c>
+      <c r="BX323">
+        <v>2.9093</v>
+      </c>
+      <c r="CC323" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="324" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
         <v>2571</v>
       </c>
@@ -50159,8 +54211,35 @@
       <c r="AC324" t="s">
         <v>2146</v>
       </c>
-    </row>
-    <row r="325" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH324" t="s">
+        <v>2744</v>
+      </c>
+      <c r="AR324" t="s">
+        <v>2764</v>
+      </c>
+      <c r="BB324" t="s">
+        <v>2779</v>
+      </c>
+      <c r="BK324">
+        <v>8</v>
+      </c>
+      <c r="BL324">
+        <v>827.87210000000005</v>
+      </c>
+      <c r="BQ324" t="s">
+        <v>2794</v>
+      </c>
+      <c r="BW324">
+        <v>8</v>
+      </c>
+      <c r="BX324">
+        <v>2.9445999999999999</v>
+      </c>
+      <c r="CC324" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="325" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
         <v>2572</v>
       </c>
@@ -50182,8 +54261,35 @@
       <c r="AC325" t="s">
         <v>2147</v>
       </c>
-    </row>
-    <row r="326" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH325" t="s">
+        <v>2745</v>
+      </c>
+      <c r="AR325" t="s">
+        <v>2765</v>
+      </c>
+      <c r="BB325" t="s">
+        <v>2780</v>
+      </c>
+      <c r="BK325">
+        <v>9</v>
+      </c>
+      <c r="BL325">
+        <v>786.45219999999995</v>
+      </c>
+      <c r="BQ325" t="s">
+        <v>2795</v>
+      </c>
+      <c r="BW325">
+        <v>9</v>
+      </c>
+      <c r="BX325">
+        <v>2.9428999999999998</v>
+      </c>
+      <c r="CC325" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="326" spans="2:81" x14ac:dyDescent="0.25">
       <c r="K326">
         <v>11</v>
       </c>
@@ -50199,8 +54305,32 @@
       <c r="X326">
         <v>161.6559</v>
       </c>
-    </row>
-    <row r="327" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH326" t="s">
+        <v>2746</v>
+      </c>
+      <c r="AR326" t="s">
+        <v>2766</v>
+      </c>
+      <c r="BB326" t="s">
+        <v>2781</v>
+      </c>
+      <c r="BK326">
+        <v>10</v>
+      </c>
+      <c r="BL326">
+        <v>758.97209999999995</v>
+      </c>
+      <c r="BW326">
+        <v>10</v>
+      </c>
+      <c r="BX326">
+        <v>2.9512999999999998</v>
+      </c>
+      <c r="CC326" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="327" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
         <v>2573</v>
       </c>
@@ -50219,8 +54349,32 @@
       <c r="AC327" t="s">
         <v>2148</v>
       </c>
-    </row>
-    <row r="328" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH327" t="s">
+        <v>2747</v>
+      </c>
+      <c r="AR327" t="s">
+        <v>2767</v>
+      </c>
+      <c r="BB327" t="s">
+        <v>2782</v>
+      </c>
+      <c r="BK327">
+        <v>11</v>
+      </c>
+      <c r="BL327">
+        <v>722.76580000000001</v>
+      </c>
+      <c r="BQ327" t="s">
+        <v>2125</v>
+      </c>
+      <c r="BW327">
+        <v>11</v>
+      </c>
+      <c r="BX327">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="328" spans="2:81" x14ac:dyDescent="0.25">
       <c r="K328">
         <v>13</v>
       </c>
@@ -50239,8 +54393,32 @@
       <c r="AC328" t="s">
         <v>2698</v>
       </c>
-    </row>
-    <row r="329" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH328" t="s">
+        <v>2748</v>
+      </c>
+      <c r="AR328" t="s">
+        <v>2768</v>
+      </c>
+      <c r="BB328" t="s">
+        <v>2783</v>
+      </c>
+      <c r="BK328">
+        <v>12</v>
+      </c>
+      <c r="BL328">
+        <v>688.92449999999997</v>
+      </c>
+      <c r="BW328">
+        <v>12</v>
+      </c>
+      <c r="BX328">
+        <v>2.9632000000000001</v>
+      </c>
+      <c r="CC328" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="329" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
         <v>2574</v>
       </c>
@@ -50262,8 +54440,35 @@
       <c r="AC329" t="s">
         <v>2699</v>
       </c>
-    </row>
-    <row r="330" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH329" t="s">
+        <v>2749</v>
+      </c>
+      <c r="AR329" t="s">
+        <v>2769</v>
+      </c>
+      <c r="BB329" t="s">
+        <v>2784</v>
+      </c>
+      <c r="BK329">
+        <v>13</v>
+      </c>
+      <c r="BL329">
+        <v>663.70709999999997</v>
+      </c>
+      <c r="BQ329" t="s">
+        <v>2126</v>
+      </c>
+      <c r="BW329">
+        <v>13</v>
+      </c>
+      <c r="BX329">
+        <v>2.9990999999999999</v>
+      </c>
+      <c r="CC329" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="330" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
         <v>2575</v>
       </c>
@@ -50282,8 +54487,35 @@
       <c r="X330">
         <v>164.55019999999999</v>
       </c>
-    </row>
-    <row r="331" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH330" t="s">
+        <v>1722</v>
+      </c>
+      <c r="AR330" t="s">
+        <v>1722</v>
+      </c>
+      <c r="BB330" t="s">
+        <v>1722</v>
+      </c>
+      <c r="BK330">
+        <v>14</v>
+      </c>
+      <c r="BL330">
+        <v>641.04169999999999</v>
+      </c>
+      <c r="BQ330" t="s">
+        <v>2796</v>
+      </c>
+      <c r="BW330">
+        <v>14</v>
+      </c>
+      <c r="BX330">
+        <v>3.0019</v>
+      </c>
+      <c r="CC330" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="331" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
         <v>2576</v>
       </c>
@@ -50302,8 +54534,23 @@
       <c r="AC331" t="s">
         <v>2174</v>
       </c>
-    </row>
-    <row r="332" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="BK331">
+        <v>15</v>
+      </c>
+      <c r="BL331">
+        <v>621.21500000000003</v>
+      </c>
+      <c r="BQ331" t="s">
+        <v>2797</v>
+      </c>
+      <c r="BW331">
+        <v>15</v>
+      </c>
+      <c r="BX331">
+        <v>3.0089999999999999</v>
+      </c>
+    </row>
+    <row r="332" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
         <v>2577</v>
       </c>
@@ -50325,8 +54572,35 @@
       <c r="AC332" t="s">
         <v>2175</v>
       </c>
-    </row>
-    <row r="333" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH332" t="s">
+        <v>2573</v>
+      </c>
+      <c r="AR332" t="s">
+        <v>2573</v>
+      </c>
+      <c r="BB332" t="s">
+        <v>2573</v>
+      </c>
+      <c r="BK332">
+        <v>16</v>
+      </c>
+      <c r="BL332">
+        <v>598.24390000000005</v>
+      </c>
+      <c r="BQ332" t="s">
+        <v>2798</v>
+      </c>
+      <c r="BW332">
+        <v>16</v>
+      </c>
+      <c r="BX332">
+        <v>3.0093999999999999</v>
+      </c>
+      <c r="CC332" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="333" spans="2:81" x14ac:dyDescent="0.25">
       <c r="K333">
         <v>18</v>
       </c>
@@ -50343,8 +54617,26 @@
       <c r="X333">
         <v>169.34119999999999</v>
       </c>
-    </row>
-    <row r="334" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="BK333">
+        <v>17</v>
+      </c>
+      <c r="BL333">
+        <v>581.31579999999997</v>
+      </c>
+      <c r="BQ333" t="s">
+        <v>2799</v>
+      </c>
+      <c r="BW333">
+        <v>17</v>
+      </c>
+      <c r="BX333">
+        <v>3.0448</v>
+      </c>
+      <c r="CC333" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="334" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
         <v>2578</v>
       </c>
@@ -50369,8 +54661,35 @@
       <c r="AE334" s="4">
         <v>0.312552</v>
       </c>
-    </row>
-    <row r="335" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH334" t="s">
+        <v>2574</v>
+      </c>
+      <c r="AR334" t="s">
+        <v>2574</v>
+      </c>
+      <c r="BB334" t="s">
+        <v>2574</v>
+      </c>
+      <c r="BK334">
+        <v>18</v>
+      </c>
+      <c r="BL334">
+        <v>565.73530000000005</v>
+      </c>
+      <c r="BQ334" t="s">
+        <v>2800</v>
+      </c>
+      <c r="BW334">
+        <v>18</v>
+      </c>
+      <c r="BX334">
+        <v>3.0661999999999998</v>
+      </c>
+      <c r="CC334" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="335" spans="2:81" x14ac:dyDescent="0.25">
       <c r="K335">
         <v>20</v>
       </c>
@@ -50392,8 +54711,32 @@
       <c r="X335">
         <v>168.51179999999999</v>
       </c>
-    </row>
-    <row r="336" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AH335" t="s">
+        <v>2750</v>
+      </c>
+      <c r="AR335" t="s">
+        <v>2770</v>
+      </c>
+      <c r="BB335" t="s">
+        <v>2785</v>
+      </c>
+      <c r="BK335">
+        <v>19</v>
+      </c>
+      <c r="BL335">
+        <v>551.58550000000002</v>
+      </c>
+      <c r="BQ335" t="s">
+        <v>2801</v>
+      </c>
+      <c r="BW335">
+        <v>19</v>
+      </c>
+      <c r="BX335">
+        <v>3.0682</v>
+      </c>
+    </row>
+    <row r="336" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
         <v>2579</v>
       </c>
@@ -50409,8 +54752,35 @@
       <c r="X336">
         <v>170.58260000000001</v>
       </c>
-    </row>
-    <row r="337" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AH336" t="s">
+        <v>2751</v>
+      </c>
+      <c r="AR336" t="s">
+        <v>2771</v>
+      </c>
+      <c r="BB336" t="s">
+        <v>2786</v>
+      </c>
+      <c r="BK336">
+        <v>20</v>
+      </c>
+      <c r="BL336">
+        <v>541.93880000000001</v>
+      </c>
+      <c r="BQ336" t="s">
+        <v>2802</v>
+      </c>
+      <c r="BW336">
+        <v>20</v>
+      </c>
+      <c r="BX336">
+        <v>3.0737999999999999</v>
+      </c>
+      <c r="CC336" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="337" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
         <v>2580</v>
       </c>
@@ -50426,8 +54796,35 @@
       <c r="X337">
         <v>171.52250000000001</v>
       </c>
-    </row>
-    <row r="338" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AH337" t="s">
+        <v>2752</v>
+      </c>
+      <c r="AR337" t="s">
+        <v>2772</v>
+      </c>
+      <c r="BB337" t="s">
+        <v>2787</v>
+      </c>
+      <c r="BK337">
+        <v>21</v>
+      </c>
+      <c r="BL337">
+        <v>526.43870000000004</v>
+      </c>
+      <c r="BQ337" t="s">
+        <v>2803</v>
+      </c>
+      <c r="BW337">
+        <v>21</v>
+      </c>
+      <c r="BX337">
+        <v>3.0484</v>
+      </c>
+      <c r="CC337" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="338" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
         <v>2581</v>
       </c>
@@ -50443,8 +54840,23 @@
       <c r="X338">
         <v>170.12639999999999</v>
       </c>
-    </row>
-    <row r="339" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="BK338">
+        <v>22</v>
+      </c>
+      <c r="BL338">
+        <v>513.83939999999996</v>
+      </c>
+      <c r="BW338">
+        <v>22</v>
+      </c>
+      <c r="BX338">
+        <v>3.0941000000000001</v>
+      </c>
+      <c r="CC338" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="339" spans="2:81" x14ac:dyDescent="0.25">
       <c r="K339">
         <v>24</v>
       </c>
@@ -50457,8 +54869,29 @@
       <c r="X339">
         <v>171.8133</v>
       </c>
-    </row>
-    <row r="340" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AH339" t="s">
+        <v>2578</v>
+      </c>
+      <c r="AR339" t="s">
+        <v>2578</v>
+      </c>
+      <c r="BB339" t="s">
+        <v>2578</v>
+      </c>
+      <c r="BK339">
+        <v>23</v>
+      </c>
+      <c r="BL339">
+        <v>502.20240000000001</v>
+      </c>
+      <c r="BW339">
+        <v>23</v>
+      </c>
+      <c r="BX339">
+        <v>3.0983999999999998</v>
+      </c>
+    </row>
+    <row r="340" spans="2:81" x14ac:dyDescent="0.25">
       <c r="K340">
         <v>25</v>
       </c>
@@ -50470,6 +54903,166 @@
       </c>
       <c r="X340">
         <v>171.65029999999999</v>
+      </c>
+      <c r="BK340">
+        <v>24</v>
+      </c>
+      <c r="BL340">
+        <v>492.53899999999999</v>
+      </c>
+      <c r="BQ340" t="s">
+        <v>2143</v>
+      </c>
+      <c r="BW340">
+        <v>24</v>
+      </c>
+      <c r="BX340">
+        <v>3.1339999999999999</v>
+      </c>
+      <c r="CC340" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="341" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="AH341" t="s">
+        <v>2753</v>
+      </c>
+      <c r="AR341" t="s">
+        <v>2753</v>
+      </c>
+      <c r="BB341" t="s">
+        <v>2753</v>
+      </c>
+      <c r="BK341">
+        <v>25</v>
+      </c>
+      <c r="BL341">
+        <v>482.18939999999998</v>
+      </c>
+      <c r="BW341">
+        <v>25</v>
+      </c>
+      <c r="BX341">
+        <v>3.1432000000000002</v>
+      </c>
+    </row>
+    <row r="342" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="AH342" t="s">
+        <v>2754</v>
+      </c>
+      <c r="AR342" t="s">
+        <v>2773</v>
+      </c>
+      <c r="BB342" t="s">
+        <v>2788</v>
+      </c>
+      <c r="BQ342" t="s">
+        <v>2804</v>
+      </c>
+      <c r="CC342" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="343" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="AH343" t="s">
+        <v>2755</v>
+      </c>
+      <c r="AR343" t="s">
+        <v>2774</v>
+      </c>
+      <c r="BB343" t="s">
+        <v>2789</v>
+      </c>
+      <c r="BQ343" t="s">
+        <v>2805</v>
+      </c>
+      <c r="CC343" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="346" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="BQ346" t="s">
+        <v>2146</v>
+      </c>
+      <c r="CC346" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="347" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="BQ347" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="349" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="BQ349" t="s">
+        <v>2148</v>
+      </c>
+      <c r="CC349" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="350" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="BQ350" t="s">
+        <v>2806</v>
+      </c>
+      <c r="CC350" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="351" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="BQ351" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="352" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="CC352" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="353" spans="69:83" x14ac:dyDescent="0.25">
+      <c r="BQ353" t="s">
+        <v>2174</v>
+      </c>
+      <c r="CC353" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="354" spans="69:83" x14ac:dyDescent="0.25">
+      <c r="BQ354" t="s">
+        <v>2175</v>
+      </c>
+      <c r="CC354" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="356" spans="69:83" x14ac:dyDescent="0.25">
+      <c r="BQ356" t="s">
+        <v>2153</v>
+      </c>
+      <c r="BR356">
+        <v>10951</v>
+      </c>
+      <c r="BS356" s="4">
+        <v>0.33632299999999998</v>
+      </c>
+      <c r="CC356" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="357" spans="69:83" x14ac:dyDescent="0.25">
+      <c r="CC357" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="359" spans="69:83" x14ac:dyDescent="0.25">
+      <c r="CC359" t="s">
+        <v>2153</v>
+      </c>
+      <c r="CD359">
+        <v>10115</v>
+      </c>
+      <c r="CE359" s="4">
+        <v>0.31064799999999998</v>
       </c>
     </row>
   </sheetData>
@@ -52147,15 +56740,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:DF85"/>
+  <dimension ref="B1:EF85"/>
   <sheetViews>
-    <sheetView topLeftCell="CQ1" workbookViewId="0">
-      <selection activeCell="DD1" sqref="DD1"/>
+    <sheetView topLeftCell="DR1" workbookViewId="0">
+      <selection activeCell="EL1" sqref="EL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:108" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:136" x14ac:dyDescent="0.25">
       <c r="AA1" t="s">
         <v>2328</v>
       </c>
@@ -52189,8 +56782,23 @@
       <c r="DD1" t="s">
         <v>2683</v>
       </c>
-    </row>
-    <row r="2" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DJ1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>2712</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>2714</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>2726</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="2" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2285</v>
       </c>
@@ -52198,7 +56806,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="3" spans="2:108" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2286</v>
       </c>
@@ -52244,8 +56852,23 @@
       <c r="DD3" t="s">
         <v>2603</v>
       </c>
-    </row>
-    <row r="4" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DJ3" t="s">
+        <v>2283</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>2118</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>2284</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="4" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2287</v>
       </c>
@@ -52294,8 +56917,29 @@
       <c r="CY4">
         <v>0.1585</v>
       </c>
-    </row>
-    <row r="5" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DI4">
+        <v>1</v>
+      </c>
+      <c r="DJ4">
+        <v>23.3947</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>2119</v>
+      </c>
+      <c r="DU4">
+        <v>1</v>
+      </c>
+      <c r="DV4">
+        <v>-0.2858</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2288</v>
       </c>
@@ -52353,8 +56997,23 @@
       <c r="DD5" t="s">
         <v>2604</v>
       </c>
-    </row>
-    <row r="6" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DI5">
+        <v>2</v>
+      </c>
+      <c r="DJ5">
+        <v>3.7581000000000002</v>
+      </c>
+      <c r="DU5">
+        <v>2</v>
+      </c>
+      <c r="DV5">
+        <v>1.1497999999999999</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2289</v>
       </c>
@@ -52400,8 +57059,29 @@
       <c r="DD6" t="s">
         <v>2605</v>
       </c>
-    </row>
-    <row r="7" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DI6">
+        <v>3</v>
+      </c>
+      <c r="DJ6">
+        <v>1.6763999999999999</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>2700</v>
+      </c>
+      <c r="DU6">
+        <v>3</v>
+      </c>
+      <c r="DV6">
+        <v>1.3778999999999999</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>2606</v>
+      </c>
+      <c r="EF6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2315</v>
       </c>
@@ -52438,8 +57118,29 @@
       <c r="CY7">
         <v>1.0186999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DI7">
+        <v>4</v>
+      </c>
+      <c r="DJ7">
+        <v>1.3634999999999999</v>
+      </c>
+      <c r="DO7" t="s">
+        <v>2701</v>
+      </c>
+      <c r="DU7">
+        <v>4</v>
+      </c>
+      <c r="DV7">
+        <v>1.4136</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>2715</v>
+      </c>
+      <c r="EF7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2290</v>
       </c>
@@ -52482,8 +57183,23 @@
       <c r="DD8" t="s">
         <v>2606</v>
       </c>
-    </row>
-    <row r="9" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DI8">
+        <v>5</v>
+      </c>
+      <c r="DJ8">
+        <v>1.2097</v>
+      </c>
+      <c r="DU8">
+        <v>5</v>
+      </c>
+      <c r="DV8">
+        <v>1.4380999999999999</v>
+      </c>
+      <c r="EF8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:136" x14ac:dyDescent="0.25">
       <c r="AA9" t="s">
         <v>2334</v>
       </c>
@@ -52523,8 +57239,26 @@
       <c r="DD9" t="s">
         <v>2664</v>
       </c>
-    </row>
-    <row r="10" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DI9">
+        <v>6</v>
+      </c>
+      <c r="DJ9">
+        <v>1.1407</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>2122</v>
+      </c>
+      <c r="DU9">
+        <v>6</v>
+      </c>
+      <c r="DV9">
+        <v>1.4538</v>
+      </c>
+      <c r="EF9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>2291</v>
       </c>
@@ -52561,8 +57295,26 @@
       <c r="CY10">
         <v>1.1233</v>
       </c>
-    </row>
-    <row r="11" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DI10">
+        <v>7</v>
+      </c>
+      <c r="DJ10">
+        <v>0.97350000000000003</v>
+      </c>
+      <c r="DU10">
+        <v>7</v>
+      </c>
+      <c r="DV10">
+        <v>1.4785999999999999</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>2665</v>
+      </c>
+      <c r="EF10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>2316</v>
       </c>
@@ -52599,8 +57351,29 @@
       <c r="CY11">
         <v>1.1513</v>
       </c>
-    </row>
-    <row r="12" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DI11">
+        <v>8</v>
+      </c>
+      <c r="DJ11">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="DO11" t="s">
+        <v>2702</v>
+      </c>
+      <c r="DU11">
+        <v>8</v>
+      </c>
+      <c r="DV11">
+        <v>1.5226999999999999</v>
+      </c>
+      <c r="EA11" t="s">
+        <v>2666</v>
+      </c>
+      <c r="EF11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2292</v>
       </c>
@@ -52640,8 +57413,26 @@
       <c r="DD12" t="s">
         <v>2665</v>
       </c>
-    </row>
-    <row r="13" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DI12">
+        <v>9</v>
+      </c>
+      <c r="DJ12">
+        <v>0.87709999999999999</v>
+      </c>
+      <c r="DO12" t="s">
+        <v>2703</v>
+      </c>
+      <c r="DU12">
+        <v>9</v>
+      </c>
+      <c r="DV12">
+        <v>1.5246999999999999</v>
+      </c>
+      <c r="EA12" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="13" spans="2:136" x14ac:dyDescent="0.25">
       <c r="AY13">
         <v>10</v>
       </c>
@@ -52675,8 +57466,29 @@
       <c r="DD13" t="s">
         <v>2666</v>
       </c>
-    </row>
-    <row r="14" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DI13">
+        <v>10</v>
+      </c>
+      <c r="DJ13">
+        <v>0.83660000000000001</v>
+      </c>
+      <c r="DO13" t="s">
+        <v>2704</v>
+      </c>
+      <c r="DU13">
+        <v>10</v>
+      </c>
+      <c r="DV13">
+        <v>1.56</v>
+      </c>
+      <c r="EA13" t="s">
+        <v>2668</v>
+      </c>
+      <c r="EF13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>2293</v>
       </c>
@@ -52719,8 +57531,23 @@
       <c r="DD14" t="s">
         <v>2667</v>
       </c>
-    </row>
-    <row r="15" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DI14">
+        <v>11</v>
+      </c>
+      <c r="DJ14">
+        <v>0.82540000000000002</v>
+      </c>
+      <c r="DU14">
+        <v>11</v>
+      </c>
+      <c r="DV14">
+        <v>1.6226</v>
+      </c>
+      <c r="EA14" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="15" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>2317</v>
       </c>
@@ -52763,8 +57590,29 @@
       <c r="DD15" t="s">
         <v>2668</v>
       </c>
-    </row>
-    <row r="16" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DI15">
+        <v>12</v>
+      </c>
+      <c r="DJ15">
+        <v>0.78649999999999998</v>
+      </c>
+      <c r="DO15" t="s">
+        <v>2125</v>
+      </c>
+      <c r="DU15">
+        <v>12</v>
+      </c>
+      <c r="DV15">
+        <v>1.6746000000000001</v>
+      </c>
+      <c r="EA15" t="s">
+        <v>2718</v>
+      </c>
+      <c r="EF15" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="16" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>2294</v>
       </c>
@@ -52807,8 +57655,26 @@
       <c r="DD16" t="s">
         <v>2669</v>
       </c>
-    </row>
-    <row r="17" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DI16">
+        <v>13</v>
+      </c>
+      <c r="DJ16">
+        <v>0.51649999999999996</v>
+      </c>
+      <c r="DU16">
+        <v>13</v>
+      </c>
+      <c r="DV16">
+        <v>1.6514</v>
+      </c>
+      <c r="EA16" t="s">
+        <v>2719</v>
+      </c>
+      <c r="EF16" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="17" spans="2:136" x14ac:dyDescent="0.25">
       <c r="AA17" t="s">
         <v>2340</v>
       </c>
@@ -52845,8 +57711,26 @@
       <c r="DD17" t="s">
         <v>2670</v>
       </c>
-    </row>
-    <row r="18" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DI17">
+        <v>14</v>
+      </c>
+      <c r="DJ17">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="DO17" t="s">
+        <v>2126</v>
+      </c>
+      <c r="DU17">
+        <v>14</v>
+      </c>
+      <c r="DV17">
+        <v>1.6807000000000001</v>
+      </c>
+      <c r="EF17" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="18" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>2295</v>
       </c>
@@ -52889,8 +57773,29 @@
       <c r="DD18" t="s">
         <v>2671</v>
       </c>
-    </row>
-    <row r="19" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DI18">
+        <v>15</v>
+      </c>
+      <c r="DJ18">
+        <v>0.46129999999999999</v>
+      </c>
+      <c r="DO18" t="s">
+        <v>2650</v>
+      </c>
+      <c r="DU18">
+        <v>15</v>
+      </c>
+      <c r="DV18">
+        <v>1.7175</v>
+      </c>
+      <c r="EA18" t="s">
+        <v>2720</v>
+      </c>
+      <c r="EF18" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="19" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>2318</v>
       </c>
@@ -52927,8 +57832,29 @@
       <c r="CY19">
         <v>1.32</v>
       </c>
-    </row>
-    <row r="20" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DI19">
+        <v>16</v>
+      </c>
+      <c r="DJ19">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="DO19" t="s">
+        <v>2651</v>
+      </c>
+      <c r="DU19">
+        <v>16</v>
+      </c>
+      <c r="DV19">
+        <v>1.6583000000000001</v>
+      </c>
+      <c r="EA19" t="s">
+        <v>2721</v>
+      </c>
+      <c r="EF19" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="20" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>2296</v>
       </c>
@@ -52974,8 +57900,29 @@
       <c r="DD20" t="s">
         <v>2672</v>
       </c>
-    </row>
-    <row r="21" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DI20">
+        <v>17</v>
+      </c>
+      <c r="DJ20">
+        <v>0.39229999999999998</v>
+      </c>
+      <c r="DO20" t="s">
+        <v>2705</v>
+      </c>
+      <c r="DU20">
+        <v>17</v>
+      </c>
+      <c r="DV20">
+        <v>1.6525000000000001</v>
+      </c>
+      <c r="EA20" t="s">
+        <v>2722</v>
+      </c>
+      <c r="EF20" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="21" spans="2:136" x14ac:dyDescent="0.25">
       <c r="AA21" t="s">
         <v>2344</v>
       </c>
@@ -53015,8 +57962,26 @@
       <c r="DD21" t="s">
         <v>2673</v>
       </c>
-    </row>
-    <row r="22" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DI21">
+        <v>18</v>
+      </c>
+      <c r="DJ21">
+        <v>0.38179999999999997</v>
+      </c>
+      <c r="DO21" t="s">
+        <v>2653</v>
+      </c>
+      <c r="DU21">
+        <v>18</v>
+      </c>
+      <c r="DV21">
+        <v>1.7571000000000001</v>
+      </c>
+      <c r="EF21" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="22" spans="2:136" x14ac:dyDescent="0.25">
       <c r="AA22" t="s">
         <v>2345</v>
       </c>
@@ -53056,8 +58021,29 @@
       <c r="DD22" t="s">
         <v>2674</v>
       </c>
-    </row>
-    <row r="23" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DI22">
+        <v>19</v>
+      </c>
+      <c r="DJ22">
+        <v>0.37469999999999998</v>
+      </c>
+      <c r="DO22" t="s">
+        <v>2706</v>
+      </c>
+      <c r="DU22">
+        <v>19</v>
+      </c>
+      <c r="DV22">
+        <v>1.7424999999999999</v>
+      </c>
+      <c r="EA22" t="s">
+        <v>2143</v>
+      </c>
+      <c r="EF22" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="23" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>2305</v>
       </c>
@@ -53097,8 +58083,26 @@
       <c r="CY23">
         <v>1.4256</v>
       </c>
-    </row>
-    <row r="24" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DI23">
+        <v>20</v>
+      </c>
+      <c r="DJ23">
+        <v>0.37159999999999999</v>
+      </c>
+      <c r="DO23" t="s">
+        <v>2707</v>
+      </c>
+      <c r="DU23">
+        <v>20</v>
+      </c>
+      <c r="DV23">
+        <v>1.8069999999999999</v>
+      </c>
+      <c r="EF23" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="24" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>2306</v>
       </c>
@@ -53141,8 +58145,26 @@
       <c r="DD24" t="s">
         <v>2143</v>
       </c>
-    </row>
-    <row r="25" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DI24">
+        <v>21</v>
+      </c>
+      <c r="DJ24">
+        <v>0.33729999999999999</v>
+      </c>
+      <c r="DU24">
+        <v>21</v>
+      </c>
+      <c r="DV24">
+        <v>1.8391999999999999</v>
+      </c>
+      <c r="EA24" t="s">
+        <v>2723</v>
+      </c>
+      <c r="EF24" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="25" spans="2:136" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>2307</v>
       </c>
@@ -53179,8 +58201,23 @@
       <c r="CY25">
         <v>1.5986</v>
       </c>
-    </row>
-    <row r="26" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DI25">
+        <v>22</v>
+      </c>
+      <c r="DJ25">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="DU25">
+        <v>22</v>
+      </c>
+      <c r="DV25">
+        <v>1.7321</v>
+      </c>
+      <c r="EA25" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="26" spans="2:136" x14ac:dyDescent="0.25">
       <c r="G26" s="9" t="s">
         <v>2309</v>
       </c>
@@ -53220,8 +58257,29 @@
       <c r="DD26" t="s">
         <v>2675</v>
       </c>
-    </row>
-    <row r="27" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DI26">
+        <v>23</v>
+      </c>
+      <c r="DJ26">
+        <v>0.33040000000000003</v>
+      </c>
+      <c r="DO26" t="s">
+        <v>2143</v>
+      </c>
+      <c r="DU26">
+        <v>23</v>
+      </c>
+      <c r="DV26">
+        <v>1.8162</v>
+      </c>
+      <c r="EA26" t="s">
+        <v>2709</v>
+      </c>
+      <c r="EF26" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="27" spans="2:136" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>2310</v>
       </c>
@@ -53258,8 +58316,23 @@
       <c r="DD27" t="s">
         <v>2306</v>
       </c>
-    </row>
-    <row r="28" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DI27">
+        <v>24</v>
+      </c>
+      <c r="DJ27">
+        <v>0.30170000000000002</v>
+      </c>
+      <c r="DU27">
+        <v>24</v>
+      </c>
+      <c r="DV27">
+        <v>1.911</v>
+      </c>
+      <c r="EF27" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="28" spans="2:136" x14ac:dyDescent="0.25">
       <c r="G28" s="8" t="s">
         <v>2311</v>
       </c>
@@ -53296,8 +58369,23 @@
       <c r="DD28" t="s">
         <v>2676</v>
       </c>
-    </row>
-    <row r="29" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DI28">
+        <v>25</v>
+      </c>
+      <c r="DJ28">
+        <v>0.2969</v>
+      </c>
+      <c r="DO28" t="s">
+        <v>2616</v>
+      </c>
+      <c r="DU28">
+        <v>25</v>
+      </c>
+      <c r="DV28">
+        <v>1.8243</v>
+      </c>
+    </row>
+    <row r="29" spans="2:136" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
         <v>2312</v>
       </c>
@@ -53307,8 +58395,14 @@
       <c r="AL29" t="s">
         <v>2143</v>
       </c>
-    </row>
-    <row r="30" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DO29" t="s">
+        <v>2708</v>
+      </c>
+      <c r="EA29" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="30" spans="2:136" x14ac:dyDescent="0.25">
       <c r="G30" s="8" t="s">
         <v>2313</v>
       </c>
@@ -53321,8 +58415,11 @@
       <c r="CQ30" t="s">
         <v>2616</v>
       </c>
-    </row>
-    <row r="31" spans="2:108" x14ac:dyDescent="0.25">
+      <c r="DO30" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="31" spans="2:136" x14ac:dyDescent="0.25">
       <c r="G31" s="10" t="s">
         <v>2314</v>
       </c>
@@ -53342,7 +58439,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="32" spans="2:108" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:136" x14ac:dyDescent="0.25">
       <c r="AA32" t="s">
         <v>2354</v>
       </c>
@@ -53352,16 +58449,25 @@
       <c r="CQ32" t="s">
         <v>2657</v>
       </c>
-    </row>
-    <row r="33" spans="27:110" x14ac:dyDescent="0.25">
+      <c r="EA32" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="33" spans="27:133" x14ac:dyDescent="0.25">
       <c r="AA33" t="s">
         <v>2340</v>
       </c>
       <c r="AL33" t="s">
         <v>2595</v>
       </c>
-    </row>
-    <row r="34" spans="27:110" x14ac:dyDescent="0.25">
+      <c r="DO33" t="s">
+        <v>2146</v>
+      </c>
+      <c r="EA33" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="34" spans="27:133" x14ac:dyDescent="0.25">
       <c r="AA34" t="s">
         <v>2355</v>
       </c>
@@ -53371,8 +58477,11 @@
       <c r="DD34" t="s">
         <v>2146</v>
       </c>
-    </row>
-    <row r="35" spans="27:110" x14ac:dyDescent="0.25">
+      <c r="DO34" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="35" spans="27:133" x14ac:dyDescent="0.25">
       <c r="AA35" t="s">
         <v>2356</v>
       </c>
@@ -53385,8 +58494,11 @@
       <c r="DD35" t="s">
         <v>2147</v>
       </c>
-    </row>
-    <row r="36" spans="27:110" x14ac:dyDescent="0.25">
+      <c r="EA35" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="36" spans="27:133" x14ac:dyDescent="0.25">
       <c r="AA36" t="s">
         <v>2357</v>
       </c>
@@ -53396,8 +58508,14 @@
       <c r="CQ36" t="s">
         <v>2147</v>
       </c>
-    </row>
-    <row r="37" spans="27:110" x14ac:dyDescent="0.25">
+      <c r="DO36" t="s">
+        <v>2596</v>
+      </c>
+      <c r="EA36" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="37" spans="27:133" x14ac:dyDescent="0.25">
       <c r="AA37" t="s">
         <v>2358</v>
       </c>
@@ -53410,8 +58528,14 @@
       <c r="DD37" t="s">
         <v>2596</v>
       </c>
-    </row>
-    <row r="38" spans="27:110" x14ac:dyDescent="0.25">
+      <c r="DO37" t="s">
+        <v>2620</v>
+      </c>
+      <c r="EA37" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="38" spans="27:133" x14ac:dyDescent="0.25">
       <c r="AA38" t="s">
         <v>2340</v>
       </c>
@@ -53424,8 +58548,14 @@
       <c r="DD38" t="s">
         <v>2678</v>
       </c>
-    </row>
-    <row r="39" spans="27:110" x14ac:dyDescent="0.25">
+      <c r="DO38" t="s">
+        <v>2710</v>
+      </c>
+      <c r="EA38" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="39" spans="27:133" x14ac:dyDescent="0.25">
       <c r="AA39" t="s">
         <v>2359</v>
       </c>
@@ -53441,8 +58571,11 @@
       <c r="DD39" t="s">
         <v>2679</v>
       </c>
-    </row>
-    <row r="40" spans="27:110" x14ac:dyDescent="0.25">
+      <c r="DO39" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="40" spans="27:133" x14ac:dyDescent="0.25">
       <c r="AA40" t="s">
         <v>2360</v>
       </c>
@@ -53458,8 +58591,11 @@
       <c r="DD40" t="s">
         <v>2680</v>
       </c>
-    </row>
-    <row r="41" spans="27:110" x14ac:dyDescent="0.25">
+      <c r="EA40" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="41" spans="27:133" x14ac:dyDescent="0.25">
       <c r="AA41" t="s">
         <v>2361</v>
       </c>
@@ -53469,8 +58605,14 @@
       <c r="CQ41" t="s">
         <v>2659</v>
       </c>
-    </row>
-    <row r="42" spans="27:110" x14ac:dyDescent="0.25">
+      <c r="DO41" t="s">
+        <v>2600</v>
+      </c>
+      <c r="EA41" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="42" spans="27:133" x14ac:dyDescent="0.25">
       <c r="AA42" t="s">
         <v>2362</v>
       </c>
@@ -53483,8 +58625,14 @@
       <c r="DD42" t="s">
         <v>2681</v>
       </c>
-    </row>
-    <row r="43" spans="27:110" x14ac:dyDescent="0.25">
+      <c r="DO42" t="s">
+        <v>2601</v>
+      </c>
+      <c r="EA42" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="43" spans="27:133" x14ac:dyDescent="0.25">
       <c r="AA43" t="s">
         <v>2340</v>
       </c>
@@ -53497,8 +58645,11 @@
       <c r="DD43" t="s">
         <v>2682</v>
       </c>
-    </row>
-    <row r="44" spans="27:110" x14ac:dyDescent="0.25">
+      <c r="DO43" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="44" spans="27:133" x14ac:dyDescent="0.25">
       <c r="AA44" t="s">
         <v>2363</v>
       </c>
@@ -53514,8 +58665,17 @@
       <c r="DD44" t="s">
         <v>2602</v>
       </c>
-    </row>
-    <row r="45" spans="27:110" x14ac:dyDescent="0.25">
+      <c r="EA44" t="s">
+        <v>2153</v>
+      </c>
+      <c r="EB44">
+        <v>4</v>
+      </c>
+      <c r="EC44" s="4">
+        <v>2.6667E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="27:133" x14ac:dyDescent="0.25">
       <c r="AA45" t="s">
         <v>2364</v>
       </c>
@@ -53525,8 +58685,17 @@
       <c r="CQ45" t="s">
         <v>2661</v>
       </c>
-    </row>
-    <row r="46" spans="27:110" x14ac:dyDescent="0.25">
+      <c r="DO45" t="s">
+        <v>2153</v>
+      </c>
+      <c r="DP45">
+        <v>4</v>
+      </c>
+      <c r="DQ45" s="4">
+        <v>2.6667E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="27:133" x14ac:dyDescent="0.25">
       <c r="AA46" t="s">
         <v>2365</v>
       </c>
@@ -53552,7 +58721,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="27:110" x14ac:dyDescent="0.25">
+    <row r="47" spans="27:133" x14ac:dyDescent="0.25">
       <c r="AA47" t="s">
         <v>2366</v>
       </c>
@@ -53566,7 +58735,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="48" spans="27:110" x14ac:dyDescent="0.25">
+    <row r="48" spans="27:133" x14ac:dyDescent="0.25">
       <c r="AA48" t="s">
         <v>2340</v>
       </c>
